--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B57E0-52FB-4E4F-A05B-F4E8BDD814A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="19200" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -187,24 +188,39 @@
   <si>
     <t>个</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSWER6</t>
+  </si>
+  <si>
+    <t>ANSWER7</t>
+  </si>
+  <si>
+    <t>ANSWER8</t>
+  </si>
+  <si>
+    <t>ANSWER9</t>
+  </si>
+  <si>
+    <t>ANSWER10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -213,7 +229,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +238,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -292,15 +308,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -342,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +398,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +450,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,26 +643,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="13" width="11.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="18" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1"/>
+    <col min="4" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="13" width="11.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="8.88671875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,18 +719,33 @@
       <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:18">
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一 ,这个数在INPUT和INPUT的中间。"</f>
-        <v>83 里面有INPUT个十和INPUT个一 ,这个数在INPUT和INPUT的中间。</v>
+        <v>94 里面有INPUT个十和INPUT个一 ,这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">RANDBETWEEN(11,98)</f>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -678,37 +758,42 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="5">
         <f ca="1">MOD(D3, 10)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="5">
         <f ca="1">D3-1</f>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="5">
         <f ca="1">D3+1</f>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="2:18">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="5" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>8 个十是INPUT，9 里面有INPUT个一。</v>
+        <v>9 个十是INPUT，5 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -720,31 +805,36 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5">
         <f ca="1">D4*10</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O4" s="5">
         <f ca="1">E4</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是5，十位是3，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是3，十位是1，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -756,31 +846,36 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5">
         <f ca="1">E5*10 + D5</f>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="O5" s="5">
         <f ca="1">N5+1</f>
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT, INPUT, INPUT。"</f>
-        <v>比3大比7小的数有INPUT, INPUT, INPUT。</v>
+        <v>比9大比13小的数有INPUT, INPUT, INPUT。</v>
       </c>
       <c r="D6" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
         <f ca="1">D6+4</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -792,26 +887,31 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5">
         <f ca="1">D6+1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">D6+2</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P6" s="5">
         <f ca="1">D6+3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>7个一和8个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>7个一和7个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
@@ -819,7 +919,7 @@
       </c>
       <c r="E7" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -831,42 +931,47 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5">
         <f ca="1">E7*10 + D7</f>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O7" s="5">
         <f ca="1">N7-1</f>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="P7" s="5">
         <f ca="1">N7+1</f>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比9大3的数是INPUT，比11小1的数是INPUT。</v>
+        <v>比16大1的数是INPUT，比17小8的数是INPUT。</v>
       </c>
       <c r="D8" s="5">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -876,27 +981,32 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5">
         <f ca="1">D8+E8</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O8" s="5">
         <f ca="1">F8-G8</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="str">
         <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>80里面有INPUT个十；也可以说80里面有INPUT个一。</v>
+        <v>40里面有INPUT个十；也可以说40里面有INPUT个一。</v>
       </c>
       <c r="D9" s="5">
         <f ca="1">RANDBETWEEN(1,9)*10</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -909,31 +1019,36 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O9" s="5">
         <f ca="1">D9</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="5" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有1人，后面有1人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有2人，后面有8人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -945,28 +1060,33 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5">
         <f ca="1">D10+E10+1</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="5" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>4个一和2个十合起来是INPUT。</v>
+        <v>7个一和3个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -978,32 +1098,37 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5">
         <f ca="1">E11*10+D11</f>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是7，十位上是2，这个数是INPUT，76里面有INPUT个十和INPUT个一。</v>
+        <v>个位是4，十位上是1，这个数是INPUT，22里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="5">
         <f ca="1">RANDBETWEEN(0,9)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1014,30 +1139,35 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5">
         <f ca="1">E12*10+D12</f>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O12" s="5">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P12" s="5">
         <f ca="1">MOD(F12, 10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和80相邻的两个数是INPUT和INPUT。</v>
+        <v>和57相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="5">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1050,31 +1180,36 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5">
         <f ca="1">D13-1</f>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O13" s="5">
         <f ca="1">D13+1</f>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="str">
         <f ca="1">"个位是"&amp;D14&amp;",十位上是"&amp;E14&amp;",这个数是INPUT。"</f>
-        <v>个位是4,十位上是1,这个数是INPUT。</v>
+        <v>个位是5,十位上是8,这个数是INPUT。</v>
       </c>
       <c r="D14" s="5">
         <f ca="1">RANDBETWEEN(0,9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1086,32 +1221,37 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5">
         <f ca="1">E14*10+D14</f>
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>68里面有6个INPUT和8个INPUT 。</v>
+        <v>41里面有4个INPUT和1个INPUT 。</v>
       </c>
       <c r="D15" s="5">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="5">
         <f ca="1">MOD(D15, 10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1129,14 +1269,19 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="5" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT, "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>11比9多INPUT, 5比12少INPUT。</v>
+        <v>11比2多INPUT, 3比12少INPUT。</v>
       </c>
       <c r="D16" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
@@ -1144,11 +1289,11 @@
       </c>
       <c r="E16" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F16" s="5">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
@@ -1162,27 +1307,32 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5">
         <f ca="1">D16-E16</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O16" s="5">
         <f ca="1">G16-F16</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="5" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT,后面的一个数是INPUT。"</f>
-        <v>14前面的一个数是INPUT,后面的一个数是INPUT。</v>
+        <v>17前面的一个数是INPUT,后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1195,46 +1345,51 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5">
         <f ca="1">D17-1</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O17" s="5">
         <f ca="1">D17+1</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="5" t="str">
         <f ca="1">"在"&amp;I18&amp;","&amp;J18&amp;","&amp;K18&amp;","&amp;L18&amp;","&amp;M18&amp;"中,共有INPUT个数,从左往右数,第"&amp;D18&amp;"个数是INPUT,从右往左数,第"&amp;E18&amp;"个是INPUT,其中最大的数是INPUT,最小的数是INPUT。"</f>
-        <v>在13,3,16,9,30中,共有INPUT个数,从左往右数,第2个数是INPUT,从右往左数,第1个是INPUT,其中最大的数是INPUT,最小的数是INPUT。</v>
+        <v>在10,5,19,9,27中,共有INPUT个数,从左往右数,第1个数是INPUT,从右往左数,第4个是INPUT,其中最大的数是INPUT,最小的数是INPUT。</v>
       </c>
       <c r="D18" s="5">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="5">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="5">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L18" s="5">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -1242,23 +1397,34 @@
       </c>
       <c r="M18" s="5">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N18" s="5">
         <v>5</v>
       </c>
       <c r="O18" s="5">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P18" s="5">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>30</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="5">
+        <f ca="1">MAX(I18:M18)</f>
+        <v>27</v>
+      </c>
+      <c r="R18" s="5">
+        <f ca="1">MIN(J18:N18)</f>
+        <v>5</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1285,18 +1451,23 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="5" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>27个一是INPUT</v>
+        <v>26个一是INPUT</v>
       </c>
       <c r="D20" s="5">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1309,32 +1480,37 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5">
         <f ca="1">D20</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="5" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>6个一和3个十组成INPUT，它的前面一个数是INPUT，比它大3的数是INPUT</v>
+        <v>3个一和1个十组成INPUT，它的前面一个数是INPUT，比它大7的数是INPUT</v>
       </c>
       <c r="D21" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1345,20 +1521,25 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5">
         <f ca="1">E21*10+D21</f>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="O21" s="5">
         <f ca="1">N21-1</f>
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="P21" s="5">
         <f ca="1">N21+F21</f>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:18">
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1387,22 +1568,27 @@
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:18">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>10-8=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>15-5=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1414,20 +1600,25 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5">
         <f ca="1">D23-E23</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O23" s="5">
         <f ca="1">E23</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P23" s="5">
         <f ca="1">D23</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -1456,8 +1647,13 @@
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:18">
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1484,26 +1680,31 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>99个位上的9表示9个INPUT。十位上的9表示9个INPUT。</v>
+        <v>61个位上的1表示1个INPUT。十位上的6表示6个INPUT。</v>
       </c>
       <c r="D26" s="5">
         <f ca="1">RANDBETWEEN(40,99)</f>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E26" s="5">
         <f ca="1">MOD(D26, 10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1521,18 +1722,23 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="5" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是4，那么它们的和是INPUT。</v>
+        <v>两个加数都是1，那么它们的和是INPUT。</v>
       </c>
       <c r="D27" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1545,28 +1751,33 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5">
         <f ca="1">D27*2</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="5" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是10，减数是2，它们的差是INPUT。</v>
+        <v>被减数是15，减数是7，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1584,18 +1795,23 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="5" t="str">
         <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>13比INPUT大1，比INPUT小1。</v>
+        <v>19比INPUT大1，比INPUT小1。</v>
       </c>
       <c r="D29" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1608,31 +1824,36 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5">
         <f ca="1">D29-1</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O29" s="5">
         <f ca="1">D29+1</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="5" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是5，比十位上的数字小3，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是3，比十位上的数字小2，这个数是INPUT。</v>
       </c>
       <c r="D30" s="5">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="5">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1644,14 +1865,19 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1678,22 +1904,27 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="2:18">
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="5" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比12大8的数是INPUT，比它小8的数是INPUT。</v>
+        <v>比18大9的数是INPUT，比它小9的数是INPUT。</v>
       </c>
       <c r="D32" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E32" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1705,35 +1936,40 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5">
         <f ca="1">D32+E32</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O32" s="5">
         <f ca="1">D32-E32</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="5" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>50左边的5在INPUT位，表示INPUT个INPUT。右边的0表示INPUT个INPUT。</v>
+        <v>69左边的6在INPUT位，表示INPUT个INPUT。右边的9表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="5">
         <f ca="1">RANDBETWEEN(40,99)</f>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5">
         <f ca="1">MOD(D33, 10)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F33" s="5">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1747,34 +1983,39 @@
       </c>
       <c r="O33" s="5">
         <f ca="1">F33</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>47</v>
       </c>
       <c r="Q33" s="5">
         <f ca="1">E33</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是（）。"</f>
-        <v>个位是8，十位是1的数是（）。</v>
+        <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
+        <v>个位是1，十位是6的数是INPUT。</v>
       </c>
       <c r="D34" s="5">
-        <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>8</v>
-      </c>
-      <c r="E34" s="5">
         <f ca="1">RANDBETWEEN(0,9)</f>
         <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <f ca="1">RANDBETWEEN(1,9)</f>
+        <v>6</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1785,33 +2026,38 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
-        <f ca="1">D34*10+E34</f>
-        <v>81</v>
+        <f ca="1">E34*10+D34</f>
+        <v>61</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="5" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>12比INPUT少1，54里面有INPUT个十和INPUT个一。</v>
+        <v>20比INPUT少3，40里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="5">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
         <f ca="1">RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5">
         <f ca="1">RANDBETWEEN(30,99)</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1822,30 +2068,35 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5">
         <f ca="1">D35+E35</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O35" s="5">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35" s="5">
         <f ca="1">MOD(F35, 10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="2:18">
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="5" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT,INPUT,INPUT。"</f>
-        <v>按从小到大的顺序填出17前面的三个数INPUT,INPUT,INPUT。</v>
+        <v>按从小到大的顺序填出18前面的三个数INPUT,INPUT,INPUT。</v>
       </c>
       <c r="D36" s="5">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1858,26 +2109,31 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5">
         <f ca="1">D36-3</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O36" s="5">
         <f ca="1">D36-2</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P36" s="5">
         <f ca="1">D36-1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="5" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>59添上1是INPUT个十。39添上1是INPUT。</v>
+        <v>59添上1是INPUT个十。49添上1是INPUT。</v>
       </c>
       <c r="D37" s="5">
         <f ca="1">RANDBETWEEN(1,5)*10+9</f>
@@ -1885,7 +2141,7 @@
       </c>
       <c r="E37" s="5">
         <f ca="1">RANDBETWEEN(1,5)*10+9</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1901,13 +2157,18 @@
       </c>
       <c r="O37" s="5">
         <f ca="1">E37+1</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="2:18">
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1925,6 +2186,11 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20699920-BF54-44F9-9082-9FB35CAF201E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -316,24 +317,43 @@
   <si>
     <t>LEVEL</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0063</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -342,7 +362,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -351,7 +371,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -360,7 +380,7 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -368,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -515,7 +535,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,7 +551,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,9 +625,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,6 +677,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,31 +870,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.375" customWidth="1"/>
-    <col min="4" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="13" width="7.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1" collapsed="1"/>
-    <col min="15" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="23" width="7.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="7.625" customWidth="1" collapsed="1"/>
-    <col min="25" max="29" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="1.6328125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.36328125" customWidth="1"/>
+    <col min="4" max="8" width="7.6328125" customWidth="1"/>
+    <col min="9" max="13" width="7.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.6328125" customWidth="1" collapsed="1"/>
+    <col min="15" max="18" width="7.6328125" customWidth="1"/>
+    <col min="19" max="23" width="7.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="7.6328125" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -927,17 +983,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:30">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>45 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <v>29 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -950,19 +1006,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -984,21 +1040,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:30">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>2 个十是INPUT，9 里面有INPUT个一。</v>
+        <v>5 个十是INPUT，1 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1010,11 +1066,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1038,21 +1094,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:30">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是9，十位是6，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是5，十位是1，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1064,11 +1120,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1092,21 +1148,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT， INPUT， INPUT。(从小到大的顺序)"</f>
-        <v>比9大比13小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
+        <v>比20大比24小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1118,15 +1174,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1136,10 +1192,10 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -1149,17 +1205,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:30">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>9个一和8个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>4个一和8个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
@@ -1175,15 +1231,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1206,29 +1262,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比11大8的数是INPUT，比17小9的数是INPUT。</v>
+        <v>比15大2的数是INPUT，比16小7的数是INPUT。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1238,11 +1294,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1274,17 +1330,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:30">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>80里面有INPUT个十；也可以说80里面有INPUT个一。</v>
+        <v>90里面有INPUT个十；也可以说90里面有INPUT个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1297,11 +1353,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1325,13 +1381,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有7人，后面有8人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有7人，后面有5人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
@@ -1339,7 +1395,7 @@
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1351,7 +1407,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1376,21 +1432,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:30">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>5个一和1个十合起来是INPUT。</v>
+        <v>3个一和6个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1402,7 +1458,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1427,25 +1483,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是7，十位上是8，这个数是INPUT，61里面有INPUT个十和INPUT个一。</v>
+        <v>个位是4，十位上是2，这个数是INPUT，96里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1456,15 +1512,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1487,17 +1543,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和39相邻的两个数是INPUT和INPUT。</v>
+        <v>和49相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1510,11 +1566,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1538,21 +1594,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是3，十位上是5，这个数是INPUT。</v>
+        <v>个位是5，十位上是3，这个数是INPUT。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1564,7 +1620,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1589,25 +1645,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>92里面有9个INPUT和2个INPUT 。</v>
+        <v>34里面有3个INPUT和4个INPUT 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1644,29 +1700,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>5比3多INPUT， 16比5少INPUT。</v>
+        <v>1比2多INPUT， 17比6少INPUT。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1676,7 +1732,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
@@ -1712,17 +1768,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>92前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <v>70前面的一个数是INPUT，后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1735,11 +1791,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1763,36 +1819,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在11，2，20，6，24中，共有INPUT个数，从左往右数，第3个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <v>在13，1，19，6，28中，共有INPUT个数，从左往右数，第4个数是INPUT，从右往左数，第2个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -1800,26 +1856,26 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1840,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1882,17 +1938,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:30">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>20个一是INPUT</v>
+        <v>11个一是INPUT</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1905,7 +1961,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -1930,25 +1986,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>3个一和5个十组成INPUT，它的前面一个数是INPUT，比它大6的数是INPUT</v>
+        <v>9个一和2个十组成INPUT，它的前面一个数是INPUT，比它大2的数是INPUT</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1959,15 +2015,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -1994,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -2038,21 +2094,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>17-1=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>10-7=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2064,15 +2120,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2099,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -2143,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
@@ -2185,25 +2241,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:30">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>37个位上的7表示7个INPUT。十位上的3表示3个INPUT。</v>
+        <v>90个位上的0表示0个INPUT。十位上的9表示9个INPUT。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2240,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
@@ -2288,21 +2344,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是19，减数是2，它们的差是INPUT。</v>
+        <v>被减数是15，减数是3，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2314,7 +2370,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2343,17 +2399,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>20比INPUT大1，比INPUT小1。</v>
+        <v>19比INPUT大1，比INPUT小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2366,11 +2422,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2394,21 +2450,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="8" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是1，比十位上的数字小3，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是2，比十位上的数字小4，这个数是INPUT。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2420,7 +2476,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2446,10 +2502,10 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -2491,21 +2547,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比18大8的数是INPUT，比它小8的数是INPUT。</v>
+        <v>比10大1的数是INPUT，比它小1的数是INPUT。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2517,11 +2573,11 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2549,25 +2605,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>35左边的3在INPUT位，表示INPUT个INPUT。右边的5表示INPUT个INPUT。</v>
+        <v>26左边的2在INPUT位，表示INPUT个INPUT。右边的6表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2581,14 +2637,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>48</v>
@@ -2612,13 +2668,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是8，十位是8的数是INPUT。</v>
+        <v>个位是8，十位是9的数是INPUT。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
@@ -2626,7 +2682,7 @@
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2638,7 +2694,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2663,25 +2719,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:30">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>12比INPUT少7，40里面有INPUT个十和INPUT个一。</v>
+        <v>17比INPUT少5，56里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2692,15 +2748,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2731,17 +2787,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:30">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出96前面的三个数INPUT，INPUT，INPUT。</v>
+        <v>按从小到大的顺序填出82前面的三个数INPUT，INPUT，INPUT。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2754,15 +2810,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2785,13 +2841,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:30">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>19添上1是INPUT个十。39添上1是INPUT。</v>
+        <v>19添上1是INPUT个十。19添上1是INPUT。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
@@ -2799,7 +2855,7 @@
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2815,7 +2871,7 @@
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -2839,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:30">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
@@ -2890,32 +2946,32 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 3 + INPUT &lt; 10； 17 &gt; INPUT + 1。</v>
+        <v>方框里最大填几： 2 + INPUT &lt; 19； 15 &gt; INPUT + 6。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -2925,11 +2981,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -2954,24 +3010,24 @@
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>5再添上INPUT就和16同样多。</v>
+        <v>2再添上INPUT就和14同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2983,7 +3039,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3012,21 +3068,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:30">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，90前面的一个数是INPUT，60后面一个数是INPUT。</v>
+        <v>从10开始十个十个地数，20前面的一个数是INPUT，20后面一个数是INPUT。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3038,11 +3094,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3063,40 +3119,40 @@
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>15－3＝INPUT－5， 20－8＝19－INPUT。</v>
+        <v>17－9＝INPUT－3， 17－9＝15－INPUT。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3104,7 +3160,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
@@ -3136,21 +3192,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:30">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小8的数是INPUT。一百以内个位是4的两位数有INPUT个。</v>
+        <v>比最大的两位数小9的数是INPUT。一百以内个位是6的两位数有INPUT个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3162,7 +3218,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3186,10 +3242,10 @@
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
@@ -3236,17 +3292,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:30">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有INPUT个。"</f>
-        <v>一百以内十位是8的两位数有INPUT个。</v>
+        <v>一百以内十位是1的两位数有INPUT个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3280,24 +3336,24 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是9，被减数是18，它们的差是INPUT。</v>
+        <v>减数是6，被减数是11，它们的差是INPUT。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3309,7 +3365,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3338,17 +3394,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:30">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是20，它们的和是INPUT，差是INPUT。</v>
+        <v>两个数都是12，它们的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3361,7 +3417,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3388,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:30">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
@@ -3426,24 +3482,24 @@
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比19大5，另一个数比19小5，这两个数的和是INPUT，差是INPUT。</v>
+        <v>一个数比11大3，另一个数比11小3，这两个数的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3455,11 +3511,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3484,32 +3540,32 @@
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 7 + 17 &lt; INPUT； 14 - INPUT &lt; 6。</v>
+        <v>方框里最小填几： 5 + 12 &lt; INPUT； 12 - INPUT &lt; 2。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3519,11 +3575,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3548,24 +3604,24 @@
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>13和22之间有INPUT个数字。</v>
+        <v>17和25之间有INPUT个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3577,7 +3633,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3603,10 +3659,10 @@
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>80</v>
       </c>
@@ -3645,20 +3701,20 @@
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="8" t="str">
         <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>个位数上是4的两位数有INPUT个。其中最大的是INPUT</v>
+        <v>个位数上是8的两位数有INPUT个。其中最大的是INPUT</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3674,7 +3730,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3695,24 +3751,24 @@
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是3， 十位数上的数字比个位数上的数字大1， 这个两位是INPUT</v>
+        <v>一个两位数，个位数是4， 十位数上的数字比个位数上的数字大2， 这个两位是INPUT</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3724,7 +3780,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3750,24 +3806,24 @@
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是INPUT"</f>
-        <v>一个计数器，十位上有7个珠子，个位上有9个珠子，这个数是INPUT</v>
+        <v>一个计数器，十位上有5个珠子，个位上有4个珠子，这个数是INPUT</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -3779,7 +3835,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -3808,17 +3864,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:30">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有5个珠子，十位上的珠子比个位上的多2个，这个数是INPUT</v>
+        <v>一个计数器，个位上有3个珠子，十位上的珠子比个位上的多2个，这个数是INPUT</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
@@ -3834,7 +3890,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3860,24 +3916,24 @@
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是17，另一个加数是8，求和是INPUT</v>
+        <v>一个加数是16，另一个加数是5，求和是INPUT</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3889,7 +3945,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -3918,21 +3974,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:30">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数18， 减数是比被减数少4的数，求差是INPUT</v>
+        <v>被减数20， 减数是比被减数少9的数，求差是INPUT</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -3944,7 +4000,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -3970,10 +4026,10 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>87</v>
       </c>
@@ -4017,21 +4073,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:30">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>13比6多INPUT; 1比16少INPUT</v>
+        <v>15比4多INPUT; 1比20少INPUT</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
@@ -4039,7 +4095,7 @@
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4049,11 +4105,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4078,24 +4134,24 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>92的9在INPUT位上，表示INPUT个INPUT。</v>
+        <v>73的7在INPUT位上，表示INPUT个INPUT。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4110,7 +4166,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>92</v>
@@ -4140,25 +4196,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:30">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：50、48、40、38、INPUT、INPUT、INPUT</v>
+        <v>找规律：59、55、48、44、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D62" s="7">
         <f ca="1">RANDBETWEEN(X62,Y62)</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4169,15 +4225,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4205,24 +4261,24 @@
         <v>9</v>
       </c>
       <c r="AD62" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>2个一和6个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <v>5个一和7个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
       </c>
       <c r="D63" s="7">
         <f ca="1">RANDBETWEEN(X63,Y63)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4234,11 +4290,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4266,13 +4322,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:30">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>5个十和3个一是INPUT</v>
+        <v>5个十和9个一是INPUT</v>
       </c>
       <c r="D64" s="7">
         <f ca="1">RANDBETWEEN(X64,Y64)</f>
@@ -4280,7 +4336,7 @@
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4292,7 +4348,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4321,11 +4377,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:30">
-      <c r="B65" s="4"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
+        <v>找规律：8、11、14、17、INPUT、INPUT</v>
+      </c>
+      <c r="D65" s="7">
+        <f ca="1">RANDBETWEEN(X65,Y65)</f>
+        <v>8</v>
+      </c>
+      <c r="E65" s="7">
+        <f ca="1">RANDBETWEEN(Z65,AA65)</f>
+        <v>3</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -4334,8 +4401,14 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
+      <c r="N65" s="6">
+        <f ca="1">D65+E65*4</f>
+        <v>20</v>
+      </c>
+      <c r="O65" s="6">
+        <f ca="1">D65+E65*5</f>
+        <v>23</v>
+      </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
@@ -4344,18 +4417,36 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
+      <c r="X65" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>6</v>
+      </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
-      <c r="AD65" s="12"/>
-    </row>
-    <row r="66" spans="2:30">
-      <c r="B66" s="4"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="7"/>
+      <c r="AD65" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="8" t="str">
+        <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
+        <v>找规律：INPUT、2、INPUT、4、5、INPUT</v>
+      </c>
+      <c r="D66" s="7">
+        <f ca="1">RANDBETWEEN(X66,Y66)</f>
+        <v>2</v>
+      </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
@@ -4365,9 +4456,18 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="N66" s="6">
+        <f ca="1">D66-1</f>
+        <v>1</v>
+      </c>
+      <c r="O66" s="6">
+        <f ca="1">D66+1</f>
+        <v>3</v>
+      </c>
+      <c r="P66" s="6">
+        <f ca="1">D66+4</f>
+        <v>6</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -4375,18 +4475,32 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
+      <c r="X66" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>9</v>
+      </c>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
-      <c r="AD66" s="12"/>
-    </row>
-    <row r="67" spans="2:30">
-      <c r="B67" s="4"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="7"/>
+      <c r="AD66" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f ca="1">"找规律："&amp;D67&amp;"、INPUT、"&amp;D67+2&amp;"、INPUT、INPUT、"&amp;D67+5&amp;""</f>
+        <v>找规律：16、INPUT、18、INPUT、INPUT、21</v>
+      </c>
+      <c r="D67" s="7">
+        <f ca="1">RANDBETWEEN(X67,Y67)</f>
+        <v>16</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -4396,9 +4510,18 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="N67" s="6">
+        <f ca="1">D67+1</f>
+        <v>17</v>
+      </c>
+      <c r="O67" s="6">
+        <f ca="1">D67+3</f>
+        <v>19</v>
+      </c>
+      <c r="P67" s="6">
+        <f ca="1">D67+4</f>
+        <v>20</v>
+      </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -4406,18 +4529,32 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
+      <c r="X67" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>20</v>
+      </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
-      <c r="AD67" s="12"/>
-    </row>
-    <row r="68" spans="2:30">
-      <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="7"/>
+      <c r="AD67" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f ca="1">"找规律：INPUT、"&amp;D68&amp;"、"&amp;D68-2&amp;"、INPUT、"&amp;D68-6&amp;"、INPUT"</f>
+        <v>找规律：INPUT、15、13、INPUT、9、INPUT</v>
+      </c>
+      <c r="D68" s="7">
+        <f ca="1">RANDBETWEEN(X68,Y68)</f>
+        <v>15</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -4427,9 +4564,18 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="N68" s="6">
+        <f ca="1">D68+2</f>
+        <v>17</v>
+      </c>
+      <c r="O68" s="6">
+        <f ca="1">D68-4</f>
+        <v>11</v>
+      </c>
+      <c r="P68" s="6">
+        <f ca="1">D68-8</f>
+        <v>7</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -4437,18 +4583,32 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
+      <c r="X68" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>20</v>
+      </c>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
-      <c r="AD68" s="12"/>
-    </row>
-    <row r="69" spans="2:30">
-      <c r="B69" s="4"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="7"/>
+      <c r="AD68" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
+        <v>找规律：7、9、INPUT、INPUT、15、INPUT、19</v>
+      </c>
+      <c r="D69" s="7">
+        <f ca="1">INT(RAND()*5)*2+1</f>
+        <v>7</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -4458,9 +4618,18 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="N69" s="6">
+        <f ca="1">D69+4</f>
+        <v>11</v>
+      </c>
+      <c r="O69" s="6">
+        <f ca="1">D69+6</f>
+        <v>13</v>
+      </c>
+      <c r="P69" s="6">
+        <f ca="1">D69+12</f>
+        <v>19</v>
+      </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
@@ -4474,12 +4643,22 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
-      <c r="AD69" s="12"/>
-    </row>
-    <row r="70" spans="2:30">
-      <c r="B70" s="4"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="7"/>
+      <c r="AD69" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="8" t="str">
+        <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、INPUT、INPUT、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、INPUT"</f>
+        <v>找规律：6、8、INPUT、INPUT、14、16、INPUT</v>
+      </c>
+      <c r="D70" s="7">
+        <f ca="1">INT(RAND()*5)*2</f>
+        <v>6</v>
+      </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
@@ -4489,9 +4668,18 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
+      <c r="N70" s="6">
+        <f ca="1">D70+4</f>
+        <v>10</v>
+      </c>
+      <c r="O70" s="6">
+        <f ca="1">D70+6</f>
+        <v>12</v>
+      </c>
+      <c r="P70" s="6">
+        <f ca="1">D70+12</f>
+        <v>18</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
@@ -4505,9 +4693,11 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
-      <c r="AD70" s="12"/>
-    </row>
-    <row r="71" spans="2:30">
+      <c r="AD70" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="8"/>
       <c r="D71" s="7"/>
@@ -4536,9 +4726,9 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="12"/>
-    </row>
-    <row r="72" spans="2:30">
+      <c r="AD71" s="13"/>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="8"/>
       <c r="D72" s="7"/>
@@ -4569,7 +4759,7 @@
       <c r="AC72" s="5"/>
       <c r="AD72" s="12"/>
     </row>
-    <row r="73" spans="2:30">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="8"/>
       <c r="D73" s="7"/>
@@ -4600,7 +4790,7 @@
       <c r="AC73" s="5"/>
       <c r="AD73" s="12"/>
     </row>
-    <row r="74" spans="2:30">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="8"/>
       <c r="D74" s="7"/>
@@ -4631,7 +4821,7 @@
       <c r="AC74" s="5"/>
       <c r="AD74" s="12"/>
     </row>
-    <row r="75" spans="2:30">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="8"/>
       <c r="D75" s="7"/>
@@ -4662,7 +4852,7 @@
       <c r="AC75" s="5"/>
       <c r="AD75" s="12"/>
     </row>
-    <row r="76" spans="2:30">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
       <c r="D76" s="7"/>
@@ -4693,7 +4883,7 @@
       <c r="AC76" s="5"/>
       <c r="AD76" s="12"/>
     </row>
-    <row r="77" spans="2:30">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
       <c r="D77" s="7"/>
@@ -4724,7 +4914,7 @@
       <c r="AC77" s="5"/>
       <c r="AD77" s="12"/>
     </row>
-    <row r="78" spans="2:30">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
       <c r="D78" s="7"/>
@@ -4755,7 +4945,7 @@
       <c r="AC78" s="5"/>
       <c r="AD78" s="12"/>
     </row>
-    <row r="79" spans="2:30">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
       <c r="D79" s="7"/>
@@ -4786,7 +4976,7 @@
       <c r="AC79" s="5"/>
       <c r="AD79" s="12"/>
     </row>
-    <row r="80" spans="2:30">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
       <c r="D80" s="7"/>
@@ -4817,7 +5007,7 @@
       <c r="AC80" s="5"/>
       <c r="AD80" s="12"/>
     </row>
-    <row r="81" spans="2:30">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="8"/>
       <c r="D81" s="7"/>
@@ -4848,7 +5038,7 @@
       <c r="AC81" s="5"/>
       <c r="AD81" s="12"/>
     </row>
-    <row r="82" spans="2:30">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="8"/>
       <c r="D82" s="7"/>
@@ -4879,7 +5069,7 @@
       <c r="AC82" s="5"/>
       <c r="AD82" s="12"/>
     </row>
-    <row r="83" spans="2:30">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="8"/>
       <c r="D83" s="7"/>
@@ -4910,7 +5100,7 @@
       <c r="AC83" s="5"/>
       <c r="AD83" s="12"/>
     </row>
-    <row r="84" spans="2:30">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="8"/>
       <c r="D84" s="7"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20699920-BF54-44F9-9082-9FB35CAF201E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55A802-6DB6-4004-BE25-21132B6CEDA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -311,31 +311,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0062</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LEVEL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>厘米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
     <t>0063</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0064</t>
-  </si>
-  <si>
-    <t>0065</t>
-  </si>
-  <si>
-    <t>0066</t>
-  </si>
-  <si>
-    <t>0067</t>
-  </si>
-  <si>
-    <t>0068</t>
   </si>
 </sst>
 </file>
@@ -490,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,9 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,13 +922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD84"/>
+  <dimension ref="B2:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O71" sqref="O71"/>
+      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -980,7 +1031,7 @@
         <v>65</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
@@ -989,11 +1040,11 @@
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>29 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <v>17 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1006,19 +1057,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1036,7 +1087,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="13">
+      <c r="AD3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1046,15 +1097,15 @@
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>5 个十是INPUT，1 里面有INPUT个一。</v>
+        <v>4 个十是INPUT，5 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1066,11 +1117,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1090,7 +1141,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="13">
+      <c r="AD4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1100,15 +1151,15 @@
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是5，十位是1，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是4，十位是8，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1120,11 +1171,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1144,7 +1195,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="13">
+      <c r="AD5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1154,15 +1205,15 @@
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT， INPUT， INPUT。(从小到大的顺序)"</f>
-        <v>比20大比24小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
+        <v>比13大比17小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1174,15 +1225,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1201,7 +1252,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="13">
+      <c r="AD6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1211,15 +1262,15 @@
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>4个一和8个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>9个一和3个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1231,15 +1282,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1258,7 +1309,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1268,23 +1319,23 @@
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比15大2的数是INPUT，比16小7的数是INPUT。</v>
+        <v>比8大1的数是INPUT，比10小4的数是INPUT。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1294,11 +1345,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1326,7 +1377,7 @@
       <c r="AC8" s="5">
         <v>20</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1428,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="13">
+      <c r="AD9" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1387,15 +1438,15 @@
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有7人，后面有5人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有6人，后面有6人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1428,7 +1479,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="13">
+      <c r="AD10" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1438,15 +1489,15 @@
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>3个一和6个十合起来是INPUT。</v>
+        <v>1个一和3个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1458,7 +1509,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1479,7 +1530,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="13">
+      <c r="AD11" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1489,19 +1540,19 @@
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是4，十位上是2，这个数是INPUT，96里面有INPUT个十和INPUT个一。</v>
+        <v>个位是2，十位上是9，这个数是INPUT，39里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1512,15 +1563,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1539,7 +1590,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="13">
+      <c r="AD12" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1549,11 +1600,11 @@
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和49相邻的两个数是INPUT和INPUT。</v>
+        <v>和88相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1566,11 +1617,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1590,7 +1641,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="13">
+      <c r="AD13" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1600,11 +1651,11 @@
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是5，十位上是3，这个数是INPUT。</v>
+        <v>个位是9，十位上是3，这个数是INPUT。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
@@ -1620,7 +1671,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1641,7 +1692,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="13">
+      <c r="AD14" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1651,19 +1702,19 @@
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>34里面有3个INPUT和4个INPUT 。</v>
+        <v>90里面有9个INPUT和0个INPUT 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1696,7 +1747,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="13">
+      <c r="AD15" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1706,23 +1757,23 @@
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>1比2多INPUT， 17比6少INPUT。</v>
+        <v>10比8多INPUT， 20比1少INPUT。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1732,11 +1783,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1764,7 +1815,7 @@
       <c r="AC16" s="5">
         <v>20</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1774,11 +1825,11 @@
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>70前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <v>78前面的一个数是INPUT，后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1791,11 +1842,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1815,7 +1866,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="13">
+      <c r="AD17" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1825,30 +1876,30 @@
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在13，1，19，6，28中，共有INPUT个数，从左往右数，第4个数是INPUT，从右往左数，第2个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <v>在12，5，16，6，29中，共有INPUT个数，从左往右数，第3个数是INPUT，从右往左数，第3个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -1856,26 +1907,26 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1892,7 +1943,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="13">
+      <c r="AD18" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1934,7 +1985,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="13">
+      <c r="AD19" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1944,11 +1995,11 @@
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>11个一是INPUT</v>
+        <v>28个一是INPUT</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1961,7 +2012,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -1982,7 +2033,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="13">
+      <c r="AD20" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1992,19 +2043,19 @@
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>9个一和2个十组成INPUT，它的前面一个数是INPUT，比它大2的数是INPUT</v>
+        <v>7个一和1个十组成INPUT，它的前面一个数是INPUT，比它大3的数是INPUT</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2015,15 +2066,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2046,7 +2097,7 @@
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="13">
+      <c r="AD21" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2090,7 +2141,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="13">
+      <c r="AD22" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2100,7 +2151,7 @@
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>10-7=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>10-4=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
@@ -2108,7 +2159,7 @@
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2120,11 +2171,11 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
@@ -2151,7 +2202,7 @@
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="13">
+      <c r="AD23" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2195,7 +2246,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="13">
+      <c r="AD24" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +2288,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="13">
+      <c r="AD25" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2247,19 +2298,19 @@
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>90个位上的0表示0个INPUT。十位上的9表示9个INPUT。</v>
+        <v>11个位上的1表示1个INPUT。十位上的1表示1个INPUT。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2292,7 +2343,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="13">
+      <c r="AD26" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2302,11 +2353,11 @@
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是5，那么它们的和是INPUT。</v>
+        <v>两个加数都是9，那么它们的和是INPUT。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2319,7 +2370,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2340,7 +2391,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="13">
+      <c r="AD27" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2350,15 +2401,15 @@
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是15，减数是3，它们的差是INPUT。</v>
+        <v>被减数是11，减数是7，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2370,7 +2421,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2395,7 +2446,7 @@
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="13">
+      <c r="AD28" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2446,7 +2497,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="13">
+      <c r="AD29" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2456,15 +2507,15 @@
       </c>
       <c r="C30" s="8" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是2，比十位上的数字小4，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是0，比十位上的数字小1，这个数是INPUT。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2476,7 +2527,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2501,7 +2552,7 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="13">
+      <c r="AD30" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2543,7 +2594,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="13">
+      <c r="AD31" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2553,15 +2604,15 @@
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比10大1的数是INPUT，比它小1的数是INPUT。</v>
+        <v>比12大7的数是INPUT，比它小7的数是INPUT。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2573,11 +2624,11 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2601,7 +2652,7 @@
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="13">
+      <c r="AD32" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2611,19 +2662,19 @@
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>26左边的2在INPUT位，表示INPUT个INPUT。右边的6表示INPUT个INPUT。</v>
+        <v>98左边的9在INPUT位，表示INPUT个INPUT。右边的8表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2637,14 +2688,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>48</v>
@@ -2664,7 +2715,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="13">
+      <c r="AD33" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2674,11 +2725,11 @@
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是8，十位是9的数是INPUT。</v>
+        <v>个位是9，十位是9的数是INPUT。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
@@ -2694,7 +2745,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2715,7 +2766,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="13">
+      <c r="AD34" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2725,7 +2776,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>17比INPUT少5，56里面有INPUT个十和INPUT个一。</v>
+        <v>17比INPUT少8，54里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
@@ -2733,11 +2784,11 @@
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2748,7 +2799,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
@@ -2756,7 +2807,7 @@
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2783,7 +2834,7 @@
       <c r="AC35" s="5">
         <v>99</v>
       </c>
-      <c r="AD35" s="13">
+      <c r="AD35" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2793,11 +2844,11 @@
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出82前面的三个数INPUT，INPUT，INPUT。</v>
+        <v>按从小到大的顺序填出13前面的三个数INPUT，INPUT，INPUT。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2810,15 +2861,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2837,7 +2888,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="13">
+      <c r="AD36" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2847,15 +2898,15 @@
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>19添上1是INPUT个十。19添上1是INPUT。</v>
+        <v>39添上1是INPUT个十。49添上1是INPUT。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2867,11 +2918,11 @@
       <c r="M37" s="7"/>
       <c r="N37" s="6">
         <f ca="1">TRUNC((D37+1)/10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -2891,7 +2942,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="13">
+      <c r="AD37" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2901,11 +2952,11 @@
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。"</f>
-        <v>写出小于三十的3个个位是5的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
+        <v>写出小于三十的3个个位是6的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2918,15 +2969,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -2945,7 +2996,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="13">
+      <c r="AD38" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2955,19 +3006,19 @@
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 2 + INPUT &lt; 19； 15 &gt; INPUT + 6。</v>
+        <v>方框里最大填几： 4 + INPUT &lt; 16； 10 &gt; INPUT + 6。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
@@ -2981,11 +3032,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3009,7 +3060,7 @@
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
-      <c r="AD39" s="13">
+      <c r="AD39" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3019,15 +3070,15 @@
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>2再添上INPUT就和14同样多。</v>
+        <v>1再添上INPUT就和11同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3039,7 +3090,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3064,7 +3115,7 @@
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="13">
+      <c r="AD40" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3074,15 +3125,15 @@
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，20前面的一个数是INPUT，20后面一个数是INPUT。</v>
+        <v>从10开始十个十个地数，60前面的一个数是INPUT，40后面一个数是INPUT。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3094,11 +3145,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3118,7 +3169,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
-      <c r="AD41" s="13">
+      <c r="AD41" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3128,11 +3179,11 @@
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>17－9＝INPUT－3， 17－9＝15－INPUT。</v>
+        <v>18－9＝INPUT－2， 14－7＝18－INPUT。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
@@ -3140,19 +3191,19 @@
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3164,7 +3215,7 @@
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3188,7 +3239,7 @@
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="13">
+      <c r="AD42" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3198,15 +3249,15 @@
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小9的数是INPUT。一百以内个位是6的两位数有INPUT个。</v>
+        <v>比最大的两位数小6的数是INPUT。一百以内个位是1的两位数有INPUT个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3218,7 +3269,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3241,7 +3292,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
-      <c r="AD43" s="13">
+      <c r="AD43" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3288,7 +3339,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
-      <c r="AD44" s="13">
+      <c r="AD44" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3298,11 +3349,11 @@
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有INPUT个。"</f>
-        <v>一百以内十位是1的两位数有INPUT个。</v>
+        <v>一百以内十位是7的两位数有INPUT个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3335,7 +3386,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="13">
+      <c r="AD45" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3345,15 +3396,15 @@
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是6，被减数是11，它们的差是INPUT。</v>
+        <v>减数是7，被减数是15，它们的差是INPUT。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3365,7 +3416,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3390,7 +3441,7 @@
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
-      <c r="AD46" s="13">
+      <c r="AD46" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3400,11 +3451,11 @@
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是12，它们的和是INPUT，差是INPUT。</v>
+        <v>两个数都是11，它们的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3417,7 +3468,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3440,7 +3491,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
-      <c r="AD47" s="13">
+      <c r="AD47" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3481,7 +3532,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
-      <c r="AD48" s="13">
+      <c r="AD48" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3491,15 +3542,15 @@
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比11大3，另一个数比11小3，这两个数的和是INPUT，差是INPUT。</v>
+        <v>一个数比20大1，另一个数比20小1，这两个数的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3511,11 +3562,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3539,7 +3590,7 @@
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
-      <c r="AD49" s="13">
+      <c r="AD49" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3549,23 +3600,23 @@
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 5 + 12 &lt; INPUT； 12 - INPUT &lt; 2。</v>
+        <v>方框里最小填几： 8 + 13 &lt; INPUT； 13 - INPUT &lt; 3。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3575,7 +3626,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
@@ -3603,7 +3654,7 @@
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
-      <c r="AD50" s="13">
+      <c r="AD50" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3613,15 +3664,15 @@
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>17和25之间有INPUT个数字。</v>
+        <v>20和21之间有INPUT个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3633,7 +3684,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3658,7 +3709,7 @@
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
-      <c r="AD51" s="13">
+      <c r="AD51" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3700,7 +3751,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="13">
+      <c r="AD52" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3710,11 +3761,11 @@
       </c>
       <c r="C53" s="8" t="str">
         <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>个位数上是8的两位数有INPUT个。其中最大的是INPUT</v>
+        <v>个位数上是6的两位数有INPUT个。其中最大的是INPUT</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3730,7 +3781,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3750,7 +3801,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="13">
+      <c r="AD53" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3760,15 +3811,15 @@
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是4， 十位数上的数字比个位数上的数字大2， 这个两位是INPUT</v>
+        <v>一个两位数，个位数是5， 十位数上的数字比个位数上的数字大4， 这个两位是INPUT</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3780,7 +3831,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3805,7 +3856,7 @@
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="13">
+      <c r="AD54" s="12">
         <v>4</v>
       </c>
     </row>
@@ -3815,7 +3866,7 @@
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是INPUT"</f>
-        <v>一个计数器，十位上有5个珠子，个位上有4个珠子，这个数是INPUT</v>
+        <v>一个计数器，十位上有5个珠子，个位上有3个珠子，这个数是INPUT</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -3823,7 +3874,7 @@
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -3835,7 +3886,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -3860,7 +3911,7 @@
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
-      <c r="AD55" s="13">
+      <c r="AD55" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3870,7 +3921,7 @@
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有3个珠子，十位上的珠子比个位上的多2个，这个数是INPUT</v>
+        <v>一个计数器，个位上有3个珠子，十位上的珠子比个位上的多3个，这个数是INPUT</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -3878,7 +3929,7 @@
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3890,7 +3941,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3915,7 +3966,7 @@
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="13">
+      <c r="AD56" s="12">
         <v>3</v>
       </c>
     </row>
@@ -3925,15 +3976,15 @@
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是16，另一个加数是5，求和是INPUT</v>
+        <v>一个加数是19，另一个加数是9，求和是INPUT</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3945,7 +3996,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -3970,7 +4021,7 @@
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
-      <c r="AD57" s="13">
+      <c r="AD57" s="12">
         <v>1</v>
       </c>
     </row>
@@ -3980,7 +4031,7 @@
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数20， 减数是比被减数少9的数，求差是INPUT</v>
+        <v>被减数20， 减数是比被减数少5的数，求差是INPUT</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -3988,7 +4039,7 @@
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4000,7 +4051,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4025,7 +4076,7 @@
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="13">
+      <c r="AD58" s="12">
         <v>4</v>
       </c>
     </row>
@@ -4069,7 +4120,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="13">
+      <c r="AD59" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4079,19 +4130,19 @@
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>15比4多INPUT; 1比20少INPUT</v>
+        <v>17比1多INPUT; 5比20少INPUT</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
@@ -4105,11 +4156,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4133,7 +4184,7 @@
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
-      <c r="AD60" s="13">
+      <c r="AD60" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4143,15 +4194,15 @@
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>73的7在INPUT位上，表示INPUT个INPUT。</v>
+        <v>60的6在INPUT位上，表示INPUT个INPUT。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4166,7 +4217,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>92</v>
@@ -4192,7 +4243,7 @@
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
-      <c r="AD61" s="13">
+      <c r="AD61" s="12">
         <v>1</v>
       </c>
     </row>
@@ -4202,19 +4253,19 @@
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：59、55、48、44、INPUT、INPUT、INPUT</v>
+        <v>找规律：57、54、45、42、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D62" s="7">
-        <f ca="1">RANDBETWEEN(X62,Y62)</f>
-        <v>59</v>
+        <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
+        <v>57</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4225,15 +4276,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4260,7 +4311,7 @@
       <c r="AC62" s="5">
         <v>9</v>
       </c>
-      <c r="AD62" s="13">
+      <c r="AD62" s="12">
         <v>3</v>
       </c>
     </row>
@@ -4270,15 +4321,15 @@
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>5个一和7个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <v>3个一和6个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
       </c>
       <c r="D63" s="7">
-        <f ca="1">RANDBETWEEN(X63,Y63)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4290,11 +4341,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4318,25 +4369,25 @@
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
-      <c r="AD63" s="13">
+      <c r="AD63" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>5个十和9个一是INPUT</v>
+        <v>7个十和4个一是INPUT</v>
       </c>
       <c r="D64" s="7">
-        <f ca="1">RANDBETWEEN(X64,Y64)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4348,7 +4399,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4373,25 +4424,25 @@
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
-      <c r="AD64" s="13">
+      <c r="AD64" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C65" s="8" t="str">
         <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：8、11、14、17、INPUT、INPUT</v>
+        <v>找规律：8、14、20、26、INPUT、INPUT</v>
       </c>
       <c r="D65" s="7">
-        <f ca="1">RANDBETWEEN(X65,Y65)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4403,11 +4454,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4431,21 +4482,21 @@
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
-      <c r="AD65" s="13">
+      <c r="AD65" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、2、INPUT、4、5、INPUT</v>
+        <v>找规律：INPUT、4、INPUT、6、7、INPUT</v>
       </c>
       <c r="D66" s="7">
-        <f ca="1">RANDBETWEEN(X66,Y66)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4458,15 +4509,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="6">
         <f ca="1">D66-1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O66" s="6">
         <f ca="1">D66+1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P66" s="6">
         <f ca="1">D66+4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4485,21 +4536,21 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
-      <c r="AD66" s="13">
+      <c r="AD66" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" s="8" t="str">
         <f ca="1">"找规律："&amp;D67&amp;"、INPUT、"&amp;D67+2&amp;"、INPUT、INPUT、"&amp;D67+5&amp;""</f>
-        <v>找规律：16、INPUT、18、INPUT、INPUT、21</v>
+        <v>找规律：15、INPUT、17、INPUT、INPUT、20</v>
       </c>
       <c r="D67" s="7">
-        <f ca="1">RANDBETWEEN(X67,Y67)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -4512,15 +4563,15 @@
       <c r="M67" s="7"/>
       <c r="N67" s="6">
         <f ca="1">D67+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O67" s="6">
         <f ca="1">D67+3</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P67" s="6">
         <f ca="1">D67+4</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4539,23 +4590,26 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
-      <c r="AD67" s="13">
+      <c r="AD67" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f ca="1">"找规律：INPUT、"&amp;D68&amp;"、"&amp;D68-2&amp;"、INPUT、"&amp;D68-6&amp;"、INPUT"</f>
-        <v>找规律：INPUT、15、13、INPUT、9、INPUT</v>
+        <f ca="1">"找规律：INPUT、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、INPUT、"&amp;D68-E68*3&amp;"、INPUT"</f>
+        <v>找规律：INPUT、13、10、INPUT、7、INPUT</v>
       </c>
       <c r="D68" s="7">
-        <f ca="1">RANDBETWEEN(X68,Y68)</f>
-        <v>15</v>
-      </c>
-      <c r="E68" s="7"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E68" s="7">
+        <f ca="1">RANDBETWEEN(Z68,AA68)</f>
+        <v>3</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -4565,16 +4619,16 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="6">
-        <f ca="1">D68+2</f>
-        <v>17</v>
+        <f ca="1">D68+E68</f>
+        <v>19</v>
       </c>
       <c r="O68" s="6">
-        <f ca="1">D68-4</f>
-        <v>11</v>
+        <f ca="1">D68-E68*3</f>
+        <v>7</v>
       </c>
       <c r="P68" s="6">
-        <f ca="1">D68-8</f>
-        <v>7</v>
+        <f ca="1">D68-E68*4</f>
+        <v>4</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4589,17 +4643,21 @@
       <c r="Y68" s="5">
         <v>20</v>
       </c>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
+      <c r="Z68" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA68" s="5">
+        <v>3</v>
+      </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
-      <c r="AD68" s="13">
+      <c r="AD68" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C69" s="8" t="str">
         <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
@@ -4643,21 +4701,21 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
-      <c r="AD69" s="13">
+      <c r="AD69" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="8" t="str">
         <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、INPUT、INPUT、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、INPUT"</f>
-        <v>找规律：6、8、INPUT、INPUT、14、16、INPUT</v>
+        <v>找规律：4、6、INPUT、INPUT、12、14、INPUT</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4670,15 +4728,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4693,14 +4751,22 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
-      <c r="AD70" s="13">
+      <c r="AD70" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="8" t="str">
+        <f ca="1">"找规律："&amp;D71&amp;"、"&amp;D71*2&amp;"、"&amp;D71*4&amp;"、"&amp;D71*8&amp;"、INPUT、INPUT"</f>
+        <v>找规律：1、2、4、8、INPUT、INPUT</v>
+      </c>
+      <c r="D71" s="7">
+        <f ca="1">RANDBETWEEN(X71,Y71)</f>
+        <v>1</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
@@ -4710,8 +4776,14 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="N71" s="6">
+        <f ca="1">D71*16</f>
+        <v>16</v>
+      </c>
+      <c r="O71" s="6">
+        <f ca="1">D71*32</f>
+        <v>32</v>
+      </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
@@ -4720,18 +4792,32 @@
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
+      <c r="X71" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>2</v>
+      </c>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="13"/>
+      <c r="AD71" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="8" t="str">
+        <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、INPUT、INPUT"</f>
+        <v>找规律：13、24、35、46、INPUT、INPUT</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" ref="D71:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
+        <v>13</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
@@ -4741,8 +4827,14 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="N72" s="6">
+        <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
+        <v>57</v>
+      </c>
+      <c r="O72" s="6">
+        <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
+        <v>68</v>
+      </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -4751,18 +4843,32 @@
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
+      <c r="X72" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>13</v>
+      </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
-      <c r="AD72" s="12"/>
+      <c r="AD72" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="7"/>
+      <c r="B73" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="8" t="str">
+        <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、INPUT、INPUT"</f>
+        <v>找规律：14、41、25、52、36、INPUT、INPUT</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -4772,8 +4878,14 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="N73" s="6">
+        <f ca="1">(MOD(D73, 10)+2)*10+TRUNC(D73/10)+2</f>
+        <v>63</v>
+      </c>
+      <c r="O73" s="6">
+        <f ca="1">(TRUNC(D73/10)+3)*10+MOD(D73, 10)+3</f>
+        <v>47</v>
+      </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
@@ -4782,18 +4894,32 @@
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
+      <c r="X73" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>14</v>
+      </c>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
-      <c r="AD73" s="12"/>
+      <c r="AD73" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="7"/>
+      <c r="B74" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="8" t="str">
+        <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、INPUT、INPUT"</f>
+        <v>找规律：3、4、6、9、INPUT、INPUT</v>
+      </c>
+      <c r="D74" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -4803,8 +4929,14 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="N74" s="6">
+        <f ca="1">D74+10</f>
+        <v>13</v>
+      </c>
+      <c r="O74" s="6">
+        <f ca="1">D74+15</f>
+        <v>18</v>
+      </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
@@ -4813,19 +4945,36 @@
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
+      <c r="X74" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>5</v>
+      </c>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
-      <c r="AD74" s="12"/>
+      <c r="AD74" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="B75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="8" t="str">
+        <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
+        <v>找规律：20、1、17、1、14、INPUT、INPUT、INPUT、INPUT</v>
+      </c>
+      <c r="D75" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E75" s="7">
+        <f ca="1">RANDBETWEEN(Z75,AA75)</f>
+        <v>3</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
@@ -4834,29 +4983,60 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="6">
+        <f ca="1">D75-E75*3</f>
+        <v>11</v>
+      </c>
+      <c r="P75" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="6">
+        <f ca="1">D75-E75*4</f>
+        <v>8</v>
+      </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+      <c r="X75" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>3</v>
+      </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
-      <c r="AD75" s="12"/>
+      <c r="AD75" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
+        <v>找规律：7、1、10、1、13、INPUT、INPUT、INPUT、INPUT</v>
+      </c>
+      <c r="D76" s="7">
+        <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
+        <v>7</v>
+      </c>
+      <c r="E76" s="7">
+        <f ca="1">RANDBETWEEN(Z76,AA76)</f>
+        <v>3</v>
+      </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -4865,27 +5045,52 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="6">
+        <f ca="1">D76+E76*3</f>
+        <v>16</v>
+      </c>
+      <c r="P76" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="6">
+        <f ca="1">D76+E76*4</f>
+        <v>19</v>
+      </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="X76" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>3</v>
+      </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
-      <c r="AD76" s="12"/>
+      <c r="AD76" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="8" t="str">
+        <f>"个位和十位相同的两位有INPUT个，其中最大的是INPUT"</f>
+        <v>个位和十位相同的两位有INPUT个，其中最大的是INPUT</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -4896,8 +5101,12 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="N77" s="6">
+        <v>9</v>
+      </c>
+      <c r="O77" s="6">
+        <v>99</v>
+      </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
@@ -4912,12 +5121,22 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
-      <c r="AD77" s="12"/>
+      <c r="AD77" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="7"/>
+      <c r="B78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8" t="str">
+        <f>"写出十位数比个位数多"&amp;D78&amp;"的两位数（从大到小）它们是INPUT、INPUT、INPUT、INPUT、INPUT"</f>
+        <v>写出十位数比个位数多5的两位数（从大到小）它们是INPUT、INPUT、INPUT、INPUT、INPUT</v>
+      </c>
+      <c r="D78" s="7">
+        <f>5</f>
+        <v>5</v>
+      </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
@@ -4927,11 +5146,26 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
+      <c r="N78" s="6">
+        <f>90+9-D78</f>
+        <v>94</v>
+      </c>
+      <c r="O78" s="6">
+        <f>80+8-D78</f>
+        <v>83</v>
+      </c>
+      <c r="P78" s="6">
+        <f>70+7-D78</f>
+        <v>72</v>
+      </c>
+      <c r="Q78" s="6">
+        <f>60+6-D78</f>
+        <v>61</v>
+      </c>
+      <c r="R78" s="6">
+        <f>50+5-D78</f>
+        <v>50</v>
+      </c>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
@@ -4943,12 +5177,21 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
-      <c r="AD78" s="12"/>
+      <c r="AD78" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="7"/>
+      <c r="B79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="8" t="str">
+        <f>"写出个位数比十位数多"&amp;D79&amp;"的两位数（从小到大）它们是INPUT、INPUT、INPUT"</f>
+        <v>写出个位数比十位数多6的两位数（从小到大）它们是INPUT、INPUT、INPUT</v>
+      </c>
+      <c r="D79" s="7">
+        <v>6</v>
+      </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -4958,9 +5201,18 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
+      <c r="N79" s="6">
+        <f>(7-D79)*10+7</f>
+        <v>17</v>
+      </c>
+      <c r="O79" s="6">
+        <f>(8-D79)*10+8</f>
+        <v>28</v>
+      </c>
+      <c r="P79" s="6">
+        <f>(9-D79)*10+9</f>
+        <v>39</v>
+      </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -4974,13 +5226,26 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
-      <c r="AD79" s="12"/>
+      <c r="AD79" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="B80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="8" t="str">
+        <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走INPUT格楼梯？"</f>
+        <v>小明家在3楼，每一层有9格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
+      </c>
+      <c r="D80" s="7">
+        <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
+        <v>3</v>
+      </c>
+      <c r="E80" s="7">
+        <f ca="1">RANDBETWEEN(Z80,AA80)</f>
+        <v>9</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
@@ -4989,7 +5254,10 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="6"/>
+      <c r="N80" s="6">
+        <f ca="1">E80*D80</f>
+        <v>27</v>
+      </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
@@ -4999,20 +5267,44 @@
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
+      <c r="X80" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>9</v>
+      </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
-      <c r="AD80" s="12"/>
+      <c r="AD80" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="B81" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="8" t="str">
+        <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩INPUT只？一共飞走INPUT只？"</f>
+        <v>树上有15只小鸟，先飞走5只，又飞走2只，还剩INPUT只？一共飞走INPUT只？</v>
+      </c>
+      <c r="D81" s="7">
+        <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
+        <v>15</v>
+      </c>
+      <c r="E81" s="7">
+        <f ca="1">RANDBETWEEN(Z81,AA81)</f>
+        <v>5</v>
+      </c>
+      <c r="F81" s="7">
+        <f ca="1">RANDBETWEEN(Z81,AA81)</f>
+        <v>2</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -5030,19 +5322,40 @@
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
+      <c r="X81" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>5</v>
+      </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
-      <c r="AD81" s="12"/>
+      <c r="AD81" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="82" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="B82" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="8" t="str">
+        <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔INPUT块糖，他们就同样多了。"</f>
+        <v>小猪有16块糖，小兔有8块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
+      </c>
+      <c r="D82" s="7">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="E82" s="7">
+        <f ca="1">RANDBETWEEN(Z82,AA82)</f>
+        <v>8</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -5051,7 +5364,10 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="6"/>
+      <c r="N82" s="6">
+        <f ca="1">(IF(MOD(D82, 2) = 1, D82+1, D82)-IF(MOD(E82, 2) = 1, E82+1, E82))/2</f>
+        <v>4</v>
+      </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
@@ -5061,19 +5377,40 @@
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
+      <c r="X82" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>12</v>
+      </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
-      <c r="AD82" s="12"/>
+      <c r="AD82" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="B83" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="8" t="str">
+        <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有INPUT个小朋友？"</f>
+        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第2个，这一列有INPUT个小朋友？</v>
+      </c>
+      <c r="D83" s="7">
+        <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
+        <v>8</v>
+      </c>
+      <c r="E83" s="7">
+        <f ca="1">RANDBETWEEN(Z83,AA83)</f>
+        <v>2</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -5082,7 +5419,10 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="6"/>
+      <c r="N83" s="6">
+        <f ca="1">D83+E83-1</f>
+        <v>9</v>
+      </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
@@ -5092,17 +5432,32 @@
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
+      <c r="X83" s="5">
+        <v>6</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z83" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>5</v>
+      </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
-      <c r="AD83" s="12"/>
+      <c r="AD83" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="8" t="str">
+        <f>"请在方框里填上米或者厘米：书本宽17INPUT；大树高10INPUT；100INPUT的跑步赛道；一支15INPUT长的铅笔；"</f>
+        <v>请在方框里填上米或者厘米：书本宽17INPUT；大树高10INPUT；100INPUT的跑步赛道；一支15INPUT长的铅笔；</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -5113,10 +5468,18 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
+      <c r="N84" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
@@ -5129,7 +5492,534 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
-      <c r="AD84" s="12"/>
+      <c r="AD84" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="8" t="str">
+        <f ca="1">D85&amp;"角 = INPUT元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = INPUT角"</f>
+        <v>50角 = INPUT元；  3元4角 = INPUT角</v>
+      </c>
+      <c r="D85" s="7">
+        <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
+        <v>50</v>
+      </c>
+      <c r="E85" s="7">
+        <f ca="1">RANDBETWEEN(Z85,AA85)</f>
+        <v>3</v>
+      </c>
+      <c r="F85" s="7">
+        <f ca="1">RANDBETWEEN(X85,Y85)</f>
+        <v>4</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="6">
+        <f ca="1">D85/10</f>
+        <v>5</v>
+      </c>
+      <c r="O85" s="6">
+        <f ca="1">E85*10+F85</f>
+        <v>34</v>
+      </c>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="8" t="str">
+        <f ca="1">D86&amp;"角 = INPUT元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = INPUT角"</f>
+        <v>20角 = INPUT元；  2元1角 = INPUT角</v>
+      </c>
+      <c r="D86" s="7">
+        <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
+        <v>20</v>
+      </c>
+      <c r="E86" s="7">
+        <f ca="1">RANDBETWEEN(Z86,AA86)</f>
+        <v>2</v>
+      </c>
+      <c r="F86" s="7">
+        <f ca="1">RANDBETWEEN(X86,Y86)</f>
+        <v>1</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="6">
+        <f ca="1">D86/10</f>
+        <v>2</v>
+      </c>
+      <c r="O86" s="6">
+        <f ca="1">E86*10+F86</f>
+        <v>21</v>
+      </c>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="12"/>
+    </row>
+    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="12"/>
+    </row>
+    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="12"/>
+    </row>
+    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="12"/>
+    </row>
+    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="12"/>
+    </row>
+    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="12"/>
+    </row>
+    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="12"/>
+    </row>
+    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="12"/>
+    </row>
+    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="12"/>
+    </row>
+    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="12"/>
+    </row>
+    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="12"/>
+    </row>
+    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="12"/>
+    </row>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55A802-6DB6-4004-BE25-21132B6CEDA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BE017-1786-4ACC-93F2-16E236E504BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>0063</t>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -922,13 +926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD99"/>
+  <dimension ref="A2:AD99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1040,11 +1044,11 @@
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>17 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <v>76 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1057,19 +1061,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1097,15 +1101,15 @@
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>4 个十是INPUT，5 里面有INPUT个一。</v>
+        <v>6 个十是INPUT，7 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1117,11 +1121,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1151,15 +1155,15 @@
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是4，十位是8，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是5，十位是9，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1171,11 +1175,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1262,15 +1266,15 @@
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>9个一和3个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>4个一和6个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1282,15 +1286,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1319,23 +1323,23 @@
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比8大1的数是INPUT，比10小4的数是INPUT。</v>
+        <v>比15大6的数是INPUT，比12小8的数是INPUT。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1345,11 +1349,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1387,11 +1391,11 @@
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>90里面有INPUT个十；也可以说90里面有INPUT个一。</v>
+        <v>20里面有INPUT个十；也可以说20里面有INPUT个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1404,11 +1408,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1438,7 +1442,7 @@
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有6人，后面有6人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有6人，后面有5人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
@@ -1446,7 +1450,7 @@
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1458,7 +1462,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1489,15 +1493,15 @@
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>1个一和3个十合起来是INPUT。</v>
+        <v>7个一和8个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1509,7 +1513,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1540,19 +1544,19 @@
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是2，十位上是9，这个数是INPUT，39里面有INPUT个十和INPUT个一。</v>
+        <v>个位是3，十位上是3，这个数是INPUT，92里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1563,15 +1567,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1600,11 +1604,11 @@
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和88相邻的两个数是INPUT和INPUT。</v>
+        <v>和15相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1617,11 +1621,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1651,15 +1655,15 @@
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是9，十位上是3，这个数是INPUT。</v>
+        <v>个位是8，十位上是8，这个数是INPUT。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1671,7 +1675,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1702,19 +1706,19 @@
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>90里面有9个INPUT和0个INPUT 。</v>
+        <v>88里面有8个INPUT和8个INPUT 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1757,23 +1761,23 @@
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>10比8多INPUT， 20比1少INPUT。</v>
+        <v>17比5多INPUT， 16比7少INPUT。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1783,11 +1787,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1825,11 +1829,11 @@
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>78前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <v>29前面的一个数是INPUT，后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1842,11 +1846,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1876,15 +1880,15 @@
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在12，5，16，6，29中，共有INPUT个数，从左往右数，第3个数是INPUT，从右往左数，第3个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <v>在12，3，15，7，30中，共有INPUT个数，从左往右数，第2个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1895,38 +1899,38 @@
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1995,11 +1999,11 @@
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>28个一是INPUT</v>
+        <v>17个一是INPUT</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2012,7 +2016,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2043,19 +2047,19 @@
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>7个一和1个十组成INPUT，它的前面一个数是INPUT，比它大3的数是INPUT</v>
+        <v>6个一和2个十组成INPUT，它的前面一个数是INPUT，比它大9的数是INPUT</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2066,15 +2070,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2151,15 +2155,15 @@
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>10-4=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>19-5=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2171,15 +2175,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2298,19 +2302,19 @@
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>11个位上的1表示1个INPUT。十位上的1表示1个INPUT。</v>
+        <v>45个位上的5表示5个INPUT。十位上的4表示4个INPUT。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2353,11 +2357,11 @@
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是9，那么它们的和是INPUT。</v>
+        <v>两个加数都是4，那么它们的和是INPUT。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2370,7 +2374,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2401,15 +2405,15 @@
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是11，减数是7，它们的差是INPUT。</v>
+        <v>被减数是19，减数是8，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2421,7 +2425,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2456,11 +2460,11 @@
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>19比INPUT大1，比INPUT小1。</v>
+        <v>17比INPUT大1，比INPUT小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2473,11 +2477,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2507,15 +2511,15 @@
       </c>
       <c r="C30" s="8" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是0，比十位上的数字小1，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是5，比十位上的数字小2，这个数是INPUT。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2527,7 +2531,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2604,15 +2608,15 @@
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比12大7的数是INPUT，比它小7的数是INPUT。</v>
+        <v>比17大8的数是INPUT，比它小8的数是INPUT。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2624,11 +2628,11 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2662,19 +2666,19 @@
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>98左边的9在INPUT位，表示INPUT个INPUT。右边的8表示INPUT个INPUT。</v>
+        <v>72左边的7在INPUT位，表示INPUT个INPUT。右边的2表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2688,14 +2692,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>48</v>
@@ -2725,11 +2729,11 @@
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是9，十位是9的数是INPUT。</v>
+        <v>个位是4，十位是9的数是INPUT。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
@@ -2745,7 +2749,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2776,19 +2780,19 @@
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>17比INPUT少8，54里面有INPUT个十和INPUT个一。</v>
+        <v>15比INPUT少4，27里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2799,15 +2803,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2844,11 +2848,11 @@
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出13前面的三个数INPUT，INPUT，INPUT。</v>
+        <v>按从小到大的顺序填出30前面的三个数INPUT，INPUT，INPUT。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2861,15 +2865,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2898,7 +2902,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>39添上1是INPUT个十。49添上1是INPUT。</v>
+        <v>39添上1是INPUT个十。19添上1是INPUT。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
@@ -2906,7 +2910,7 @@
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2922,7 +2926,7 @@
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -2952,11 +2956,11 @@
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。"</f>
-        <v>写出小于三十的3个个位是6的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
+        <v>写出小于三十的3个个位是7的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2969,15 +2973,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3006,23 +3010,23 @@
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 4 + INPUT &lt; 16； 10 &gt; INPUT + 6。</v>
+        <v>方框里最大填几： 3 + INPUT &lt; 10； 15 &gt; INPUT + 4。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3032,11 +3036,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3070,15 +3074,15 @@
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>1再添上INPUT就和11同样多。</v>
+        <v>4再添上INPUT就和17同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3090,7 +3094,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3125,15 +3129,15 @@
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，60前面的一个数是INPUT，40后面一个数是INPUT。</v>
+        <v>从10开始十个十个地数，70前面的一个数是INPUT，20后面一个数是INPUT。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3145,11 +3149,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3179,31 +3183,31 @@
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>18－9＝INPUT－2， 14－7＝18－INPUT。</v>
+        <v>10－7＝INPUT－9， 20－9＝12－INPUT。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3211,11 +3215,11 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3249,15 +3253,15 @@
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小6的数是INPUT。一百以内个位是1的两位数有INPUT个。</v>
+        <v>比最大的两位数小5的数是INPUT。一百以内个位是8的两位数有INPUT个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3269,7 +3273,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3349,11 +3353,11 @@
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有INPUT个。"</f>
-        <v>一百以内十位是7的两位数有INPUT个。</v>
+        <v>一百以内十位是5的两位数有INPUT个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3396,15 +3400,15 @@
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是7，被减数是15，它们的差是INPUT。</v>
+        <v>减数是9，被减数是19，它们的差是INPUT。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3416,7 +3420,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3451,11 +3455,11 @@
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是11，它们的和是INPUT，差是INPUT。</v>
+        <v>两个数都是12，它们的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3468,7 +3472,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3542,15 +3546,15 @@
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比20大1，另一个数比20小1，这两个数的和是INPUT，差是INPUT。</v>
+        <v>一个数比13大4，另一个数比13小4，这两个数的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3562,11 +3566,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3600,23 +3604,23 @@
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 8 + 13 &lt; INPUT； 13 - INPUT &lt; 3。</v>
+        <v>方框里最小填几： 3 + 10 &lt; INPUT； 12 - INPUT &lt; 7。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3626,11 +3630,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3664,7 +3668,7 @@
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>20和21之间有INPUT个数字。</v>
+        <v>20和24之间有INPUT个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
@@ -3672,7 +3676,7 @@
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3684,7 +3688,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3761,11 +3765,11 @@
       </c>
       <c r="C53" s="8" t="str">
         <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>个位数上是6的两位数有INPUT个。其中最大的是INPUT</v>
+        <v>个位数上是9的两位数有INPUT个。其中最大的是INPUT</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3781,7 +3785,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3811,15 +3815,15 @@
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是5， 十位数上的数字比个位数上的数字大4， 这个两位是INPUT</v>
+        <v>一个两位数，个位数是4， 十位数上的数字比个位数上的数字大2， 这个两位是INPUT</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3831,7 +3835,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3921,15 +3925,15 @@
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有3个珠子，十位上的珠子比个位上的多3个，这个数是INPUT</v>
+        <v>一个计数器，个位上有4个珠子，十位上的珠子比个位上的多4个，这个数是INPUT</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3941,7 +3945,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3976,15 +3980,15 @@
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是19，另一个加数是9，求和是INPUT</v>
+        <v>一个加数是15，另一个加数是8，求和是INPUT</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -3996,7 +4000,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4031,11 +4035,11 @@
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数20， 减数是比被减数少5的数，求差是INPUT</v>
+        <v>被减数16， 减数是比被减数少5的数，求差是INPUT</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
@@ -4130,23 +4134,23 @@
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>17比1多INPUT; 5比20少INPUT</v>
+        <v>16比6多INPUT; 9比14少INPUT</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4156,11 +4160,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4194,15 +4198,15 @@
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>60的6在INPUT位上，表示INPUT个INPUT。</v>
+        <v>93的9在INPUT位上，表示INPUT个INPUT。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4217,7 +4221,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>92</v>
@@ -4253,19 +4257,19 @@
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：57、54、45、42、INPUT、INPUT、INPUT</v>
+        <v>找规律：54、53、45、44、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4276,15 +4280,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4321,11 +4325,11 @@
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>3个一和6个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <v>6个一和6个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
@@ -4341,7 +4345,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
@@ -4379,15 +4383,15 @@
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>7个十和4个一是INPUT</v>
+        <v>1个十和1个一是INPUT</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4399,7 +4403,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4434,7 +4438,7 @@
       </c>
       <c r="C65" s="8" t="str">
         <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：8、14、20、26、INPUT、INPUT</v>
+        <v>找规律：8、11、14、17、INPUT、INPUT</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -4442,7 +4446,7 @@
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4454,11 +4458,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4492,11 +4496,11 @@
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、4、INPUT、6、7、INPUT</v>
+        <v>找规律：INPUT、8、INPUT、10、11、INPUT</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4509,15 +4513,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="6">
         <f ca="1">D66-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O66" s="6">
         <f ca="1">D66+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P66" s="6">
         <f ca="1">D66+4</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4600,11 +4604,11 @@
       </c>
       <c r="C68" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、INPUT、"&amp;D68-E68*3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、13、10、INPUT、7、INPUT</v>
+        <v>找规律：INPUT、16、13、INPUT、10、INPUT</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68" s="7">
         <f ca="1">RANDBETWEEN(Z68,AA68)</f>
@@ -4620,15 +4624,15 @@
       <c r="M68" s="7"/>
       <c r="N68" s="6">
         <f ca="1">D68+E68</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O68" s="6">
         <f ca="1">D68-E68*3</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P68" s="6">
         <f ca="1">D68-E68*4</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4661,11 +4665,11 @@
       </c>
       <c r="C69" s="8" t="str">
         <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
-        <v>找规律：7、9、INPUT、INPUT、15、INPUT、19</v>
+        <v>找规律：3、5、INPUT、INPUT、11、INPUT、15</v>
       </c>
       <c r="D69" s="7">
         <f ca="1">INT(RAND()*5)*2+1</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4678,15 +4682,15 @@
       <c r="M69" s="7"/>
       <c r="N69" s="6">
         <f ca="1">D69+4</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O69" s="6">
         <f ca="1">D69+6</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P69" s="6">
         <f ca="1">D69+12</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4711,11 +4715,11 @@
       </c>
       <c r="C70" s="8" t="str">
         <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、INPUT、INPUT、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、INPUT"</f>
-        <v>找规律：4、6、INPUT、INPUT、12、14、INPUT</v>
+        <v>找规律：8、10、INPUT、INPUT、16、18、INPUT</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4728,15 +4732,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4812,11 +4816,11 @@
       </c>
       <c r="C72" s="8" t="str">
         <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：13、24、35、46、INPUT、INPUT</v>
+        <v>找规律：12、23、34、45、INPUT、INPUT</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" ref="D71:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
-        <v>13</v>
+        <f t="shared" ref="D72:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
+        <v>12</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4829,11 +4833,11 @@
       <c r="M72" s="7"/>
       <c r="N72" s="6">
         <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O72" s="6">
         <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4863,11 +4867,11 @@
       </c>
       <c r="C73" s="8" t="str">
         <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、INPUT、INPUT"</f>
-        <v>找规律：14、41、25、52、36、INPUT、INPUT</v>
+        <v>找规律：13、31、24、42、35、INPUT、INPUT</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -4880,11 +4884,11 @@
       <c r="M73" s="7"/>
       <c r="N73" s="6">
         <f ca="1">(MOD(D73, 10)+2)*10+TRUNC(D73/10)+2</f>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O73" s="6">
         <f ca="1">(TRUNC(D73/10)+3)*10+MOD(D73, 10)+3</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -4914,11 +4918,11 @@
       </c>
       <c r="C74" s="8" t="str">
         <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、INPUT、INPUT"</f>
-        <v>找规律：3、4、6、9、INPUT、INPUT</v>
+        <v>找规律：5、6、8、11、INPUT、INPUT</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -4931,11 +4935,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -4965,15 +4969,15 @@
       </c>
       <c r="C75" s="8" t="str">
         <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：20、1、17、1、14、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：18、1、16、1、14、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -4988,14 +4992,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5027,15 +5031,15 @@
       </c>
       <c r="C76" s="8" t="str">
         <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：7、1、10、1、13、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：8、1、10、1、12、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="7">
         <f ca="1">RANDBETWEEN(Z76,AA76)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -5050,14 +5054,14 @@
       </c>
       <c r="O76" s="6">
         <f ca="1">D76+E76*3</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P76" s="6">
         <v>1</v>
       </c>
       <c r="Q76" s="6">
         <f ca="1">D76+E76*4</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5236,7 +5240,7 @@
       </c>
       <c r="C80" s="8" t="str">
         <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走INPUT格楼梯？"</f>
-        <v>小明家在3楼，每一层有9格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
+        <v>小明家在3楼，每一层有7格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
@@ -5244,7 +5248,7 @@
       </c>
       <c r="E80" s="7">
         <f ca="1">RANDBETWEEN(Z80,AA80)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5256,7 +5260,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="6">
         <f ca="1">E80*D80</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5285,21 +5289,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="8" t="str">
         <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩INPUT只？一共飞走INPUT只？"</f>
-        <v>树上有15只小鸟，先飞走5只，又飞走2只，还剩INPUT只？一共飞走INPUT只？</v>
+        <v>树上有11只小鸟，先飞走1只，又飞走2只，还剩INPUT只？一共飞走INPUT只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
@@ -5340,21 +5344,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="8" t="str">
         <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔INPUT块糖，他们就同样多了。"</f>
-        <v>小猪有16块糖，小兔有8块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
+        <v>小猪有20块糖，小兔有12块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5395,13 +5399,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="8" t="str">
         <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有INPUT个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第2个，这一列有INPUT个小朋友？</v>
+        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第3个，这一列有INPUT个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
@@ -5409,7 +5413,7 @@
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5421,7 +5425,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="6">
         <f ca="1">D83+E83-1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5450,7 +5454,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>112</v>
       </c>
@@ -5496,25 +5503,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
       <c r="B85" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C85" s="8" t="str">
         <f ca="1">D85&amp;"角 = INPUT元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = INPUT角"</f>
-        <v>50角 = INPUT元；  3元4角 = INPUT角</v>
+        <v>20角 = INPUT元；  2元5角 = INPUT角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">RANDBETWEEN(Z85,AA85)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -5525,11 +5535,11 @@
       <c r="M85" s="7"/>
       <c r="N85" s="6">
         <f ca="1">D85/10</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -5557,13 +5567,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
       <c r="B86" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="8" t="str">
         <f ca="1">D86&amp;"角 = INPUT元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = INPUT角"</f>
-        <v>20角 = INPUT元；  2元1角 = INPUT角</v>
+        <v>20角 = INPUT元；  3元2角 = INPUT角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
@@ -5571,11 +5584,11 @@
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5590,7 +5603,7 @@
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5618,7 +5631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="8"/>
       <c r="D87" s="7"/>
@@ -5649,7 +5662,7 @@
       <c r="AC87" s="5"/>
       <c r="AD87" s="12"/>
     </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="8"/>
       <c r="D88" s="7"/>
@@ -5680,7 +5693,7 @@
       <c r="AC88" s="5"/>
       <c r="AD88" s="12"/>
     </row>
-    <row r="89" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="8"/>
       <c r="D89" s="7"/>
@@ -5711,7 +5724,7 @@
       <c r="AC89" s="5"/>
       <c r="AD89" s="12"/>
     </row>
-    <row r="90" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="8"/>
       <c r="D90" s="7"/>
@@ -5742,7 +5755,7 @@
       <c r="AC90" s="5"/>
       <c r="AD90" s="12"/>
     </row>
-    <row r="91" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="8"/>
       <c r="D91" s="7"/>
@@ -5773,7 +5786,7 @@
       <c r="AC91" s="5"/>
       <c r="AD91" s="12"/>
     </row>
-    <row r="92" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="8"/>
       <c r="D92" s="7"/>
@@ -5804,7 +5817,7 @@
       <c r="AC92" s="5"/>
       <c r="AD92" s="12"/>
     </row>
-    <row r="93" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="8"/>
       <c r="D93" s="7"/>
@@ -5835,7 +5848,7 @@
       <c r="AC93" s="5"/>
       <c r="AD93" s="12"/>
     </row>
-    <row r="94" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="8"/>
       <c r="D94" s="7"/>
@@ -5866,7 +5879,7 @@
       <c r="AC94" s="5"/>
       <c r="AD94" s="12"/>
     </row>
-    <row r="95" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="8"/>
       <c r="D95" s="7"/>
@@ -5897,7 +5910,7 @@
       <c r="AC95" s="5"/>
       <c r="AD95" s="12"/>
     </row>
-    <row r="96" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="8"/>
       <c r="D96" s="7"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BE017-1786-4ACC-93F2-16E236E504BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -394,24 +393,68 @@
   <si>
     <t>off</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -420,7 +463,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -429,7 +472,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -438,7 +481,7 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -446,7 +489,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -590,7 +633,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,27 +723,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,24 +757,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,31 +932,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AD99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AD106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.36328125" customWidth="1"/>
-    <col min="4" max="8" width="7.6328125" customWidth="1"/>
-    <col min="9" max="13" width="7.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="7.6328125" customWidth="1" collapsed="1"/>
-    <col min="15" max="18" width="7.6328125" customWidth="1"/>
-    <col min="19" max="23" width="7.6328125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="7.6328125" customWidth="1" collapsed="1"/>
-    <col min="25" max="29" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
+    <col min="4" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="13" width="7.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="15" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="23" width="7.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1038,17 +1045,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>76 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <v>91 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1061,19 +1068,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1095,21 +1102,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>6 个十是INPUT，7 里面有INPUT个一。</v>
+        <v>3 个十是INPUT，5 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1121,11 +1128,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1149,21 +1156,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是5，十位是9，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是4，十位是8，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1175,11 +1182,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1203,21 +1210,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT， INPUT， INPUT。(从小到大的顺序)"</f>
-        <v>比13大比17小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
+        <v>比19大比23小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1229,15 +1236,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1260,21 +1267,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>4个一和6个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>7个一和7个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1286,15 +1293,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1317,29 +1324,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比15大6的数是INPUT，比12小8的数是INPUT。</v>
+        <v>比8大3的数是INPUT，比19小6的数是INPUT。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1349,11 +1356,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1385,17 +1392,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>20里面有INPUT个十；也可以说20里面有INPUT个一。</v>
+        <v>30里面有INPUT个十；也可以说30里面有INPUT个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1408,11 +1415,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1436,13 +1443,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有6人，后面有5人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有6人，后面有7人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
@@ -1450,7 +1457,7 @@
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1462,7 +1469,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1487,21 +1494,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>7个一和8个十合起来是INPUT。</v>
+        <v>8个一和6个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1513,7 +1520,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1538,25 +1545,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是3，十位上是3，这个数是INPUT，92里面有INPUT个十和INPUT个一。</v>
+        <v>个位是6，十位上是5，这个数是INPUT，23里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1567,15 +1574,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1598,17 +1605,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和15相邻的两个数是INPUT和INPUT。</v>
+        <v>和35相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1621,11 +1628,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1649,13 +1656,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30">
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是8，十位上是8，这个数是INPUT。</v>
+        <v>个位是8，十位上是4，这个数是INPUT。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1663,7 +1670,7 @@
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1675,7 +1682,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1700,25 +1707,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>88里面有8个INPUT和8个INPUT 。</v>
+        <v>11里面有1个INPUT和1个INPUT 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1755,29 +1762,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30">
       <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>17比5多INPUT， 16比7少INPUT。</v>
+        <v>12比7多INPUT， 12比8少INPUT。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1787,11 +1794,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1823,17 +1830,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30">
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>29前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <v>34前面的一个数是INPUT，后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1846,11 +1853,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1874,17 +1881,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在12，3，15，7，30中，共有INPUT个数，从左往右数，第2个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <v>在14，3，19，7，25中，共有INPUT个数，从左往右数，第1个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
@@ -1895,7 +1902,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
@@ -1903,7 +1910,7 @@
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -1911,22 +1918,22 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
@@ -1951,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30">
       <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1993,17 +2000,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30">
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>17个一是INPUT</v>
+        <v>18个一是INPUT</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2016,7 +2023,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2041,25 +2048,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30">
       <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>6个一和2个十组成INPUT，它的前面一个数是INPUT，比它大9的数是INPUT</v>
+        <v>7个一和1个十组成INPUT，它的前面一个数是INPUT，比它大1的数是INPUT</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2070,15 +2077,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2105,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30">
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -2149,21 +2156,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30">
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>19-5=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>17-7=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2175,15 +2182,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2210,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30">
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30">
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
@@ -2296,25 +2303,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30">
       <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>45个位上的5表示5个INPUT。十位上的4表示4个INPUT。</v>
+        <v>99个位上的9表示9个INPUT。十位上的9表示9个INPUT。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2351,17 +2358,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30">
       <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是4，那么它们的和是INPUT。</v>
+        <v>两个加数都是8，那么它们的和是INPUT。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2374,7 +2381,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2399,21 +2406,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30">
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是19，减数是8，它们的差是INPUT。</v>
+        <v>被减数是17，减数是4，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2425,7 +2432,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2454,17 +2461,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>17比INPUT大1，比INPUT小1。</v>
+        <v>20比INPUT大1，比INPUT小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2477,11 +2484,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2505,17 +2512,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30">
       <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="8" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是5，比十位上的数字小2，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是1，比十位上的数字小2，这个数是INPUT。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
@@ -2531,7 +2538,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2560,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30">
       <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
@@ -2602,21 +2609,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30">
       <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比17大8的数是INPUT，比它小8的数是INPUT。</v>
+        <v>比15大6的数是INPUT，比它小6的数是INPUT。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2628,7 +2635,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
@@ -2660,25 +2667,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>72左边的7在INPUT位，表示INPUT个INPUT。右边的2表示INPUT个INPUT。</v>
+        <v>29左边的2在INPUT位，表示INPUT个INPUT。右边的9表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2692,14 +2699,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>48</v>
@@ -2723,13 +2730,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30">
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是4，十位是9的数是INPUT。</v>
+        <v>个位是4，十位是6的数是INPUT。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
@@ -2737,7 +2744,7 @@
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2749,7 +2756,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2774,25 +2781,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30">
       <c r="B35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>15比INPUT少4，27里面有INPUT个十和INPUT个一。</v>
+        <v>20比INPUT少9，93里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2803,15 +2810,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2842,17 +2849,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30">
       <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出30前面的三个数INPUT，INPUT，INPUT。</v>
+        <v>按从小到大的顺序填出31前面的三个数INPUT，INPUT，INPUT。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2865,15 +2872,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2896,17 +2903,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>39添上1是INPUT个十。19添上1是INPUT。</v>
+        <v>29添上1是INPUT个十。19添上1是INPUT。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
@@ -2922,7 +2929,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="6">
         <f ca="1">TRUNC((D37+1)/10)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
@@ -2950,17 +2957,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30">
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。"</f>
-        <v>写出小于三十的3个个位是7的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
+        <v>写出小于三十的3个个位是1的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2973,15 +2980,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3004,25 +3011,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30">
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 3 + INPUT &lt; 10； 15 &gt; INPUT + 4。</v>
+        <v>方框里最大填几： 7 + INPUT &lt; 17； 16 &gt; INPUT + 4。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
@@ -3036,11 +3043,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3068,13 +3075,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30">
       <c r="B40" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>4再添上INPUT就和17同样多。</v>
+        <v>4再添上INPUT就和20同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
@@ -3082,7 +3089,7 @@
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3094,7 +3101,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3123,21 +3130,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30">
       <c r="B41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，70前面的一个数是INPUT，20后面一个数是INPUT。</v>
+        <v>从10开始十个十个地数，40前面的一个数是INPUT，30后面一个数是INPUT。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3149,11 +3156,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3177,37 +3184,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30">
       <c r="B42" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>10－7＝INPUT－9， 20－9＝12－INPUT。</v>
+        <v>15－3＝INPUT－2， 15－1＝14－INPUT。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3215,11 +3222,11 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3247,21 +3254,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30">
       <c r="B43" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小5的数是INPUT。一百以内个位是8的两位数有INPUT个。</v>
+        <v>比最大的两位数小2的数是INPUT。一百以内个位是3的两位数有INPUT个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3273,7 +3280,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3300,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30">
       <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30">
       <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
@@ -3394,21 +3401,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30">
       <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是9，被减数是19，它们的差是INPUT。</v>
+        <v>减数是5，被减数是17，它们的差是INPUT。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3420,7 +3427,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3449,17 +3456,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30">
       <c r="B47" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是12，它们的和是INPUT，差是INPUT。</v>
+        <v>两个数都是10，它们的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3472,7 +3479,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3499,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30">
       <c r="B48" s="4" t="s">
         <v>76</v>
       </c>
@@ -3540,21 +3547,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30">
       <c r="B49" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比13大4，另一个数比13小4，这两个数的和是INPUT，差是INPUT。</v>
+        <v>一个数比11大7，另一个数比11小7，这两个数的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3566,11 +3573,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3598,29 +3605,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30">
       <c r="B50" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 3 + 10 &lt; INPUT； 12 - INPUT &lt; 7。</v>
+        <v>方框里最小填几： 8 + 16 &lt; INPUT； 18 - INPUT &lt; 9。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3630,11 +3637,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3662,21 +3669,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30">
       <c r="B51" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>20和24之间有INPUT个数字。</v>
+        <v>16和21之间有INPUT个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3688,7 +3695,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3717,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30">
       <c r="B52" s="4" t="s">
         <v>80</v>
       </c>
@@ -3759,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30">
       <c r="B53" s="4" t="s">
         <v>81</v>
       </c>
@@ -3809,21 +3816,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30">
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是4， 十位数上的数字比个位数上的数字大2， 这个两位是INPUT</v>
+        <v>一个两位数，个位数是3， 十位数上的数字比个位数上的数字大1， 这个两位是INPUT</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3835,7 +3842,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3864,21 +3871,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30">
       <c r="B55" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是INPUT"</f>
-        <v>一个计数器，十位上有5个珠子，个位上有3个珠子，这个数是INPUT</v>
+        <v>一个计数器，十位上有2个珠子，个位上有1个珠子，这个数是INPUT</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -3890,7 +3897,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -3919,13 +3926,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30">
       <c r="B56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有4个珠子，十位上的珠子比个位上的多4个，这个数是INPUT</v>
+        <v>一个计数器，个位上有4个珠子，十位上的珠子比个位上的多3个，这个数是INPUT</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -3933,7 +3940,7 @@
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3945,7 +3952,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3974,21 +3981,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30">
       <c r="B57" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是15，另一个加数是8，求和是INPUT</v>
+        <v>一个加数是11，另一个加数是6，求和是INPUT</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -4000,7 +4007,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4029,21 +4036,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30">
       <c r="B58" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数16， 减数是比被减数少5的数，求差是INPUT</v>
+        <v>被减数10， 减数是比被减数少2的数，求差是INPUT</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4055,7 +4062,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4084,7 +4091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30">
       <c r="B59" s="4" t="s">
         <v>87</v>
       </c>
@@ -4128,29 +4135,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30">
       <c r="B60" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>16比6多INPUT; 9比14少INPUT</v>
+        <v>17比7多INPUT; 8比10少INPUT</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4164,7 +4171,7 @@
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4192,21 +4199,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30">
       <c r="B61" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>93的9在INPUT位上，表示INPUT个INPUT。</v>
+        <v>61的6在INPUT位上，表示INPUT个INPUT。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4221,7 +4228,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>92</v>
@@ -4251,21 +4258,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30">
       <c r="B62" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：54、53、45、44、INPUT、INPUT、INPUT</v>
+        <v>找规律：66、63、55、52、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
@@ -4280,15 +4287,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4319,21 +4326,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30">
       <c r="B63" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>6个一和6个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <v>4个一和7个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4345,11 +4352,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4377,21 +4384,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30">
       <c r="B64" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>1个十和1个一是INPUT</v>
+        <v>3个十和5个一是INPUT</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4403,7 +4410,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4432,17 +4439,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30">
       <c r="B65" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="8" t="str">
         <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：8、11、14、17、INPUT、INPUT</v>
+        <v>找规律：6、9、12、15、INPUT、INPUT</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
@@ -4458,11 +4465,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4490,17 +4497,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:30">
       <c r="B66" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、8、INPUT、10、11、INPUT</v>
+        <v>找规律：INPUT、6、INPUT、8、9、INPUT</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4513,15 +4520,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="6">
         <f ca="1">D66-1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O66" s="6">
         <f ca="1">D66+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P66" s="6">
         <f ca="1">D66+4</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4544,17 +4551,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:30">
       <c r="B67" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C67" s="8" t="str">
         <f ca="1">"找规律："&amp;D67&amp;"、INPUT、"&amp;D67+2&amp;"、INPUT、INPUT、"&amp;D67+5&amp;""</f>
-        <v>找规律：15、INPUT、17、INPUT、INPUT、20</v>
+        <v>找规律：11、INPUT、13、INPUT、INPUT、16</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -4567,15 +4574,15 @@
       <c r="M67" s="7"/>
       <c r="N67" s="6">
         <f ca="1">D67+1</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O67" s="6">
         <f ca="1">D67+3</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P67" s="6">
         <f ca="1">D67+4</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4598,21 +4605,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30">
       <c r="B68" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C68" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、INPUT、"&amp;D68-E68*3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、16、13、INPUT、10、INPUT</v>
+        <v>找规律：INPUT、14、12、INPUT、10、INPUT</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E68" s="7">
         <f ca="1">RANDBETWEEN(Z68,AA68)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -4624,7 +4631,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="6">
         <f ca="1">D68+E68</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O68" s="6">
         <f ca="1">D68-E68*3</f>
@@ -4632,7 +4639,7 @@
       </c>
       <c r="P68" s="6">
         <f ca="1">D68-E68*4</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4659,17 +4666,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:30">
       <c r="B69" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C69" s="8" t="str">
         <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
-        <v>找规律：3、5、INPUT、INPUT、11、INPUT、15</v>
+        <v>找规律：1、3、INPUT、INPUT、9、INPUT、13</v>
       </c>
       <c r="D69" s="7">
         <f ca="1">INT(RAND()*5)*2+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4682,15 +4689,15 @@
       <c r="M69" s="7"/>
       <c r="N69" s="6">
         <f ca="1">D69+4</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O69" s="6">
         <f ca="1">D69+6</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P69" s="6">
         <f ca="1">D69+12</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4709,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:30">
       <c r="B70" s="4" t="s">
         <v>98</v>
       </c>
@@ -4759,7 +4766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:30">
       <c r="B71" s="4" t="s">
         <v>99</v>
       </c>
@@ -4810,17 +4817,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:30">
       <c r="B72" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="8" t="str">
         <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：12、23、34、45、INPUT、INPUT</v>
+        <v>找规律：10、21、32、43、INPUT、INPUT</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" ref="D72:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4833,11 +4840,11 @@
       <c r="M72" s="7"/>
       <c r="N72" s="6">
         <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O72" s="6">
         <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4861,17 +4868,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:30">
       <c r="B73" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="8" t="str">
         <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、INPUT、INPUT"</f>
-        <v>找规律：13、31、24、42、35、INPUT、INPUT</v>
+        <v>找规律：14、41、25、52、36、INPUT、INPUT</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -4884,11 +4891,11 @@
       <c r="M73" s="7"/>
       <c r="N73" s="6">
         <f ca="1">(MOD(D73, 10)+2)*10+TRUNC(D73/10)+2</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O73" s="6">
         <f ca="1">(TRUNC(D73/10)+3)*10+MOD(D73, 10)+3</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -4912,17 +4919,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:30">
       <c r="B74" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C74" s="8" t="str">
         <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、INPUT、INPUT"</f>
-        <v>找规律：5、6、8、11、INPUT、INPUT</v>
+        <v>找规律：1、2、4、7、INPUT、INPUT</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -4935,11 +4942,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -4963,17 +4970,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:30">
       <c r="B75" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C75" s="8" t="str">
         <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：18、1、16、1、14、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：20、1、18、1、16、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
@@ -4992,14 +4999,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5025,17 +5032,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:30">
       <c r="B76" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C76" s="8" t="str">
         <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：8、1、10、1、12、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：5、1、7、1、9、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E76" s="7">
         <f ca="1">RANDBETWEEN(Z76,AA76)</f>
@@ -5054,14 +5061,14 @@
       </c>
       <c r="O76" s="6">
         <f ca="1">D76+E76*3</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P76" s="6">
         <v>1</v>
       </c>
       <c r="Q76" s="6">
         <f ca="1">D76+E76*4</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5087,7 +5094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:30">
       <c r="B77" s="4" t="s">
         <v>105</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:30">
       <c r="B78" s="4" t="s">
         <v>106</v>
       </c>
@@ -5185,7 +5192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30">
       <c r="B79" s="4" t="s">
         <v>107</v>
       </c>
@@ -5234,13 +5241,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30">
       <c r="B80" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="8" t="str">
         <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走INPUT格楼梯？"</f>
-        <v>小明家在3楼，每一层有7格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
+        <v>小明家在3楼，每一层有8格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
@@ -5248,7 +5255,7 @@
       </c>
       <c r="E80" s="7">
         <f ca="1">RANDBETWEEN(Z80,AA80)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5260,7 +5267,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="6">
         <f ca="1">E80*D80</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5289,17 +5296,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30">
       <c r="B81" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="8" t="str">
         <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩INPUT只？一共飞走INPUT只？"</f>
-        <v>树上有11只小鸟，先飞走1只，又飞走2只，还剩INPUT只？一共飞走INPUT只？</v>
+        <v>树上有15只小鸟，先飞走1只，又飞走3只，还剩INPUT只？一共飞走INPUT只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
@@ -5307,7 +5314,7 @@
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5344,21 +5351,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30">
       <c r="B82" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C82" s="8" t="str">
         <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔INPUT块糖，他们就同样多了。"</f>
-        <v>小猪有20块糖，小兔有12块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
+        <v>小猪有16块糖，小兔有10块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5370,7 +5377,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="6">
         <f ca="1">(IF(MOD(D82, 2) = 1, D82+1, D82)-IF(MOD(E82, 2) = 1, E82+1, E82))/2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -5399,21 +5406,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30">
       <c r="B83" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C83" s="8" t="str">
         <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有INPUT个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第3个，这一列有INPUT个小朋友？</v>
+        <v>小朋友们排成一列，芳芳从前面数是排在第6个，从后面数是排在第5个，这一列有INPUT个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5454,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -5512,7 +5519,7 @@
       </c>
       <c r="C85" s="8" t="str">
         <f ca="1">D85&amp;"角 = INPUT元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = INPUT角"</f>
-        <v>20角 = INPUT元；  2元5角 = INPUT角</v>
+        <v>20角 = INPUT元；  2元2角 = INPUT角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
@@ -5524,7 +5531,7 @@
       </c>
       <c r="F85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -5539,7 +5546,7 @@
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -5567,7 +5574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -5576,19 +5583,19 @@
       </c>
       <c r="C86" s="8" t="str">
         <f ca="1">D86&amp;"角 = INPUT元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = INPUT角"</f>
-        <v>20角 = INPUT元；  3元2角 = INPUT角</v>
+        <v>50角 = INPUT元；  2元4角 = INPUT角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5599,11 +5606,11 @@
       <c r="M86" s="7"/>
       <c r="N86" s="6">
         <f ca="1">D86/10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5631,12 +5638,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+    <row r="87" spans="1:30">
+      <c r="B87" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="8" t="str">
+        <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=INPUT   △=INPUT"</f>
+        <v>△-□=9    □+3=12   请回答一下问题：□=INPUT   △=INPUT</v>
+      </c>
+      <c r="D87" s="7">
+        <f t="shared" ref="D87:D89" ca="1" si="9">RANDBETWEEN(X87,Y87)</f>
+        <v>9</v>
+      </c>
+      <c r="E87" s="7">
+        <f ca="1">RANDBETWEEN(X87,Y87)</f>
+        <v>3</v>
+      </c>
+      <c r="F87" s="7">
+        <f ca="1">RANDBETWEEN(Z87,AA87)</f>
+        <v>12</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -5644,8 +5665,14 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
+      <c r="N87" s="6">
+        <f ca="1">F87-E87</f>
+        <v>9</v>
+      </c>
+      <c r="O87" s="6">
+        <f ca="1">F87+D87</f>
+        <v>21</v>
+      </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
@@ -5654,19 +5681,38 @@
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="X87" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z87" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>20</v>
+      </c>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
-      <c r="AD87" s="12"/>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="AD87" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
+      <c r="B88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="8" t="str">
+        <f>"一个两位数，十位数字比"&amp;D88&amp;"大，个位数字比"&amp;E88&amp;"小，这个两位数是INPUT"</f>
+        <v>一个两位数，十位数字比8大，个位数字比1小，这个两位数是INPUT</v>
+      </c>
+      <c r="D88" s="7">
+        <v>8</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -5675,7 +5721,9 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="6"/>
+      <c r="N88" s="6">
+        <v>90</v>
+      </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
@@ -5691,13 +5739,26 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
-      <c r="AD88" s="12"/>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="AD88" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="B89" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="8" t="str">
+        <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有INPUT个，最小的是INPUT"</f>
+        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有INPUT个，最小的是INPUT</v>
+      </c>
+      <c r="D89" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="7">
+        <f ca="1">RANDBETWEEN(Z89,AA89)</f>
+        <v>2</v>
+      </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
@@ -5706,8 +5767,14 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
+      <c r="N89" s="6">
+        <f ca="1">(9-D89)*E89</f>
+        <v>4</v>
+      </c>
+      <c r="O89" s="6">
+        <f ca="1">(D89+1)*10</f>
+        <v>80</v>
+      </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
@@ -5716,19 +5783,40 @@
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
+      <c r="X89" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>3</v>
+      </c>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
-      <c r="AD89" s="12"/>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="AD89" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="B90" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="8" t="str">
+        <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有INPUT个，最大的是INPUT"</f>
+        <v>一个两位数，十位数字比6大，个位数字比2小，这个两位数有INPUT个，最大的是INPUT</v>
+      </c>
+      <c r="D90" s="7">
+        <f t="shared" ref="D90:D91" ca="1" si="10">RANDBETWEEN(X90,Y90)</f>
+        <v>6</v>
+      </c>
+      <c r="E90" s="7">
+        <f ca="1">RANDBETWEEN(Z90,AA90)</f>
+        <v>2</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
@@ -5737,8 +5825,14 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
+      <c r="N90" s="6">
+        <f ca="1">(9-D90)*E90</f>
+        <v>6</v>
+      </c>
+      <c r="O90" s="6">
+        <f ca="1">90+(E90-1)</f>
+        <v>91</v>
+      </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
@@ -5747,19 +5841,40 @@
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
+      <c r="X90" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>3</v>
+      </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
-      <c r="AD90" s="12"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="AD90" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
+      <c r="B91" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="8" t="str">
+        <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)"</f>
+        <v>5＋□＜18，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)</v>
+      </c>
+      <c r="D91" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="7">
+        <f ca="1">RANDBETWEEN(Z91,AA91)</f>
+        <v>18</v>
+      </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
@@ -5768,29 +5883,65 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
+      <c r="N91" s="6">
+        <f ca="1">E91-D91-1</f>
+        <v>12</v>
+      </c>
+      <c r="O91" s="6">
+        <f ca="1">N91-1</f>
+        <v>11</v>
+      </c>
+      <c r="P91" s="6">
+        <f ca="1">O91-1</f>
+        <v>10</v>
+      </c>
+      <c r="Q91" s="6">
+        <f ca="1">P91-1</f>
+        <v>9</v>
+      </c>
+      <c r="R91" s="6">
+        <f ca="1">Q91-1</f>
+        <v>8</v>
+      </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
+      <c r="X91" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA91" s="5">
+        <v>20</v>
+      </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
-      <c r="AD91" s="12"/>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="AD91" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
+      <c r="B92" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="8" t="str">
+        <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)"</f>
+        <v>20-□＜5，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)</v>
+      </c>
+      <c r="D92" s="7">
+        <f t="shared" ref="D92:D94" ca="1" si="11">RANDBETWEEN(X92,Y92)</f>
+        <v>5</v>
+      </c>
+      <c r="E92" s="7">
+        <f ca="1">RANDBETWEEN(Z92,AA92)</f>
+        <v>20</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
@@ -5799,29 +5950,65 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
+      <c r="N92" s="6">
+        <f ca="1">E92-D92+1</f>
+        <v>16</v>
+      </c>
+      <c r="O92" s="6">
+        <f ca="1">N92+1</f>
+        <v>17</v>
+      </c>
+      <c r="P92" s="6">
+        <f ca="1">O92+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q92" s="6">
+        <f ca="1">P92+1</f>
+        <v>19</v>
+      </c>
+      <c r="R92" s="6">
+        <f ca="1">Q92+1</f>
+        <v>20</v>
+      </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="X92" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>20</v>
+      </c>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
-      <c r="AD92" s="12"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="AD92" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="B93" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="8" t="str">
+        <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多INPUT张？"</f>
+        <v>大华和小刚每人有6张画片，大华给小刚5张后，小刚比大华多INPUT张？</v>
+      </c>
+      <c r="D93" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E93" s="7">
+        <f ca="1">RANDBETWEEN(Z93,AA93)</f>
+        <v>5</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -5830,7 +6017,10 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="6"/>
+      <c r="N93" s="6">
+        <f ca="1">E93*2</f>
+        <v>10</v>
+      </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -5840,20 +6030,44 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
+      <c r="X93" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>5</v>
+      </c>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
-      <c r="AD93" s="12"/>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="AD93" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
+      <c r="B94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="8" t="str">
+        <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有INPUT个玩具。"</f>
+        <v>小红有7个玩具，小英的玩具比小红多3个，小明的玩具比小英少5个，小明有INPUT个玩具。</v>
+      </c>
+      <c r="D94" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E94" s="7">
+        <f ca="1">RANDBETWEEN(Z94,AA94)</f>
+        <v>3</v>
+      </c>
+      <c r="F94" s="7">
+        <f ca="1">RANDBETWEEN(Z94,AA94)</f>
+        <v>5</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -5861,7 +6075,10 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="6"/>
+      <c r="N94" s="6">
+        <f ca="1">D94+E94-F94</f>
+        <v>5</v>
+      </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
@@ -5871,19 +6088,40 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
+      <c r="X94" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>5</v>
+      </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
-      <c r="AD94" s="12"/>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="AD94" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="B95" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="8" t="str">
+        <f ca="1">D95&amp;"个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了"&amp;E95&amp;"只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。"</f>
+        <v>8个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了4只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。</v>
+      </c>
+      <c r="D95" s="7">
+        <f t="shared" ref="D95" ca="1" si="12">RANDBETWEEN(X95,Y95)</f>
+        <v>8</v>
+      </c>
+      <c r="E95" s="7">
+        <f ca="1">RANDBETWEEN(Z95,AA95)</f>
+        <v>4</v>
+      </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
@@ -5892,7 +6130,10 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="6"/>
+      <c r="N95" s="6">
+        <f ca="1">D95-E95-1</f>
+        <v>3</v>
+      </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
@@ -5902,19 +6143,40 @@
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
+      <c r="X95" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA95" s="5">
+        <v>5</v>
+      </c>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
-      <c r="AD95" s="12"/>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="AD95" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="B96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="8" t="str">
+        <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有INPUT人。"</f>
+        <v>一队人，从左向右数，小张站在第4个，从右往左数，他站在第7个，这队共有INPUT人。</v>
+      </c>
+      <c r="D96" s="7">
+        <f t="shared" ref="D96:D100" ca="1" si="13">RANDBETWEEN(X96,Y96)</f>
+        <v>4</v>
+      </c>
+      <c r="E96" s="7">
+        <f ca="1">RANDBETWEEN(Z96,AA96)</f>
+        <v>7</v>
+      </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -5923,7 +6185,10 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="6"/>
+      <c r="N96" s="6">
+        <f ca="1">D96+E96-1</f>
+        <v>10</v>
+      </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
@@ -5933,18 +6198,36 @@
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
+      <c r="X96" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>7</v>
+      </c>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
-      <c r="AD96" s="12"/>
-    </row>
-    <row r="97" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="7"/>
+      <c r="AD96" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30">
+      <c r="B97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="8" t="str">
+        <f ca="1">"有"&amp;D97&amp;"个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人"</f>
+        <v>有15个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人</v>
+      </c>
+      <c r="D97" s="7">
+        <f ca="1">10+INT(RAND()*5)*2+1</f>
+        <v>15</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
@@ -5954,8 +6237,13 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="N97" s="6">
+        <v>1</v>
+      </c>
+      <c r="O97" s="6">
+        <f ca="1">TRUNC(D97/2)+1</f>
+        <v>8</v>
+      </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
@@ -5970,12 +6258,22 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
-      <c r="AD97" s="12"/>
-    </row>
-    <row r="98" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="7"/>
+      <c r="AD97" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30">
+      <c r="B98" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="8" t="str">
+        <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。"</f>
+        <v>一个小朋友唱一首歌要3分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。</v>
+      </c>
+      <c r="D98" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -5985,7 +6283,10 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="6"/>
+      <c r="N98" s="6">
+        <f ca="1">D98</f>
+        <v>3</v>
+      </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
@@ -5995,20 +6296,39 @@
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
+      <c r="X98" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>6</v>
+      </c>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
-      <c r="AD98" s="12"/>
-    </row>
-    <row r="99" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="AD98" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30">
+      <c r="B99" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="8" t="str">
+        <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年INPUT岁。"</f>
+        <v>小云今年6岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年INPUT岁。</v>
+      </c>
+      <c r="D99" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E99" s="7">
+        <f ca="1">RANDBETWEEN(Z99,AA99)</f>
+        <v>15</v>
+      </c>
+      <c r="F99" s="7">
+        <v>70</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -6016,7 +6336,10 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="6"/>
+      <c r="N99" s="6">
+        <f ca="1">F99-(E99-D99)</f>
+        <v>61</v>
+      </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
@@ -6026,13 +6349,264 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
+      <c r="X99" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>20</v>
+      </c>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
-      <c r="AD99" s="12"/>
+      <c r="AD99" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30">
+      <c r="B100" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="8" t="str">
+        <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了INPUT米。"</f>
+        <v>一根60米长的绳子，做跳绳用去10米，修排球网用去16米，这根绳子少了INPUT米。</v>
+      </c>
+      <c r="D100" s="7">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="E100" s="7">
+        <f ca="1">RANDBETWEEN(Z100,AA100)</f>
+        <v>16</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="6">
+        <f ca="1">D100+E100</f>
+        <v>26</v>
+      </c>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z100" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA100" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30">
+      <c r="B101" s="4"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="12"/>
+    </row>
+    <row r="102" spans="2:30">
+      <c r="B102" s="4"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="12"/>
+    </row>
+    <row r="103" spans="2:30">
+      <c r="B103" s="4"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="12"/>
+    </row>
+    <row r="104" spans="2:30">
+      <c r="B104" s="4"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="12"/>
+    </row>
+    <row r="105" spans="2:30">
+      <c r="B105" s="4"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="12"/>
+    </row>
+    <row r="106" spans="2:30">
+      <c r="B106" s="4"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -24,419 +24,419 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ANSWER1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARAMETER1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARAMETER2</t>
+  </si>
+  <si>
+    <t>PARAMETER3</t>
+  </si>
+  <si>
+    <t>PARAMETER4</t>
+  </si>
+  <si>
+    <t>PARAMETER5</t>
+  </si>
+  <si>
+    <t>ANSWER2</t>
+  </si>
+  <si>
+    <t>ANSWER3</t>
+  </si>
+  <si>
+    <t>ANSWER4</t>
+  </si>
+  <si>
+    <t>ANSWER5</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARAMETER6</t>
+  </si>
+  <si>
+    <t>PARAMETER7</t>
+  </si>
+  <si>
+    <t>PARAMETER8</t>
+  </si>
+  <si>
+    <t>PARAMETER9</t>
+  </si>
+  <si>
+    <t>PARAMETER10</t>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ANSWER6</t>
+  </si>
+  <si>
+    <t>ANSWER7</t>
+  </si>
+  <si>
+    <t>ANSWER8</t>
+  </si>
+  <si>
+    <t>ANSWER9</t>
+  </si>
+  <si>
+    <t>ANSWER10</t>
+  </si>
+  <si>
+    <t>MIN1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIN2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAX2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIN3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAX3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>厘米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
     <t>CONTENT</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANSWER1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PARAMETER1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PARAMETER2</t>
-  </si>
-  <si>
-    <t>PARAMETER3</t>
-  </si>
-  <si>
-    <t>PARAMETER4</t>
-  </si>
-  <si>
-    <t>PARAMETER5</t>
-  </si>
-  <si>
-    <t>ANSWER2</t>
-  </si>
-  <si>
-    <t>ANSWER3</t>
-  </si>
-  <si>
-    <t>ANSWER4</t>
-  </si>
-  <si>
-    <t>ANSWER5</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0015</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>0018</t>
-  </si>
-  <si>
-    <t>0019</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0021</t>
-  </si>
-  <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>0025</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>0027</t>
-  </si>
-  <si>
-    <t>0028</t>
-  </si>
-  <si>
-    <t>0029</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0031</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>0035</t>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PARAMETER6</t>
-  </si>
-  <si>
-    <t>PARAMETER7</t>
-  </si>
-  <si>
-    <t>PARAMETER8</t>
-  </si>
-  <si>
-    <t>PARAMETER9</t>
-  </si>
-  <si>
-    <t>PARAMETER10</t>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ANSWER6</t>
-  </si>
-  <si>
-    <t>ANSWER7</t>
-  </si>
-  <si>
-    <t>ANSWER8</t>
-  </si>
-  <si>
-    <t>ANSWER9</t>
-  </si>
-  <si>
-    <t>ANSWER10</t>
-  </si>
-  <si>
-    <t>MIN1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAX1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIN2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAX2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIN3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MAX3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0036</t>
-  </si>
-  <si>
-    <t>0037</t>
-  </si>
-  <si>
-    <t>0038</t>
-  </si>
-  <si>
-    <t>0039</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>0042</t>
-  </si>
-  <si>
-    <t>0043</t>
-  </si>
-  <si>
-    <t>0044</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>0046</t>
-  </si>
-  <si>
-    <t>0047</t>
-  </si>
-  <si>
-    <t>0048</t>
-  </si>
-  <si>
-    <t>0049</t>
-  </si>
-  <si>
-    <t>0050</t>
-  </si>
-  <si>
-    <t>0051</t>
-  </si>
-  <si>
-    <t>0052</t>
-  </si>
-  <si>
-    <t>0053</t>
-  </si>
-  <si>
-    <t>0054</t>
-  </si>
-  <si>
-    <t>0055</t>
-  </si>
-  <si>
-    <t>0056</t>
-  </si>
-  <si>
-    <t>0057</t>
-  </si>
-  <si>
-    <t>0058</t>
-  </si>
-  <si>
-    <t>0059</t>
-  </si>
-  <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>0061</t>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEVEL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0064</t>
-  </si>
-  <si>
-    <t>0065</t>
-  </si>
-  <si>
-    <t>0066</t>
-  </si>
-  <si>
-    <t>0067</t>
-  </si>
-  <si>
-    <t>0068</t>
-  </si>
-  <si>
-    <t>0069</t>
-  </si>
-  <si>
-    <t>0070</t>
-  </si>
-  <si>
-    <t>0071</t>
-  </si>
-  <si>
-    <t>0072</t>
-  </si>
-  <si>
-    <t>0073</t>
-  </si>
-  <si>
-    <t>0074</t>
-  </si>
-  <si>
-    <t>0075</t>
-  </si>
-  <si>
-    <t>0076</t>
-  </si>
-  <si>
-    <t>0077</t>
-  </si>
-  <si>
-    <t>0078</t>
-  </si>
-  <si>
-    <t>0079</t>
-  </si>
-  <si>
-    <t>0080</t>
-  </si>
-  <si>
-    <t>0081</t>
-  </si>
-  <si>
-    <t>0082</t>
-  </si>
-  <si>
-    <t>0083</t>
-  </si>
-  <si>
-    <t>0084</t>
-  </si>
-  <si>
-    <t>厘米</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>米</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0062</t>
-  </si>
-  <si>
-    <t>0063</t>
-  </si>
-  <si>
-    <t>off</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0085</t>
-  </si>
-  <si>
-    <t>0086</t>
-  </si>
-  <si>
-    <t>0087</t>
-  </si>
-  <si>
-    <t>0088</t>
-  </si>
-  <si>
-    <t>0089</t>
-  </si>
-  <si>
-    <t>0090</t>
-  </si>
-  <si>
-    <t>0091</t>
-  </si>
-  <si>
-    <t>0092</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0093</t>
-  </si>
-  <si>
-    <t>0094</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0095</t>
-  </si>
-  <si>
-    <t>0096</t>
-  </si>
-  <si>
-    <t>0097</t>
-  </si>
-  <si>
-    <t>0098</t>
   </si>
 </sst>
 </file>
@@ -936,10 +936,10 @@
   <dimension ref="A2:AD106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -961,88 +961,88 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="AD2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:30">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>91 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <v>71 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1068,7 +1068,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
@@ -1076,11 +1076,11 @@
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1104,11 +1104,11 @@
     </row>
     <row r="4" spans="2:30">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>3 个十是INPUT，5 里面有INPUT个一。</v>
+        <v>3 个十是INPUT，1 里面有INPUT个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1158,19 +1158,19 @@
     </row>
     <row r="5" spans="2:30">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是4，十位是8，这个数是INPUT，它在INPUT的后面。</v>
+        <v>一个数的个位上是8，十位是5，这个数是INPUT，它在INPUT的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1182,11 +1182,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1212,19 +1212,19 @@
     </row>
     <row r="6" spans="2:30">
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT， INPUT， INPUT。(从小到大的顺序)"</f>
-        <v>比19大比23小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
+        <v>比10大比14小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1236,15 +1236,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1269,19 +1269,19 @@
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>7个一和7个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <v>6个一和1个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1293,15 +1293,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1326,27 +1326,27 @@
     </row>
     <row r="8" spans="2:30">
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比8大3的数是INPUT，比19小6的数是INPUT。</v>
+        <v>比19大5的数是INPUT，比20小9的数是INPUT。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1356,11 +1356,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1394,15 +1394,15 @@
     </row>
     <row r="9" spans="2:30">
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>30里面有INPUT个十；也可以说30里面有INPUT个一。</v>
+        <v>10里面有INPUT个十；也可以说10里面有INPUT个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1415,11 +1415,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1445,15 +1445,15 @@
     </row>
     <row r="10" spans="2:30">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有6人，后面有7人，这队一共有INPUT人。 </v>
+        <v>小朋友们排队做操，小华前面有9人，后面有7人，这队一共有INPUT人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
@@ -1469,7 +1469,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1496,19 +1496,19 @@
     </row>
     <row r="11" spans="2:30">
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>8个一和6个十合起来是INPUT。</v>
+        <v>6个一和1个十合起来是INPUT。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1520,7 +1520,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1547,23 +1547,23 @@
     </row>
     <row r="12" spans="2:30">
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是6，十位上是5，这个数是INPUT，23里面有INPUT个十和INPUT个一。</v>
+        <v>个位是3，十位上是9，这个数是INPUT，25里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1574,7 +1574,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1607,15 +1607,15 @@
     </row>
     <row r="13" spans="2:30">
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和35相邻的两个数是INPUT和INPUT。</v>
+        <v>和22相邻的两个数是INPUT和INPUT。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1628,11 +1628,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1658,19 +1658,19 @@
     </row>
     <row r="14" spans="2:30">
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是8，十位上是4，这个数是INPUT。</v>
+        <v>个位是1，十位上是3，这个数是INPUT。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1682,7 +1682,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1709,19 +1709,19 @@
     </row>
     <row r="15" spans="2:30">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>11里面有1个INPUT和1个INPUT 。</v>
+        <v>31里面有3个INPUT和1个INPUT 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
@@ -1735,10 +1735,10 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -1764,27 +1764,27 @@
     </row>
     <row r="16" spans="2:30">
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>12比7多INPUT， 12比8少INPUT。</v>
+        <v>6比3多INPUT， 16比3少INPUT。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1794,11 +1794,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1832,15 +1832,15 @@
     </row>
     <row r="17" spans="2:30">
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>34前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <v>85前面的一个数是INPUT，后面的一个数是INPUT。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1853,11 +1853,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1883,15 +1883,15 @@
     </row>
     <row r="18" spans="2:30">
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在14，3，19，7，25中，共有INPUT个数，从左往右数，第1个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <v>在13，5，15，6，23中，共有INPUT个数，从左往右数，第5个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
@@ -1902,42 +1902,42 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="19" spans="2:30">
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="str">
         <f>"一个两位数，左边的数是INPUT位，右边的数是INPUT位。"</f>
@@ -1977,10 +1977,10 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2002,15 +2002,15 @@
     </row>
     <row r="20" spans="2:30">
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>18个一是INPUT</v>
+        <v>10个一是INPUT</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2023,7 +2023,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2050,23 +2050,23 @@
     </row>
     <row r="21" spans="2:30">
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>7个一和1个十组成INPUT，它的前面一个数是INPUT，比它大1的数是INPUT</v>
+        <v>6个一和2个十组成INPUT，它的前面一个数是INPUT，比它大4的数是INPUT</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2077,15 +2077,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="22" spans="2:30">
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="8" t="str">
         <f>"最小的一位数是INPUT，最小的两位数是INPUT，他们的和是INPUT。"</f>
@@ -2158,19 +2158,19 @@
     </row>
     <row r="23" spans="2:30">
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>17-7=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <v>16-9=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2182,15 +2182,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="24" spans="2:30">
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="8" t="str">
         <f>"最大的一位数是INPUT，最小的两位数是INPUT，它们的差是INPUT。"</f>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8" t="str">
         <f>"一个两位数从右边起，第一位是INPUT位，第二位是INPUT位。"</f>
@@ -2280,10 +2280,10 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -2305,23 +2305,23 @@
     </row>
     <row r="26" spans="2:30">
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>99个位上的9表示9个INPUT。十位上的9表示9个INPUT。</v>
+        <v>33个位上的3表示3个INPUT。十位上的3表示3个INPUT。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2331,10 +2331,10 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -2360,15 +2360,15 @@
     </row>
     <row r="27" spans="2:30">
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是8，那么它们的和是INPUT。</v>
+        <v>两个加数都是7，那么它们的和是INPUT。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2381,7 +2381,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2408,19 +2408,19 @@
     </row>
     <row r="28" spans="2:30">
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是17，减数是4，它们的差是INPUT。</v>
+        <v>被减数是16，减数是5，它们的差是INPUT。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2432,7 +2432,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2463,15 +2463,15 @@
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>20比INPUT大1，比INPUT小1。</v>
+        <v>12比INPUT大1，比INPUT小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2484,11 +2484,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2514,15 +2514,15 @@
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="8" t="str">
         <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是1，比十位上的数字小2，这个数是INPUT。</v>
+        <v>一个数它的个位上的数字是5，比十位上的数字小2，这个数是INPUT。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
@@ -2538,7 +2538,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>"INPUT比100大1，INPUT比100小1。"</f>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="32" spans="2:30">
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比15大6的数是INPUT，比它小6的数是INPUT。</v>
+        <v>比19大2的数是INPUT，比它小2的数是INPUT。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2669,23 +2669,23 @@
     </row>
     <row r="33" spans="2:30">
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>29左边的2在INPUT位，表示INPUT个INPUT。右边的9表示INPUT个INPUT。</v>
+        <v>74左边的7在INPUT位，表示INPUT个INPUT。右边的4表示INPUT个INPUT。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2695,21 +2695,21 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -2732,11 +2732,11 @@
     </row>
     <row r="34" spans="2:30">
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是4，十位是6的数是INPUT。</v>
+        <v>个位是4，十位是2的数是INPUT。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2756,7 +2756,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2783,23 +2783,23 @@
     </row>
     <row r="35" spans="2:30">
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>20比INPUT少9，93里面有INPUT个十和INPUT个一。</v>
+        <v>10比INPUT少8，78里面有INPUT个十和INPUT个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2810,15 +2810,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2851,15 +2851,15 @@
     </row>
     <row r="36" spans="2:30">
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出31前面的三个数INPUT，INPUT，INPUT。</v>
+        <v>按从小到大的顺序填出44前面的三个数INPUT，INPUT，INPUT。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2872,15 +2872,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2905,19 +2905,19 @@
     </row>
     <row r="37" spans="2:30">
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>29添上1是INPUT个十。19添上1是INPUT。</v>
+        <v>19添上1是INPUT个十。59添上1是INPUT。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2929,11 +2929,11 @@
       <c r="M37" s="7"/>
       <c r="N37" s="6">
         <f ca="1">TRUNC((D37+1)/10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -2959,15 +2959,15 @@
     </row>
     <row r="38" spans="2:30">
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。"</f>
-        <v>写出小于三十的3个个位是1的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
+        <v>写出小于三十的3个个位是4的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2980,15 +2980,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3013,27 +3013,27 @@
     </row>
     <row r="39" spans="2:30">
       <c r="B39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 7 + INPUT &lt; 17； 16 &gt; INPUT + 4。</v>
+        <v>方框里最大填几： 5 + INPUT &lt; 10； 10 &gt; INPUT + 6。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3043,11 +3043,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3077,19 +3077,19 @@
     </row>
     <row r="40" spans="2:30">
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>4再添上INPUT就和20同样多。</v>
+        <v>8再添上INPUT就和16同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3101,7 +3101,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3132,19 +3132,19 @@
     </row>
     <row r="41" spans="2:30">
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，40前面的一个数是INPUT，30后面一个数是INPUT。</v>
+        <v>从10开始十个十个地数，60前面的一个数是INPUT，40后面一个数是INPUT。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3156,11 +3156,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3186,19 +3186,19 @@
     </row>
     <row r="42" spans="2:30">
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>15－3＝INPUT－2， 15－1＝14－INPUT。</v>
+        <v>16－1＝INPUT－2， 17－6＝11－INPUT。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
@@ -3206,15 +3206,15 @@
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3222,7 +3222,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
@@ -3256,11 +3256,11 @@
     </row>
     <row r="43" spans="2:30">
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小2的数是INPUT。一百以内个位是3的两位数有INPUT个。</v>
+        <v>比最大的两位数小2的数是INPUT。一百以内个位是7的两位数有INPUT个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="44" spans="2:30">
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="8" t="str">
         <f>"按从大到小的顺序填出100前面的三个数INPUT、INPUT、INPUT。"</f>
@@ -3356,15 +3356,15 @@
     </row>
     <row r="45" spans="2:30">
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有INPUT个。"</f>
-        <v>一百以内十位是5的两位数有INPUT个。</v>
+        <v>一百以内十位是8的两位数有INPUT个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3403,19 +3403,19 @@
     </row>
     <row r="46" spans="2:30">
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是5，被减数是17，它们的差是INPUT。</v>
+        <v>减数是8，被减数是19，它们的差是INPUT。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3427,7 +3427,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3458,15 +3458,15 @@
     </row>
     <row r="47" spans="2:30">
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是10，它们的和是INPUT，差是INPUT。</v>
+        <v>两个数都是17，它们的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3479,7 +3479,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="48" spans="2:30">
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="8" t="str">
         <f>"最大的两位数与最小的两位数相差INPUT。"</f>
@@ -3549,19 +3549,19 @@
     </row>
     <row r="49" spans="2:30">
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比11大7，另一个数比11小7，这两个数的和是INPUT，差是INPUT。</v>
+        <v>一个数比20大9，另一个数比20小9，这两个数的和是INPUT，差是INPUT。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3573,11 +3573,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3607,19 +3607,19 @@
     </row>
     <row r="50" spans="2:30">
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 8 + 16 &lt; INPUT； 18 - INPUT &lt; 9。</v>
+        <v>方框里最小填几： 7 + 10 &lt; INPUT； 18 - INPUT &lt; 2。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3637,11 +3637,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3671,19 +3671,19 @@
     </row>
     <row r="51" spans="2:30">
       <c r="B51" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>16和21之间有INPUT个数字。</v>
+        <v>17和21之间有INPUT个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3695,7 +3695,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="52" spans="2:30">
       <c r="B52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="8" t="str">
         <f>"十位数和个位数相同的两位数有INPUT个。其中最大的是INPUT"</f>
@@ -3768,15 +3768,15 @@
     </row>
     <row r="53" spans="2:30">
       <c r="B53" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="8" t="str">
         <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>个位数上是9的两位数有INPUT个。其中最大的是INPUT</v>
+        <v>个位数上是1的两位数有INPUT个。其中最大的是INPUT</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3818,15 +3818,15 @@
     </row>
     <row r="54" spans="2:30">
       <c r="B54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是3， 十位数上的数字比个位数上的数字大1， 这个两位是INPUT</v>
+        <v>一个两位数，个位数是0， 十位数上的数字比个位数上的数字大1， 这个两位是INPUT</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
@@ -3842,7 +3842,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3873,15 +3873,15 @@
     </row>
     <row r="55" spans="2:30">
       <c r="B55" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是INPUT"</f>
-        <v>一个计数器，十位上有2个珠子，个位上有1个珠子，这个数是INPUT</v>
+        <v>一个计数器，十位上有4个珠子，个位上有1个珠子，这个数是INPUT</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
@@ -3897,7 +3897,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -3928,19 +3928,19 @@
     </row>
     <row r="56" spans="2:30">
       <c r="B56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有4个珠子，十位上的珠子比个位上的多3个，这个数是INPUT</v>
+        <v>一个计数器，个位上有5个珠子，十位上的珠子比个位上的多2个，这个数是INPUT</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -3952,7 +3952,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3983,15 +3983,15 @@
     </row>
     <row r="57" spans="2:30">
       <c r="B57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是11，另一个加数是6，求和是INPUT</v>
+        <v>一个加数是20，另一个加数是6，求和是INPUT</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
@@ -4007,7 +4007,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4038,19 +4038,19 @@
     </row>
     <row r="58" spans="2:30">
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数10， 减数是比被减数少2的数，求差是INPUT</v>
+        <v>被减数11， 减数是比被减数少5的数，求差是INPUT</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4062,7 +4062,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="59" spans="2:30">
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="8" t="str">
         <f>"长方形有INPUT条边，正方形有INPUT条边，三角形有INPUT条边。"</f>
@@ -4137,11 +4137,11 @@
     </row>
     <row r="60" spans="2:30">
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>17比7多INPUT; 8比10少INPUT</v>
+        <v>17比4多INPUT; 2比11少INPUT</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
@@ -4149,15 +4149,15 @@
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4167,11 +4167,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4201,19 +4201,19 @@
     </row>
     <row r="61" spans="2:30">
       <c r="B61" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>61的6在INPUT位上，表示INPUT个INPUT。</v>
+        <v>72的7在INPUT位上，表示INPUT个INPUT。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4224,14 +4224,14 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
@@ -4260,23 +4260,23 @@
     </row>
     <row r="62" spans="2:30">
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：66、63、55、52、INPUT、INPUT、INPUT</v>
+        <v>找规律：52、50、44、42、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4287,15 +4287,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4328,11 +4328,11 @@
     </row>
     <row r="63" spans="2:30">
       <c r="B63" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>4个一和7个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <v>4个一和8个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4352,11 +4352,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4386,19 +4386,19 @@
     </row>
     <row r="64" spans="2:30">
       <c r="B64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>3个十和5个一是INPUT</v>
+        <v>8个十和6个一是INPUT</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4410,7 +4410,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4441,19 +4441,19 @@
     </row>
     <row r="65" spans="2:30">
       <c r="B65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="8" t="str">
         <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：6、9、12、15、INPUT、INPUT</v>
+        <v>找规律：5、11、17、23、INPUT、INPUT</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4465,11 +4465,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="66" spans="2:30">
       <c r="B66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="67" spans="2:30">
       <c r="B67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="8" t="str">
         <f ca="1">"找规律："&amp;D67&amp;"、INPUT、"&amp;D67+2&amp;"、INPUT、INPUT、"&amp;D67+5&amp;""</f>
@@ -4607,15 +4607,15 @@
     </row>
     <row r="68" spans="2:30">
       <c r="B68" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="8" t="str">
         <f ca="1">"找规律：INPUT、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、INPUT、"&amp;D68-E68*3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、14、12、INPUT、10、INPUT</v>
+        <v>找规律：INPUT、18、16、INPUT、14、INPUT</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68" s="7">
         <f ca="1">RANDBETWEEN(Z68,AA68)</f>
@@ -4631,15 +4631,15 @@
       <c r="M68" s="7"/>
       <c r="N68" s="6">
         <f ca="1">D68+E68</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O68" s="6">
         <f ca="1">D68-E68*3</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P68" s="6">
         <f ca="1">D68-E68*4</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4668,15 +4668,15 @@
     </row>
     <row r="69" spans="2:30">
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="8" t="str">
         <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
-        <v>找规律：1、3、INPUT、INPUT、9、INPUT、13</v>
+        <v>找规律：5、7、INPUT、INPUT、13、INPUT、17</v>
       </c>
       <c r="D69" s="7">
         <f ca="1">INT(RAND()*5)*2+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4689,15 +4689,15 @@
       <c r="M69" s="7"/>
       <c r="N69" s="6">
         <f ca="1">D69+4</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O69" s="6">
         <f ca="1">D69+6</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P69" s="6">
         <f ca="1">D69+12</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4718,15 +4718,15 @@
     </row>
     <row r="70" spans="2:30">
       <c r="B70" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="8" t="str">
         <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、INPUT、INPUT、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、INPUT"</f>
-        <v>找规律：8、10、INPUT、INPUT、16、18、INPUT</v>
+        <v>找规律：4、6、INPUT、INPUT、12、14、INPUT</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4739,15 +4739,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="71" spans="2:30">
       <c r="B71" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="8" t="str">
         <f ca="1">"找规律："&amp;D71&amp;"、"&amp;D71*2&amp;"、"&amp;D71*4&amp;"、"&amp;D71*8&amp;"、INPUT、INPUT"</f>
@@ -4819,15 +4819,15 @@
     </row>
     <row r="72" spans="2:30">
       <c r="B72" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="8" t="str">
         <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：10、21、32、43、INPUT、INPUT</v>
+        <v>找规律：13、24、35、46、INPUT、INPUT</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" ref="D72:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4840,11 +4840,11 @@
       <c r="M72" s="7"/>
       <c r="N72" s="6">
         <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O72" s="6">
         <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="73" spans="2:30">
       <c r="B73" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="8" t="str">
         <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、INPUT、INPUT"</f>
@@ -4921,15 +4921,15 @@
     </row>
     <row r="74" spans="2:30">
       <c r="B74" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="8" t="str">
         <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、INPUT、INPUT"</f>
-        <v>找规律：1、2、4、7、INPUT、INPUT</v>
+        <v>找规律：5、6、8、11、INPUT、INPUT</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -4942,11 +4942,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -4972,19 +4972,19 @@
     </row>
     <row r="75" spans="2:30">
       <c r="B75" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="8" t="str">
         <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：20、1、18、1、16、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：15、1、12、1、9、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -4999,14 +4999,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5034,15 +5034,15 @@
     </row>
     <row r="76" spans="2:30">
       <c r="B76" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="8" t="str">
         <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：5、1、7、1、9、INPUT、INPUT、INPUT、INPUT</v>
+        <v>找规律：7、1、9、1、11、INPUT、INPUT、INPUT、INPUT</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76" s="7">
         <f ca="1">RANDBETWEEN(Z76,AA76)</f>
@@ -5061,14 +5061,14 @@
       </c>
       <c r="O76" s="6">
         <f ca="1">D76+E76*3</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P76" s="6">
         <v>1</v>
       </c>
       <c r="Q76" s="6">
         <f ca="1">D76+E76*4</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="77" spans="2:30">
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="8" t="str">
         <f>"个位和十位相同的两位有INPUT个，其中最大的是INPUT"</f>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="78" spans="2:30">
       <c r="B78" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="8" t="str">
         <f>"写出十位数比个位数多"&amp;D78&amp;"的两位数（从大到小）它们是INPUT、INPUT、INPUT、INPUT、INPUT"</f>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="79" spans="2:30">
       <c r="B79" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="8" t="str">
         <f>"写出个位数比十位数多"&amp;D79&amp;"的两位数（从小到大）它们是INPUT、INPUT、INPUT"</f>
@@ -5243,15 +5243,15 @@
     </row>
     <row r="80" spans="2:30">
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="8" t="str">
         <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走INPUT格楼梯？"</f>
-        <v>小明家在3楼，每一层有8格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
+        <v>小明家在2楼，每一层有8格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="7">
         <f ca="1">RANDBETWEEN(Z80,AA80)</f>
@@ -5267,7 +5267,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="6">
         <f ca="1">E80*D80</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5298,23 +5298,23 @@
     </row>
     <row r="81" spans="1:30">
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="8" t="str">
         <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩INPUT只？一共飞走INPUT只？"</f>
-        <v>树上有15只小鸟，先飞走1只，又飞走3只，还剩INPUT只？一共飞走INPUT只？</v>
+        <v>树上有11只小鸟，先飞走2只，又飞走5只，还剩INPUT只？一共飞走INPUT只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5353,19 +5353,19 @@
     </row>
     <row r="82" spans="1:30">
       <c r="B82" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="8" t="str">
         <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔INPUT块糖，他们就同样多了。"</f>
-        <v>小猪有16块糖，小兔有10块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
+        <v>小猪有18块糖，小兔有12块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5408,19 +5408,19 @@
     </row>
     <row r="83" spans="1:30">
       <c r="B83" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="8" t="str">
         <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有INPUT个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第6个，从后面数是排在第5个，这一列有INPUT个小朋友？</v>
+        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第4个，这一列有INPUT个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5432,7 +5432,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="6">
         <f ca="1">D83+E83-1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="8" t="str">
         <f>"请在方框里填上米或者厘米：书本宽17INPUT；大树高10INPUT；100INPUT的跑步赛道；一支15INPUT长的铅笔；"</f>
@@ -5483,16 +5483,16 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O84" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="P84" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -5512,26 +5512,26 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C85" s="8" t="str">
         <f ca="1">D85&amp;"角 = INPUT元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = INPUT角"</f>
-        <v>20角 = INPUT元；  2元2角 = INPUT角</v>
+        <v>50角 = INPUT元；  3元1角 = INPUT角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">RANDBETWEEN(Z85,AA85)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -5542,11 +5542,11 @@
       <c r="M85" s="7"/>
       <c r="N85" s="6">
         <f ca="1">D85/10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -5576,18 +5576,18 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="8" t="str">
         <f ca="1">D86&amp;"角 = INPUT元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = INPUT角"</f>
-        <v>50角 = INPUT元；  2元4角 = INPUT角</v>
+        <v>10角 = INPUT元；  2元3角 = INPUT角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5606,11 +5606,11 @@
       <c r="M86" s="7"/>
       <c r="N86" s="6">
         <f ca="1">D86/10</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5640,23 +5640,23 @@
     </row>
     <row r="87" spans="1:30">
       <c r="B87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="8" t="str">
         <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=INPUT   △=INPUT"</f>
-        <v>△-□=9    □+3=12   请回答一下问题：□=INPUT   △=INPUT</v>
+        <v>△-□=8    □+7=13   请回答一下问题：□=INPUT   △=INPUT</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" ref="D87:D89" ca="1" si="9">RANDBETWEEN(X87,Y87)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87" s="7">
         <f ca="1">RANDBETWEEN(X87,Y87)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F87" s="7">
         <f ca="1">RANDBETWEEN(Z87,AA87)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -5667,7 +5667,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="6">
         <f ca="1">F87-E87</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O87" s="6">
         <f ca="1">F87+D87</f>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="B88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="8" t="str">
         <f>"一个两位数，十位数字比"&amp;D88&amp;"大，个位数字比"&amp;E88&amp;"小，这个两位数是INPUT"</f>
@@ -5745,18 +5745,18 @@
     </row>
     <row r="89" spans="1:30">
       <c r="B89" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C89" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有INPUT个，最小的是INPUT"</f>
-        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有INPUT个，最小的是INPUT</v>
+        <v>一个两位数，十位数字比6大，个位数字比2小，这个两位数有INPUT个，最小的是INPUT</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" s="7">
-        <f ca="1">RANDBETWEEN(Z89,AA89)</f>
+        <f t="shared" ref="E89:E96" ca="1" si="10">RANDBETWEEN(Z89,AA89)</f>
         <v>2</v>
       </c>
       <c r="F89" s="7"/>
@@ -5769,11 +5769,11 @@
       <c r="M89" s="7"/>
       <c r="N89" s="6">
         <f ca="1">(9-D89)*E89</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O89" s="6">
         <f ca="1">(D89+1)*10</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -5803,19 +5803,19 @@
     </row>
     <row r="90" spans="1:30">
       <c r="B90" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有INPUT个，最大的是INPUT"</f>
-        <v>一个两位数，十位数字比6大，个位数字比2小，这个两位数有INPUT个，最大的是INPUT</v>
+        <v>一个两位数，十位数字比8大，个位数字比3小，这个两位数有INPUT个，最大的是INPUT</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" ref="D90:D91" ca="1" si="10">RANDBETWEEN(X90,Y90)</f>
-        <v>6</v>
+        <f t="shared" ref="D90:D91" ca="1" si="11">RANDBETWEEN(X90,Y90)</f>
+        <v>8</v>
       </c>
       <c r="E90" s="7">
-        <f ca="1">RANDBETWEEN(Z90,AA90)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5827,11 +5827,11 @@
       <c r="M90" s="7"/>
       <c r="N90" s="6">
         <f ca="1">(9-D90)*E90</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O90" s="6">
         <f ca="1">90+(E90-1)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -5861,19 +5861,19 @@
     </row>
     <row r="91" spans="1:30">
       <c r="B91" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="8" t="str">
         <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)"</f>
-        <v>5＋□＜18，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)</v>
+        <v>8＋□＜20，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)</v>
       </c>
       <c r="D91" s="7">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E91" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E91" s="7">
-        <f ca="1">RANDBETWEEN(Z91,AA91)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5885,23 +5885,23 @@
       <c r="M91" s="7"/>
       <c r="N91" s="6">
         <f ca="1">E91-D91-1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O91" s="6">
         <f ca="1">N91-1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P91" s="6">
         <f ca="1">O91-1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q91" s="6">
         <f ca="1">P91-1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R91" s="6">
         <f ca="1">Q91-1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -5928,19 +5928,19 @@
     </row>
     <row r="92" spans="1:30">
       <c r="B92" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" s="8" t="str">
         <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)"</f>
-        <v>20-□＜5，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)</v>
+        <v>19-□＜7，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" ref="D92:D94" ca="1" si="11">RANDBETWEEN(X92,Y92)</f>
-        <v>5</v>
+        <f t="shared" ref="D92:D94" ca="1" si="12">RANDBETWEEN(X92,Y92)</f>
+        <v>7</v>
       </c>
       <c r="E92" s="7">
-        <f ca="1">RANDBETWEEN(Z92,AA92)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -5952,23 +5952,23 @@
       <c r="M92" s="7"/>
       <c r="N92" s="6">
         <f ca="1">E92-D92+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O92" s="6">
         <f ca="1">N92+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P92" s="6">
         <f ca="1">O92+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q92" s="6">
         <f ca="1">P92+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R92" s="6">
         <f ca="1">Q92+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -5995,18 +5995,18 @@
     </row>
     <row r="93" spans="1:30">
       <c r="B93" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="8" t="str">
         <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多INPUT张？"</f>
-        <v>大华和小刚每人有6张画片，大华给小刚5张后，小刚比大华多INPUT张？</v>
+        <v>大华和小刚每人有7张画片，大华给小刚5张后，小刚比大华多INPUT张？</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="E93" s="7">
-        <f ca="1">RANDBETWEEN(Z93,AA93)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
       <c r="F93" s="7"/>
@@ -6050,23 +6050,23 @@
     </row>
     <row r="94" spans="1:30">
       <c r="B94" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C94" s="8" t="str">
         <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有INPUT个玩具。"</f>
-        <v>小红有7个玩具，小英的玩具比小红多3个，小明的玩具比小英少5个，小明有INPUT个玩具。</v>
+        <v>小红有8个玩具，小英的玩具比小红多2个，小明的玩具比小英少3个，小明有INPUT个玩具。</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="E94" s="7">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F94" s="7">
         <f ca="1">RANDBETWEEN(Z94,AA94)</f>
         <v>3</v>
-      </c>
-      <c r="F94" s="7">
-        <f ca="1">RANDBETWEEN(Z94,AA94)</f>
-        <v>5</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -6077,7 +6077,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="6">
         <f ca="1">D94+E94-F94</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -6108,19 +6108,19 @@
     </row>
     <row r="95" spans="1:30">
       <c r="B95" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="8" t="str">
         <f ca="1">D95&amp;"个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了"&amp;E95&amp;"只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。"</f>
-        <v>8个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了4只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。</v>
+        <v>9个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了2只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" ref="D95" ca="1" si="12">RANDBETWEEN(X95,Y95)</f>
-        <v>8</v>
+        <f t="shared" ref="D95" ca="1" si="13">RANDBETWEEN(X95,Y95)</f>
+        <v>9</v>
       </c>
       <c r="E95" s="7">
-        <f ca="1">RANDBETWEEN(Z95,AA95)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -6132,7 +6132,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="6">
         <f ca="1">D95-E95-1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -6163,19 +6163,19 @@
     </row>
     <row r="96" spans="1:30">
       <c r="B96" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="8" t="str">
         <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有INPUT人。"</f>
-        <v>一队人，从左向右数，小张站在第4个，从右往左数，他站在第7个，这队共有INPUT人。</v>
+        <v>一队人，从左向右数，小张站在第6个，从右往左数，他站在第6个，这队共有INPUT人。</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" ref="D96:D100" ca="1" si="13">RANDBETWEEN(X96,Y96)</f>
-        <v>4</v>
+        <f t="shared" ref="D96:D100" ca="1" si="14">RANDBETWEEN(X96,Y96)</f>
+        <v>6</v>
       </c>
       <c r="E96" s="7">
-        <f ca="1">RANDBETWEEN(Z96,AA96)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -6187,7 +6187,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="6">
         <f ca="1">D96+E96-1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6218,15 +6218,15 @@
     </row>
     <row r="97" spans="2:30">
       <c r="B97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="8" t="str">
         <f ca="1">"有"&amp;D97&amp;"个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人"</f>
-        <v>有15个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人</v>
+        <v>有19个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人</v>
       </c>
       <c r="D97" s="7">
         <f ca="1">10+INT(RAND()*5)*2+1</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="O97" s="6">
         <f ca="1">TRUNC(D97/2)+1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -6264,14 +6264,14 @@
     </row>
     <row r="98" spans="2:30">
       <c r="B98" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="8" t="str">
         <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。"</f>
         <v>一个小朋友唱一首歌要3分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
       <c r="E98" s="7"/>
@@ -6312,15 +6312,15 @@
     </row>
     <row r="99" spans="2:30">
       <c r="B99" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="8" t="str">
         <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年INPUT岁。"</f>
-        <v>小云今年6岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年INPUT岁。</v>
+        <v>小云今年8岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年INPUT岁。</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
       </c>
       <c r="E99" s="7">
         <f ca="1">RANDBETWEEN(Z99,AA99)</f>
@@ -6338,7 +6338,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="6">
         <f ca="1">F99-(E99-D99)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -6369,19 +6369,19 @@
     </row>
     <row r="100" spans="2:30">
       <c r="B100" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="8" t="str">
         <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了INPUT米。"</f>
-        <v>一根60米长的绳子，做跳绳用去10米，修排球网用去16米，这根绳子少了INPUT米。</v>
+        <v>一根60米长的绳子，做跳绳用去8米，修排球网用去17米，这根绳子少了INPUT米。</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
       </c>
       <c r="E100" s="7">
         <f ca="1">RANDBETWEEN(Z100,AA100)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -6393,7 +6393,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="6">
         <f ca="1">D100+E100</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -436,6 +436,96 @@
   </si>
   <si>
     <t>CONTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>23-3=20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>009901</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>010101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16-10=6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>颗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9+3=12;3+9=12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>010201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9+5=14;5+9=14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>010301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8-3=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>9-5=4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>根</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010401</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +582,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,7 +689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,6 +728,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AD106"/>
+  <dimension ref="A2:AD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1050,12 +1154,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="str">
-        <f ca="1">D3 &amp; " 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。"</f>
-        <v>71 里面有INPUT个十和INPUT个一，这个数在INPUT和INPUT的中间。</v>
+        <f ca="1">D3 &amp; " 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。"</f>
+        <v>27 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1068,19 +1172,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1107,8 +1211,8 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f ca="1">D4 &amp; " 个十是INPUT，" &amp; E4 &amp; " 里面有INPUT个一。"</f>
-        <v>3 个十是INPUT，1 里面有INPUT个一。</v>
+        <f ca="1">D4 &amp; " 个十是IPT1，" &amp; E4 &amp; " 里面有IPT1个一。"</f>
+        <v>3 个十是IPT1，3 里面有IPT1个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -1116,7 +1220,7 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1132,7 +1236,7 @@
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1161,16 +1265,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是INPUT，它在INPUT的后面。"</f>
-        <v>一个数的个位上是8，十位是5，这个数是INPUT，它在INPUT的后面。</v>
+        <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是IPT1，它在IPT1的后面。"</f>
+        <v>一个数的个位上是1，十位是8，这个数是IPT1，它在IPT1的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1182,11 +1286,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1215,16 +1319,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="8" t="str">
-        <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有INPUT， INPUT， INPUT。(从小到大的顺序)"</f>
-        <v>比10大比14小的数有INPUT， INPUT， INPUT。(从小到大的顺序)</v>
+        <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有IPT1， IPT1， IPT1。(从小到大的顺序)"</f>
+        <v>比19大比23小的数有IPT1， IPT1， IPT1。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1236,15 +1340,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1272,16 +1376,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成INPUT，和它相邻的数有INPUT和INPUT。"</f>
-        <v>6个一和1个十组成INPUT，和它相邻的数有INPUT和INPUT。</v>
+        <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成IPT1，和它相邻的数有IPT1和IPT1。"</f>
+        <v>2个一和6个十组成IPT1，和它相邻的数有IPT1和IPT1。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1293,15 +1397,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1329,24 +1433,24 @@
         <v>16</v>
       </c>
       <c r="C8" s="8" t="str">
-        <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是INPUT，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是INPUT。"</f>
-        <v>比19大5的数是INPUT，比20小9的数是INPUT。</v>
+        <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是IPT1，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是IPT1。"</f>
+        <v>比14大1的数是IPT1，比10小1的数是IPT1。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1356,11 +1460,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1397,8 +1501,8 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="str">
-        <f ca="1">D9&amp;"里面有INPUT个十；也可以说" &amp; D9 &amp; "里面有INPUT个一。"</f>
-        <v>10里面有INPUT个十；也可以说10里面有INPUT个一。</v>
+        <f ca="1">D9&amp;"里面有IPT1个十；也可以说" &amp; D9 &amp; "里面有IPT1个一。"</f>
+        <v>10里面有IPT1个十；也可以说10里面有IPT1个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
@@ -1448,16 +1552,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="8" t="str">
-        <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有INPUT人。 "</f>
-        <v>小朋友们排队做操，小华前面有9人，后面有7人，这队一共有INPUT人。 </v>
+        <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有IPT1人。 "</f>
+        <v>小朋友们排队做操，小华前面有4人，后面有4人，这队一共有IPT1人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1469,7 +1573,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1499,16 +1603,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是INPUT。"</f>
-        <v>6个一和1个十合起来是INPUT。</v>
+        <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是IPT1。"</f>
+        <v>3个一和3个十合起来是IPT1。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1520,7 +1624,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1550,20 +1654,20 @@
         <v>20</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是INPUT，"&amp;F12&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>个位是3，十位上是9，这个数是INPUT，25里面有INPUT个十和INPUT个一。</v>
+        <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是IPT1，"&amp;F12&amp;"里面有IPT1个十和IPT1个一。"</f>
+        <v>个位是8，十位上是5，这个数是IPT1，93里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1574,15 +1678,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1610,12 +1714,12 @@
         <v>21</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f ca="1">"和"&amp;D13&amp;"相邻的两个数是INPUT和INPUT。"</f>
-        <v>和22相邻的两个数是INPUT和INPUT。</v>
+        <f ca="1">"和"&amp;D13&amp;"相邻的两个数是IPT1和IPT1。"</f>
+        <v>和20相邻的两个数是IPT1和IPT1。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1628,11 +1732,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1661,16 +1765,16 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是INPUT。"</f>
-        <v>个位是1，十位上是3，这个数是INPUT。</v>
+        <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是IPT1。"</f>
+        <v>个位是7，十位上是9，这个数是IPT1。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1682,7 +1786,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1712,20 +1816,20 @@
         <v>23</v>
       </c>
       <c r="C15" s="8" t="str">
-        <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个INPUT和"&amp;F15&amp;"个INPUT 。"</f>
-        <v>31里面有3个INPUT和1个INPUT 。</v>
+        <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个IPT1和"&amp;F15&amp;"个IPT1 。"</f>
+        <v>76里面有7个IPT1和6个IPT1 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1767,24 +1871,24 @@
         <v>24</v>
       </c>
       <c r="C16" s="8" t="str">
-        <f ca="1">D16&amp;"比"&amp;E16&amp;"多INPUT， "&amp;F16&amp;"比"&amp;G16&amp;"少INPUT。"</f>
-        <v>6比3多INPUT， 16比3少INPUT。</v>
+        <f ca="1">D16&amp;"比"&amp;E16&amp;"多IPT1， "&amp;F16&amp;"比"&amp;G16&amp;"少IPT1。"</f>
+        <v>1比7多IPT1， 19比1少IPT1。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1794,11 +1898,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1835,12 +1939,12 @@
         <v>25</v>
       </c>
       <c r="C17" s="8" t="str">
-        <f ca="1">D17&amp;"前面的一个数是INPUT，后面的一个数是INPUT。"</f>
-        <v>85前面的一个数是INPUT，后面的一个数是INPUT。</v>
+        <f ca="1">D17&amp;"前面的一个数是IPT1，后面的一个数是IPT1。"</f>
+        <v>83前面的一个数是IPT1，后面的一个数是IPT1。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1853,11 +1957,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1886,12 +1990,12 @@
         <v>26</v>
       </c>
       <c r="C18" s="8" t="str">
-        <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有INPUT个数，从左往右数，第"&amp;D18&amp;"个数是INPUT，从右往左数，第"&amp;E18&amp;"个是INPUT，其中最大的数是INPUT，最小的数是INPUT。"</f>
-        <v>在13，5，15，6，23中，共有INPUT个数，从左往右数，第5个数是INPUT，从右往左数，第1个是INPUT，其中最大的数是INPUT，最小的数是INPUT。</v>
+        <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有IPT1个数，从左往右数，第"&amp;D18&amp;"个数是IPT1，从右往左数，第"&amp;E18&amp;"个是IPT1，其中最大的数是IPT1，最小的数是IPT1。"</f>
+        <v>在12，1，16，6，30中，共有IPT1个数，从左往右数，第4个数是IPT1，从右往左数，第1个是IPT1，其中最大的数是IPT1，最小的数是IPT1。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
@@ -1902,15 +2006,15 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -1918,26 +2022,26 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1963,8 +2067,8 @@
         <v>27</v>
       </c>
       <c r="C19" s="8" t="str">
-        <f>"一个两位数，左边的数是INPUT位，右边的数是INPUT位。"</f>
-        <v>一个两位数，左边的数是INPUT位，右边的数是INPUT位。</v>
+        <f>"一个两位数，左边的数是IPT1位，右边的数是IPT1位。"</f>
+        <v>一个两位数，左边的数是IPT1位，右边的数是IPT1位。</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2005,12 +2109,12 @@
         <v>28</v>
       </c>
       <c r="C20" s="8" t="str">
-        <f ca="1">D20&amp;"个一是INPUT"</f>
-        <v>10个一是INPUT</v>
+        <f ca="1">D20&amp;"个一是IPT1"</f>
+        <v>30个一是IPT1</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2023,7 +2127,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2053,20 +2157,20 @@
         <v>29</v>
       </c>
       <c r="C21" s="8" t="str">
-        <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成INPUT，它的前面一个数是INPUT，比它大"&amp;F21&amp;"的数是INPUT"</f>
-        <v>6个一和2个十组成INPUT，它的前面一个数是INPUT，比它大4的数是INPUT</v>
+        <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成IPT1，它的前面一个数是IPT1，比它大"&amp;F21&amp;"的数是IPT1"</f>
+        <v>7个一和1个十组成IPT1，它的前面一个数是IPT1，比它大2的数是IPT1</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2077,15 +2181,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2117,8 +2221,8 @@
         <v>30</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f>"最小的一位数是INPUT，最小的两位数是INPUT，他们的和是INPUT。"</f>
-        <v>最小的一位数是INPUT，最小的两位数是INPUT，他们的和是INPUT。</v>
+        <f>"最小的一位数是IPT1，最小的两位数是IPT1，他们的和是IPT1。"</f>
+        <v>最小的一位数是IPT1，最小的两位数是IPT1，他们的和是IPT1。</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2161,16 +2265,16 @@
         <v>31</v>
       </c>
       <c r="C23" s="8" t="str">
-        <f ca="1">D23&amp;"-"&amp;E23&amp;"=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。"</f>
-        <v>16-9=INPUT，在这个算式中，减数是INPUT，被减数是INPUT。</v>
+        <f ca="1">D23&amp;"-"&amp;E23&amp;"=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。"</f>
+        <v>19-1=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2182,15 +2286,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2222,8 +2326,8 @@
         <v>32</v>
       </c>
       <c r="C24" s="8" t="str">
-        <f>"最大的一位数是INPUT，最小的两位数是INPUT，它们的差是INPUT。"</f>
-        <v>最大的一位数是INPUT，最小的两位数是INPUT，它们的差是INPUT。</v>
+        <f>"最大的一位数是IPT1，最小的两位数是IPT1，它们的差是IPT1。"</f>
+        <v>最大的一位数是IPT1，最小的两位数是IPT1，它们的差是IPT1。</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2266,8 +2370,8 @@
         <v>33</v>
       </c>
       <c r="C25" s="8" t="str">
-        <f>"一个两位数从右边起，第一位是INPUT位，第二位是INPUT位。"</f>
-        <v>一个两位数从右边起，第一位是INPUT位，第二位是INPUT位。</v>
+        <f>"一个两位数从右边起，第一位是IPT1位，第二位是IPT1位。"</f>
+        <v>一个两位数从右边起，第一位是IPT1位，第二位是IPT1位。</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2308,20 +2412,20 @@
         <v>34</v>
       </c>
       <c r="C26" s="8" t="str">
-        <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个INPUT。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个INPUT。"</f>
-        <v>33个位上的3表示3个INPUT。十位上的3表示3个INPUT。</v>
+        <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个IPT1。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个IPT1。"</f>
+        <v>90个位上的0表示0个IPT1。十位上的9表示9个IPT1。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2363,12 +2467,12 @@
         <v>35</v>
       </c>
       <c r="C27" s="8" t="str">
-        <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是INPUT。"</f>
-        <v>两个加数都是7，那么它们的和是INPUT。</v>
+        <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是IPT1。"</f>
+        <v>两个加数都是2，那么它们的和是IPT1。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2381,7 +2485,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2411,16 +2515,16 @@
         <v>36</v>
       </c>
       <c r="C28" s="8" t="str">
-        <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是INPUT。"</f>
-        <v>被减数是16，减数是5，它们的差是INPUT。</v>
+        <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是IPT1。"</f>
+        <v>被减数是20，减数是3，它们的差是IPT1。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2432,7 +2536,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2466,12 +2570,12 @@
         <v>37</v>
       </c>
       <c r="C29" s="8" t="str">
-        <f ca="1">D29&amp;"比INPUT大1，比INPUT小1。"</f>
-        <v>12比INPUT大1，比INPUT小1。</v>
+        <f ca="1">D29&amp;"比IPT1大1，比IPT1小1。"</f>
+        <v>19比IPT1大1，比IPT1小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2484,11 +2588,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2517,16 +2621,16 @@
         <v>38</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是INPUT。"</f>
-        <v>一个数它的个位上的数字是5，比十位上的数字小2，这个数是INPUT。</v>
+        <f ca="1">"一个数它的个位上的数字是"&amp;D30&amp;"，比十位上的数字小"&amp;E30&amp;"，这个数是IPT1。"</f>
+        <v>一个数它的个位上的数字是4，比十位上的数字小3，这个数是IPT1。</v>
       </c>
       <c r="D30" s="7">
         <f ca="1">RANDBETWEEN(X30,Y30)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="7">
         <f ca="1">RANDBETWEEN(Z30,AA30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -2538,7 +2642,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="6">
         <f ca="1">(D30+E30)*10+D30</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2572,8 +2676,8 @@
         <v>39</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>"INPUT比100大1，INPUT比100小1。"</f>
-        <v>INPUT比100大1，INPUT比100小1。</v>
+        <f>"IPT1比100大1，IPT1比100小1。"</f>
+        <v>IPT1比100大1，IPT1比100小1。</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2614,16 +2718,16 @@
         <v>40</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是INPUT，比它小"&amp;E32&amp;"的数是INPUT。"</f>
-        <v>比19大2的数是INPUT，比它小2的数是INPUT。</v>
+        <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是IPT1，比它小"&amp;E32&amp;"的数是IPT1。"</f>
+        <v>比16大5的数是IPT1，比它小5的数是IPT1。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2639,7 +2743,7 @@
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2672,20 +2776,20 @@
         <v>41</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在INPUT位，表示INPUT个INPUT。右边的"&amp;E33&amp;"表示INPUT个INPUT。"</f>
-        <v>74左边的7在INPUT位，表示INPUT个INPUT。右边的4表示INPUT个INPUT。</v>
+        <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在IPT1位，表示IPT1个IPT1。右边的"&amp;E33&amp;"表示IPT1个IPT1。"</f>
+        <v>41左边的4在IPT1位，表示IPT1个IPT1。右边的1表示IPT1个IPT1。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2699,14 +2803,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>47</v>
@@ -2735,16 +2839,16 @@
         <v>42</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是INPUT。"</f>
-        <v>个位是4，十位是2的数是INPUT。</v>
+        <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是IPT1。"</f>
+        <v>个位是8，十位是5的数是IPT1。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2756,7 +2860,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2786,20 +2890,20 @@
         <v>43</v>
       </c>
       <c r="C35" s="8" t="str">
-        <f ca="1">D35&amp;"比INPUT少"&amp;E35&amp;"，"&amp;F35&amp;"里面有INPUT个十和INPUT个一。"</f>
-        <v>10比INPUT少8，78里面有INPUT个十和INPUT个一。</v>
+        <f ca="1">D35&amp;"比IPT1少"&amp;E35&amp;"，"&amp;F35&amp;"里面有IPT1个十和IPT1个一。"</f>
+        <v>18比IPT1少2，58里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2810,11 +2914,11 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
@@ -2854,12 +2958,12 @@
         <v>44</v>
       </c>
       <c r="C36" s="8" t="str">
-        <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数INPUT，INPUT，INPUT。"</f>
-        <v>按从小到大的顺序填出44前面的三个数INPUT，INPUT，INPUT。</v>
+        <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数IPT1，IPT1，IPT1。"</f>
+        <v>按从小到大的顺序填出12前面的三个数IPT1，IPT1，IPT1。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2872,15 +2976,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2908,16 +3012,16 @@
         <v>45</v>
       </c>
       <c r="C37" s="8" t="str">
-        <f ca="1">D37&amp;"添上1是INPUT个十。"&amp;E37&amp;"添上1是INPUT。"</f>
-        <v>19添上1是INPUT个十。59添上1是INPUT。</v>
+        <f ca="1">D37&amp;"添上1是IPT1个十。"&amp;E37&amp;"添上1是IPT1。"</f>
+        <v>49添上1是IPT1个十。19添上1是IPT1。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2929,11 +3033,11 @@
       <c r="M37" s="7"/>
       <c r="N37" s="6">
         <f ca="1">TRUNC((D37+1)/10)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
@@ -2962,12 +3066,12 @@
         <v>65</v>
       </c>
       <c r="C38" s="8" t="str">
-        <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。"</f>
-        <v>写出小于三十的3个个位是4的数，并按从大到小顺序排列：INPUT、INPUT、INPUT。</v>
+        <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。"</f>
+        <v>写出小于三十的3个个位是6的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2980,15 +3084,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3016,24 +3120,24 @@
         <v>66</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f ca="1">"方框里最大填几： "&amp;D39&amp;" + INPUT &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; INPUT + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 5 + INPUT &lt; 10； 10 &gt; INPUT + 6。</v>
+        <f ca="1">"方框里最大填几： "&amp;D39&amp;" + IPT1 &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; IPT1 + "&amp;G39&amp;"。"</f>
+        <v>方框里最大填几： 8 + IPT1 &lt; 19； 12 &gt; IPT1 + 1。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3043,11 +3147,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3080,16 +3184,16 @@
         <v>67</v>
       </c>
       <c r="C40" s="8" t="str">
-        <f ca="1">D40&amp;"再添上INPUT就和"&amp;E40&amp;"同样多。"</f>
-        <v>8再添上INPUT就和16同样多。</v>
+        <f ca="1">D40&amp;"再添上IPT1就和"&amp;E40&amp;"同样多。"</f>
+        <v>2再添上IPT1就和10同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3135,16 +3239,16 @@
         <v>68</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是INPUT，"&amp;E41&amp;"后面一个数是INPUT。"</f>
-        <v>从10开始十个十个地数，60前面的一个数是INPUT，40后面一个数是INPUT。</v>
+        <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是IPT1，"&amp;E41&amp;"后面一个数是IPT1。"</f>
+        <v>从10开始十个十个地数，90前面的一个数是IPT1，60后面一个数是IPT1。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3156,11 +3260,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3189,32 +3293,32 @@
         <v>69</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f ca="1">D42&amp;"－"&amp;E42&amp;"＝INPUT－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－INPUT。"</f>
-        <v>16－1＝INPUT－2， 17－6＝11－INPUT。</v>
+        <f ca="1">D42&amp;"－"&amp;E42&amp;"＝IPT1－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－IPT1。"</f>
+        <v>14－7＝IPT1－3， 20－1＝20－IPT1。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3222,11 +3326,11 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3259,16 +3363,16 @@
         <v>70</v>
       </c>
       <c r="C43" s="8" t="str">
-        <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是INPUT。一百以内个位是"&amp;E43&amp;"的两位数有INPUT个。"</f>
-        <v>比最大的两位数小2的数是INPUT。一百以内个位是7的两位数有INPUT个。</v>
+        <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是IPT1。一百以内个位是"&amp;E43&amp;"的两位数有IPT1个。"</f>
+        <v>比最大的两位数小3的数是IPT1。一百以内个位是8的两位数有IPT1个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3280,7 +3384,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3312,8 +3416,8 @@
         <v>71</v>
       </c>
       <c r="C44" s="8" t="str">
-        <f>"按从大到小的顺序填出100前面的三个数INPUT、INPUT、INPUT。"</f>
-        <v>按从大到小的顺序填出100前面的三个数INPUT、INPUT、INPUT。</v>
+        <f>"按从大到小的顺序填出100前面的三个数IPT1、IPT1、IPT1。"</f>
+        <v>按从大到小的顺序填出100前面的三个数IPT1、IPT1、IPT1。</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -3359,12 +3463,12 @@
         <v>72</v>
       </c>
       <c r="C45" s="8" t="str">
-        <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有INPUT个。"</f>
-        <v>一百以内十位是8的两位数有INPUT个。</v>
+        <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有IPT1个。"</f>
+        <v>一百以内十位是9的两位数有IPT1个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3406,8 +3510,8 @@
         <v>73</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是INPUT。"</f>
-        <v>减数是8，被减数是19，它们的差是INPUT。</v>
+        <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是IPT1。"</f>
+        <v>减数是8，被减数是17，它们的差是IPT1。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
@@ -3415,7 +3519,7 @@
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3427,7 +3531,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3461,12 +3565,12 @@
         <v>74</v>
       </c>
       <c r="C47" s="8" t="str">
-        <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是INPUT，差是INPUT。"</f>
-        <v>两个数都是17，它们的和是INPUT，差是INPUT。</v>
+        <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是IPT1，差是IPT1。"</f>
+        <v>两个数都是11，它们的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3479,7 +3583,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3511,8 +3615,8 @@
         <v>75</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f>"最大的两位数与最小的两位数相差INPUT。"</f>
-        <v>最大的两位数与最小的两位数相差INPUT。</v>
+        <f>"最大的两位数与最小的两位数相差IPT1。"</f>
+        <v>最大的两位数与最小的两位数相差IPT1。</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -3552,16 +3656,16 @@
         <v>76</v>
       </c>
       <c r="C49" s="8" t="str">
-        <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是INPUT，差是INPUT。"</f>
-        <v>一个数比20大9，另一个数比20小9，这两个数的和是INPUT，差是INPUT。</v>
+        <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是IPT1，差是IPT1。"</f>
+        <v>一个数比19大8，另一个数比19小8，这两个数的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3573,11 +3677,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3610,24 +3714,24 @@
         <v>77</v>
       </c>
       <c r="C50" s="8" t="str">
-        <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; INPUT； "&amp;F50&amp;" - INPUT &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 7 + 10 &lt; INPUT； 18 - INPUT &lt; 2。</v>
+        <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; IPT1； "&amp;F50&amp;" - IPT1 &lt; "&amp;G50&amp;"。"</f>
+        <v>方框里最小填几： 2 + 14 &lt; IPT1； 10 - IPT1 &lt; 4。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3637,11 +3741,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3674,12 +3778,12 @@
         <v>78</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有INPUT个数字。"</f>
-        <v>17和21之间有INPUT个数字。</v>
+        <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有IPT1个数字。"</f>
+        <v>14和18之间有IPT1个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
@@ -3729,8 +3833,8 @@
         <v>79</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>"十位数和个位数相同的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>十位数和个位数相同的两位数有INPUT个。其中最大的是INPUT</v>
+        <f>"十位数和个位数相同的两位数有IPT1个。其中最大的是IPT1"</f>
+        <v>十位数和个位数相同的两位数有IPT1个。其中最大的是IPT1</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -3771,12 +3875,12 @@
         <v>80</v>
       </c>
       <c r="C53" s="8" t="str">
-        <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有INPUT个。其中最大的是INPUT"</f>
-        <v>个位数上是1的两位数有INPUT个。其中最大的是INPUT</v>
+        <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有IPT1个。其中最大的是IPT1"</f>
+        <v>个位数上是6的两位数有IPT1个。其中最大的是IPT1</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3792,7 +3896,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3821,16 +3925,16 @@
         <v>81</v>
       </c>
       <c r="C54" s="8" t="str">
-        <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是INPUT"</f>
-        <v>一个两位数，个位数是0， 十位数上的数字比个位数上的数字大1， 这个两位是INPUT</v>
+        <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是IPT1"</f>
+        <v>一个两位数，个位数是2， 十位数上的数字比个位数上的数字大3， 这个两位是IPT1</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3842,7 +3946,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3876,16 +3980,16 @@
         <v>82</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是INPUT"</f>
-        <v>一个计数器，十位上有4个珠子，个位上有1个珠子，这个数是INPUT</v>
+        <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是IPT1"</f>
+        <v>一个计数器，十位上有3个珠子，个位上有3个珠子，这个数是IPT1</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -3897,7 +4001,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -3931,12 +4035,12 @@
         <v>83</v>
       </c>
       <c r="C56" s="8" t="str">
-        <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是INPUT"</f>
-        <v>一个计数器，个位上有5个珠子，十位上的珠子比个位上的多2个，这个数是INPUT</v>
+        <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是IPT1"</f>
+        <v>一个计数器，个位上有2个珠子，十位上的珠子比个位上的多2个，这个数是IPT1</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
@@ -3952,7 +4056,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -3986,16 +4090,16 @@
         <v>84</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是INPUT"</f>
-        <v>一个加数是20，另一个加数是6，求和是INPUT</v>
+        <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是IPT1"</f>
+        <v>一个加数是17，另一个加数是9，求和是IPT1</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -4041,8 +4145,8 @@
         <v>85</v>
       </c>
       <c r="C58" s="8" t="str">
-        <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是INPUT"</f>
-        <v>被减数11， 减数是比被减数少5的数，求差是INPUT</v>
+        <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是IPT1"</f>
+        <v>被减数11， 减数是比被减数少8的数，求差是IPT1</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -4050,7 +4154,7 @@
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4062,7 +4166,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4096,8 +4200,8 @@
         <v>86</v>
       </c>
       <c r="C59" s="8" t="str">
-        <f>"长方形有INPUT条边，正方形有INPUT条边，三角形有INPUT条边。"</f>
-        <v>长方形有INPUT条边，正方形有INPUT条边，三角形有INPUT条边。</v>
+        <f>"长方形有IPT1条边，正方形有IPT1条边，三角形有IPT1条边。"</f>
+        <v>长方形有IPT1条边，正方形有IPT1条边，三角形有IPT1条边。</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -4140,16 +4244,16 @@
         <v>87</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f ca="1">D60&amp;"比"&amp;E60&amp;"多INPUT; "&amp;F60&amp;"比"&amp;G60&amp;"少INPUT"</f>
-        <v>17比4多INPUT; 2比11少INPUT</v>
+        <f ca="1">D60&amp;"比"&amp;E60&amp;"多IPT1; "&amp;F60&amp;"比"&amp;G60&amp;"少IPT1"</f>
+        <v>11比6多IPT1; 2比16少IPT1</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
@@ -4157,7 +4261,7 @@
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4167,11 +4271,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4204,16 +4308,16 @@
         <v>88</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f ca="1">D61&amp;"的"&amp;E61&amp;"在INPUT位上，表示INPUT个INPUT。"</f>
-        <v>72的7在INPUT位上，表示INPUT个INPUT。</v>
+        <f ca="1">D61&amp;"的"&amp;E61&amp;"在IPT1位上，表示IPT1个IPT1。"</f>
+        <v>93的9在IPT1位上，表示IPT1个IPT1。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4228,7 +4332,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>91</v>
@@ -4263,20 +4367,20 @@
         <v>89</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、INPUT、INPUT、INPUT"</f>
-        <v>找规律：52、50、44、42、INPUT、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、IPT1、IPT1、IPT1"</f>
+        <v>找规律：58、57、49、48、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4287,15 +4391,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4331,16 +4435,16 @@
         <v>90</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是INPUT。这个两位数里面有INPUT个十。"</f>
-        <v>4个一和8个十合起来是INPUT。这个两位数里面有INPUT个十。</v>
+        <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是IPT1。这个两位数里面有IPT1个十。"</f>
+        <v>3个一和9个十合起来是IPT1。这个两位数里面有IPT1个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4352,11 +4456,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4389,16 +4493,16 @@
         <v>116</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是INPUT"</f>
-        <v>8个十和6个一是INPUT</v>
+        <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是IPT1"</f>
+        <v>5个十和4个一是IPT1</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4410,7 +4514,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4444,16 +4548,16 @@
         <v>117</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：5、11、17、23、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、IPT1、IPT1"</f>
+        <v>找规律：8、13、18、23、IPT1、IPT1</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4465,11 +4569,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4502,8 +4606,8 @@
         <v>93</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f ca="1">"找规律：INPUT、"&amp;D66&amp;"、INPUT、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、6、INPUT、8、9、INPUT</v>
+        <f ca="1">"找规律：IPT1、"&amp;D66&amp;"、IPT1、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、IPT1"</f>
+        <v>找规律：IPT1、6、IPT1、8、9、IPT1</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -4556,12 +4660,12 @@
         <v>94</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f ca="1">"找规律："&amp;D67&amp;"、INPUT、"&amp;D67+2&amp;"、INPUT、INPUT、"&amp;D67+5&amp;""</f>
-        <v>找规律：11、INPUT、13、INPUT、INPUT、16</v>
+        <f ca="1">"找规律："&amp;D67&amp;"、IPT1、"&amp;D67+2&amp;"、IPT1、IPT1、"&amp;D67+5&amp;""</f>
+        <v>找规律：17、IPT1、19、IPT1、IPT1、22</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -4574,15 +4678,15 @@
       <c r="M67" s="7"/>
       <c r="N67" s="6">
         <f ca="1">D67+1</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O67" s="6">
         <f ca="1">D67+3</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P67" s="6">
         <f ca="1">D67+4</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4610,8 +4714,8 @@
         <v>95</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f ca="1">"找规律：INPUT、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、INPUT、"&amp;D68-E68*3&amp;"、INPUT"</f>
-        <v>找规律：INPUT、18、16、INPUT、14、INPUT</v>
+        <f ca="1">"找规律：IPT1、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、IPT1、"&amp;D68-E68*3&amp;"、IPT1"</f>
+        <v>找规律：IPT1、17、14、IPT1、11、IPT1</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ca="1" si="3"/>
@@ -4619,7 +4723,7 @@
       </c>
       <c r="E68" s="7">
         <f ca="1">RANDBETWEEN(Z68,AA68)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -4631,15 +4735,15 @@
       <c r="M68" s="7"/>
       <c r="N68" s="6">
         <f ca="1">D68+E68</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O68" s="6">
         <f ca="1">D68-E68*3</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P68" s="6">
         <f ca="1">D68-E68*4</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4671,12 +4775,12 @@
         <v>96</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、INPUT、INPUT、"&amp;D69+8&amp;"、INPUT、"&amp;D69+12&amp;""</f>
-        <v>找规律：5、7、INPUT、INPUT、13、INPUT、17</v>
+        <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、IPT1、IPT1、"&amp;D69+8&amp;"、IPT1、"&amp;D69+12&amp;""</f>
+        <v>找规律：7、9、IPT1、IPT1、15、IPT1、19</v>
       </c>
       <c r="D69" s="7">
         <f ca="1">INT(RAND()*5)*2+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4689,15 +4793,15 @@
       <c r="M69" s="7"/>
       <c r="N69" s="6">
         <f ca="1">D69+4</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O69" s="6">
         <f ca="1">D69+6</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P69" s="6">
         <f ca="1">D69+12</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4721,12 +4825,12 @@
         <v>97</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、INPUT、INPUT、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、INPUT"</f>
-        <v>找规律：4、6、INPUT、INPUT、12、14、INPUT</v>
+        <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、IPT1、IPT1、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、IPT1"</f>
+        <v>找规律：2、4、IPT1、IPT1、10、12、IPT1</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4739,15 +4843,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4771,12 +4875,12 @@
         <v>98</v>
       </c>
       <c r="C71" s="8" t="str">
-        <f ca="1">"找规律："&amp;D71&amp;"、"&amp;D71*2&amp;"、"&amp;D71*4&amp;"、"&amp;D71*8&amp;"、INPUT、INPUT"</f>
-        <v>找规律：1、2、4、8、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D71&amp;"、"&amp;D71*2&amp;"、"&amp;D71*4&amp;"、"&amp;D71*8&amp;"、IPT1、IPT1"</f>
+        <v>找规律：2、4、8、16、IPT1、IPT1</v>
       </c>
       <c r="D71" s="7">
         <f ca="1">RANDBETWEEN(X71,Y71)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
@@ -4789,11 +4893,11 @@
       <c r="M71" s="7"/>
       <c r="N71" s="6">
         <f ca="1">D71*16</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="O71" s="6">
         <f ca="1">D71*32</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
@@ -4822,12 +4926,12 @@
         <v>99</v>
       </c>
       <c r="C72" s="8" t="str">
-        <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、INPUT、INPUT"</f>
-        <v>找规律：13、24、35、46、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、IPT1、IPT1"</f>
+        <v>找规律：10、21、32、43、IPT1、IPT1</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" ref="D72:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4840,11 +4944,11 @@
       <c r="M72" s="7"/>
       <c r="N72" s="6">
         <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O72" s="6">
         <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4873,12 +4977,12 @@
         <v>100</v>
       </c>
       <c r="C73" s="8" t="str">
-        <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、INPUT、INPUT"</f>
-        <v>找规律：14、41、25、52、36、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、IPT1、IPT1"</f>
+        <v>找规律：12、21、23、32、34、IPT1、IPT1</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -4891,11 +4995,11 @@
       <c r="M73" s="7"/>
       <c r="N73" s="6">
         <f ca="1">(MOD(D73, 10)+2)*10+TRUNC(D73/10)+2</f>
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="O73" s="6">
         <f ca="1">(TRUNC(D73/10)+3)*10+MOD(D73, 10)+3</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -4924,12 +5028,12 @@
         <v>101</v>
       </c>
       <c r="C74" s="8" t="str">
-        <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、INPUT、INPUT"</f>
-        <v>找规律：5、6、8、11、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、IPT1、IPT1"</f>
+        <v>找规律：3、4、6、9、IPT1、IPT1</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -4942,11 +5046,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -4975,12 +5079,12 @@
         <v>102</v>
       </c>
       <c r="C75" s="8" t="str">
-        <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：15、1、12、1、9、INPUT、INPUT、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、IPT1、IPT1、IPT1、IPT1"</f>
+        <v>找规律：16、1、13、1、10、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
@@ -4999,14 +5103,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5037,16 +5141,16 @@
         <v>103</v>
       </c>
       <c r="C76" s="8" t="str">
-        <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>找规律：7、1、9、1、11、INPUT、INPUT、INPUT、INPUT</v>
+        <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、IPT1、IPT1、IPT1、IPT1"</f>
+        <v>找规律：5、1、8、1、11、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E76" s="7">
         <f ca="1">RANDBETWEEN(Z76,AA76)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
@@ -5061,14 +5165,14 @@
       </c>
       <c r="O76" s="6">
         <f ca="1">D76+E76*3</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P76" s="6">
         <v>1</v>
       </c>
       <c r="Q76" s="6">
         <f ca="1">D76+E76*4</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5099,8 +5203,8 @@
         <v>104</v>
       </c>
       <c r="C77" s="8" t="str">
-        <f>"个位和十位相同的两位有INPUT个，其中最大的是INPUT"</f>
-        <v>个位和十位相同的两位有INPUT个，其中最大的是INPUT</v>
+        <f>"个位和十位相同的两位有IPT1个，其中最大的是IPT1"</f>
+        <v>个位和十位相同的两位有IPT1个，其中最大的是IPT1</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -5141,8 +5245,8 @@
         <v>105</v>
       </c>
       <c r="C78" s="8" t="str">
-        <f>"写出十位数比个位数多"&amp;D78&amp;"的两位数（从大到小）它们是INPUT、INPUT、INPUT、INPUT、INPUT"</f>
-        <v>写出十位数比个位数多5的两位数（从大到小）它们是INPUT、INPUT、INPUT、INPUT、INPUT</v>
+        <f>"写出十位数比个位数多"&amp;D78&amp;"的两位数（从大到小）它们是IPT1、IPT1、IPT1、IPT1、IPT1"</f>
+        <v>写出十位数比个位数多5的两位数（从大到小）它们是IPT1、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D78" s="7">
         <f>5</f>
@@ -5197,8 +5301,8 @@
         <v>106</v>
       </c>
       <c r="C79" s="8" t="str">
-        <f>"写出个位数比十位数多"&amp;D79&amp;"的两位数（从小到大）它们是INPUT、INPUT、INPUT"</f>
-        <v>写出个位数比十位数多6的两位数（从小到大）它们是INPUT、INPUT、INPUT</v>
+        <f>"写出个位数比十位数多"&amp;D79&amp;"的两位数（从小到大）它们是IPT1、IPT1、IPT1"</f>
+        <v>写出个位数比十位数多6的两位数（从小到大）它们是IPT1、IPT1、IPT1</v>
       </c>
       <c r="D79" s="7">
         <v>6</v>
@@ -5246,16 +5350,16 @@
         <v>107</v>
       </c>
       <c r="C80" s="8" t="str">
-        <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走INPUT格楼梯？"</f>
-        <v>小明家在2楼，每一层有8格楼梯，请问小明走到家需要走INPUT格楼梯？</v>
+        <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走IPT1格楼梯？"</f>
+        <v>小明家在3楼，每一层有7格楼梯，请问小明走到家需要走IPT1格楼梯？</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" s="7">
         <f ca="1">RANDBETWEEN(Z80,AA80)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5267,7 +5371,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="6">
         <f ca="1">E80*D80</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5301,20 +5405,20 @@
         <v>108</v>
       </c>
       <c r="C81" s="8" t="str">
-        <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩INPUT只？一共飞走INPUT只？"</f>
-        <v>树上有11只小鸟，先飞走2只，又飞走5只，还剩INPUT只？一共飞走INPUT只？</v>
+        <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩IPT1只？一共飞走IPT1只？"</f>
+        <v>树上有10只小鸟，先飞走1只，又飞走3只，还剩IPT1只？一共飞走IPT1只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5356,12 +5460,12 @@
         <v>109</v>
       </c>
       <c r="C82" s="8" t="str">
-        <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔INPUT块糖，他们就同样多了。"</f>
-        <v>小猪有18块糖，小兔有12块糖，小猪给小兔INPUT块糖，他们就同样多了。</v>
+        <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔IPT1块糖，他们就同样多了。"</f>
+        <v>小猪有20块糖，小兔有12块糖，小猪给小兔IPT1块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
@@ -5377,7 +5481,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="6">
         <f ca="1">(IF(MOD(D82, 2) = 1, D82+1, D82)-IF(MOD(E82, 2) = 1, E82+1, E82))/2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -5411,16 +5515,16 @@
         <v>110</v>
       </c>
       <c r="C83" s="8" t="str">
-        <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有INPUT个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第4个，这一列有INPUT个小朋友？</v>
+        <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有IPT1个小朋友？"</f>
+        <v>小朋友们排成一列，芳芳从前面数是排在第9个，从后面数是排在第2个，这一列有IPT1个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5432,7 +5536,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="6">
         <f ca="1">D83+E83-1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5469,8 +5573,8 @@
         <v>111</v>
       </c>
       <c r="C84" s="8" t="str">
-        <f>"请在方框里填上米或者厘米：书本宽17INPUT；大树高10INPUT；100INPUT的跑步赛道；一支15INPUT长的铅笔；"</f>
-        <v>请在方框里填上米或者厘米：书本宽17INPUT；大树高10INPUT；100INPUT的跑步赛道；一支15INPUT长的铅笔；</v>
+        <f>"请在方框里填上米或者厘米：书本宽17IPT1；大树高10IPT1；100IPT1的跑步赛道；一支15IPT1长的铅笔；"</f>
+        <v>请在方框里填上米或者厘米：书本宽17IPT1；大树高10IPT1；100IPT1的跑步赛道；一支15IPT1长的铅笔；</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -5518,12 +5622,12 @@
         <v>112</v>
       </c>
       <c r="C85" s="8" t="str">
-        <f ca="1">D85&amp;"角 = INPUT元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = INPUT角"</f>
-        <v>50角 = INPUT元；  3元1角 = INPUT角</v>
+        <f ca="1">D85&amp;"角 = IPT1元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = IPT1角"</f>
+        <v>40角 = IPT1元；  3元4角 = IPT1角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">RANDBETWEEN(Z85,AA85)</f>
@@ -5531,7 +5635,7 @@
       </c>
       <c r="F85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -5542,11 +5646,11 @@
       <c r="M85" s="7"/>
       <c r="N85" s="6">
         <f ca="1">D85/10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -5582,16 +5686,16 @@
         <v>113</v>
       </c>
       <c r="C86" s="8" t="str">
-        <f ca="1">D86&amp;"角 = INPUT元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = INPUT角"</f>
-        <v>10角 = INPUT元；  2元3角 = INPUT角</v>
+        <f ca="1">D86&amp;"角 = IPT1元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = IPT1角"</f>
+        <v>50角 = IPT1元；  3元3角 = IPT1角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
@@ -5606,11 +5710,11 @@
       <c r="M86" s="7"/>
       <c r="N86" s="6">
         <f ca="1">D86/10</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5643,20 +5747,20 @@
         <v>119</v>
       </c>
       <c r="C87" s="8" t="str">
-        <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=INPUT   △=INPUT"</f>
-        <v>△-□=8    □+7=13   请回答一下问题：□=INPUT   △=INPUT</v>
+        <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=IPT1   △=IPT1"</f>
+        <v>△-□=7    □+9=20   请回答一下问题：□=IPT1   △=IPT1</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" ref="D87:D89" ca="1" si="9">RANDBETWEEN(X87,Y87)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" s="7">
         <f ca="1">RANDBETWEEN(X87,Y87)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" s="7">
         <f ca="1">RANDBETWEEN(Z87,AA87)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -5667,11 +5771,11 @@
       <c r="M87" s="7"/>
       <c r="N87" s="6">
         <f ca="1">F87-E87</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O87" s="6">
         <f ca="1">F87+D87</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -5704,8 +5808,8 @@
         <v>120</v>
       </c>
       <c r="C88" s="8" t="str">
-        <f>"一个两位数，十位数字比"&amp;D88&amp;"大，个位数字比"&amp;E88&amp;"小，这个两位数是INPUT"</f>
-        <v>一个两位数，十位数字比8大，个位数字比1小，这个两位数是INPUT</v>
+        <f>"一个两位数，十位数字比"&amp;D88&amp;"大，个位数字比"&amp;E88&amp;"小，这个两位数是IPT1"</f>
+        <v>一个两位数，十位数字比8大，个位数字比1小，这个两位数是IPT1</v>
       </c>
       <c r="D88" s="7">
         <v>8</v>
@@ -5748,12 +5852,12 @@
         <v>121</v>
       </c>
       <c r="C89" s="8" t="str">
-        <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有INPUT个，最小的是INPUT"</f>
-        <v>一个两位数，十位数字比6大，个位数字比2小，这个两位数有INPUT个，最小的是INPUT</v>
+        <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有IPT1个，最小的是IPT1"</f>
+        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有IPT1个，最小的是IPT1</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" ref="E89:E96" ca="1" si="10">RANDBETWEEN(Z89,AA89)</f>
@@ -5769,11 +5873,11 @@
       <c r="M89" s="7"/>
       <c r="N89" s="6">
         <f ca="1">(9-D89)*E89</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O89" s="6">
         <f ca="1">(D89+1)*10</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -5806,16 +5910,16 @@
         <v>122</v>
       </c>
       <c r="C90" s="8" t="str">
-        <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有INPUT个，最大的是INPUT"</f>
-        <v>一个两位数，十位数字比8大，个位数字比3小，这个两位数有INPUT个，最大的是INPUT</v>
+        <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有IPT1个，最大的是IPT1"</f>
+        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有IPT1个，最大的是IPT1</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" ref="D90:D91" ca="1" si="11">RANDBETWEEN(X90,Y90)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5827,11 +5931,11 @@
       <c r="M90" s="7"/>
       <c r="N90" s="6">
         <f ca="1">(9-D90)*E90</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O90" s="6">
         <f ca="1">90+(E90-1)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -5864,16 +5968,16 @@
         <v>123</v>
       </c>
       <c r="C91" s="8" t="str">
-        <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)"</f>
-        <v>8＋□＜20，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从大到小)</v>
+        <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)"</f>
+        <v>9＋□＜16，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5885,23 +5989,23 @@
       <c r="M91" s="7"/>
       <c r="N91" s="6">
         <f ca="1">E91-D91-1</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O91" s="6">
         <f ca="1">N91-1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P91" s="6">
         <f ca="1">O91-1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q91" s="6">
         <f ca="1">P91-1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R91" s="6">
         <f ca="1">Q91-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -5931,8 +6035,8 @@
         <v>124</v>
       </c>
       <c r="C92" s="8" t="str">
-        <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)"</f>
-        <v>19-□＜7，□里可以填：INPUT、INPUT、INPUT、INPUT、INPUT。(从小到大)</v>
+        <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)"</f>
+        <v>15-□＜7，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" ref="D92:D94" ca="1" si="12">RANDBETWEEN(X92,Y92)</f>
@@ -5940,7 +6044,7 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -5952,23 +6056,23 @@
       <c r="M92" s="7"/>
       <c r="N92" s="6">
         <f ca="1">E92-D92+1</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O92" s="6">
         <f ca="1">N92+1</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P92" s="6">
         <f ca="1">O92+1</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q92" s="6">
         <f ca="1">P92+1</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R92" s="6">
         <f ca="1">Q92+1</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -5998,12 +6102,12 @@
         <v>125</v>
       </c>
       <c r="C93" s="8" t="str">
-        <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多INPUT张？"</f>
-        <v>大华和小刚每人有7张画片，大华给小刚5张后，小刚比大华多INPUT张？</v>
+        <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多IPT1张？"</f>
+        <v>大华和小刚每人有6张画片，大华给小刚5张后，小刚比大华多IPT1张？</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -6053,20 +6157,20 @@
         <v>126</v>
       </c>
       <c r="C94" s="8" t="str">
-        <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有INPUT个玩具。"</f>
-        <v>小红有8个玩具，小英的玩具比小红多2个，小明的玩具比小英少3个，小明有INPUT个玩具。</v>
+        <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有IPT1个玩具。"</f>
+        <v>小红有9个玩具，小英的玩具比小红多3个，小明的玩具比小英少4个，小明有IPT1个玩具。</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" s="7">
         <f ca="1">RANDBETWEEN(Z94,AA94)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -6077,7 +6181,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="6">
         <f ca="1">D94+E94-F94</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -6111,16 +6215,16 @@
         <v>127</v>
       </c>
       <c r="C95" s="8" t="str">
-        <f ca="1">D95&amp;"个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了"&amp;E95&amp;"只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。"</f>
-        <v>9个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了2只&lt;小鸡&gt;，请问还有INPUT只小鸡没抓住。</v>
+        <f ca="1">D95&amp;"个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了"&amp;E95&amp;"只&lt;小鸡&gt;，请问还有IPT1只小鸡没抓住。"</f>
+        <v>10个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了4只&lt;小鸡&gt;，请问还有IPT1只小鸡没抓住。</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" ref="D95" ca="1" si="13">RANDBETWEEN(X95,Y95)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -6132,7 +6236,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="6">
         <f ca="1">D95-E95-1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -6166,16 +6270,16 @@
         <v>128</v>
       </c>
       <c r="C96" s="8" t="str">
-        <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有INPUT人。"</f>
-        <v>一队人，从左向右数，小张站在第6个，从右往左数，他站在第6个，这队共有INPUT人。</v>
+        <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有IPT1人。"</f>
+        <v>一队人，从左向右数，小张站在第4个，从右往左数，他站在第5个，这队共有IPT1人。</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" ref="D96:D100" ca="1" si="14">RANDBETWEEN(X96,Y96)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -6187,7 +6291,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="6">
         <f ca="1">D96+E96-1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6221,12 +6325,12 @@
         <v>129</v>
       </c>
       <c r="C97" s="8" t="str">
-        <f ca="1">"有"&amp;D97&amp;"个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人"</f>
-        <v>有19个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报INPUT的多。如果报2的人全部退出，这时队里还有INPUT人</v>
+        <f ca="1">"有"&amp;D97&amp;"个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报IPT1的多。如果报2的人全部退出，这时队里还有IPT1人"</f>
+        <v>有11个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报IPT1的多。如果报2的人全部退出，这时队里还有IPT1人</v>
       </c>
       <c r="D97" s="7">
         <f ca="1">10+INT(RAND()*5)*2+1</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -6242,7 +6346,7 @@
       </c>
       <c r="O97" s="6">
         <f ca="1">TRUNC(D97/2)+1</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -6267,12 +6371,12 @@
         <v>130</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。"</f>
-        <v>一个小朋友唱一首歌要3分钟，现在4个小朋友同时唱同样的这首歌，需要INPUT分钟。</v>
+        <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。"</f>
+        <v>一个小朋友唱一首歌要6分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -6285,7 +6389,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="6">
         <f ca="1">D98</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -6315,16 +6419,16 @@
         <v>131</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年INPUT岁。"</f>
-        <v>小云今年8岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年INPUT岁。</v>
+        <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年IPT1岁。"</f>
+        <v>小云今年7岁，奶奶说：“当你长到16岁的时候，我就是70岁了。“奶奶今年IPT1岁。</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" s="7">
         <f ca="1">RANDBETWEEN(Z99,AA99)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F99" s="7">
         <v>70</v>
@@ -6338,7 +6442,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="6">
         <f ca="1">F99-(E99-D99)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -6372,12 +6476,12 @@
         <v>132</v>
       </c>
       <c r="C100" s="8" t="str">
-        <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了INPUT米。"</f>
-        <v>一根60米长的绳子，做跳绳用去8米，修排球网用去17米，这根绳子少了INPUT米。</v>
+        <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了IPT1米。"</f>
+        <v>一根60米长的绳子，做跳绳用去5米，修排球网用去17米，这根绳子少了IPT1米。</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E100" s="7">
         <f ca="1">RANDBETWEEN(Z100,AA100)</f>
@@ -6393,7 +6497,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="6">
         <f ca="1">D100+E100</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
@@ -6423,9 +6527,16 @@
       </c>
     </row>
     <row r="101" spans="2:30">
-      <c r="B101" s="4"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="7"/>
+      <c r="B101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="8" t="str">
+        <f>"看图列式：IMG1 IPT5（IPT1）"</f>
+        <v>看图列式：IMG1 IPT5（IPT1）</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
@@ -6435,8 +6546,12 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
+      <c r="N101" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
@@ -6451,12 +6566,21 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
-      <c r="AD101" s="12"/>
+      <c r="AD101" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="2:30">
-      <c r="B102" s="4"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="7"/>
+      <c r="B102" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="8" t="str">
+        <f>"看图列式：IMG1 IPT5（IPT1）"</f>
+        <v>看图列式：IMG1 IPT5（IPT1）</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
@@ -6466,8 +6590,12 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
+      <c r="N102" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
@@ -6482,12 +6610,21 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
-      <c r="AD102" s="12"/>
+      <c r="AD102" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="2:30">
-      <c r="B103" s="4"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="7"/>
+      <c r="B103" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="8" t="str">
+        <f>"看图列式：IMG1 IPT5（IPT1）"</f>
+        <v>看图列式：IMG1 IPT5（IPT1）</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -6497,8 +6634,12 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
+      <c r="N103" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O103" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
@@ -6513,12 +6654,21 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
-      <c r="AD103" s="12"/>
+      <c r="AD103" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="2:30">
-      <c r="B104" s="4"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="7"/>
+      <c r="B104" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="8" t="str">
+        <f>"看图列式：IMG1 IPT5（IPT1）"</f>
+        <v>看图列式：IMG1 IPT5（IPT1）</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -6528,8 +6678,12 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
+      <c r="N104" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O104" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
@@ -6544,12 +6698,21 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
-      <c r="AD104" s="12"/>
+      <c r="AD104" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="2:30">
-      <c r="B105" s="4"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="7"/>
+      <c r="B105" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="8" t="str">
+        <f>"IMG1 房间里有几只鸭子？ IPT5（IPT1）"</f>
+        <v>IMG1 房间里有几只鸭子？ IPT5（IPT1）</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
@@ -6559,8 +6722,12 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
+      <c r="N105" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O105" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
@@ -6575,12 +6742,21 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
-      <c r="AD105" s="12"/>
+      <c r="AD105" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="2:30">
-      <c r="B106" s="4"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="7"/>
+      <c r="B106" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="8" t="str">
+        <f>"IMG1 盒子里有几根小棒？ IPT5（IPT1）"</f>
+        <v>IMG1 盒子里有几根小棒？ IPT5（IPT1）</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -6590,8 +6766,12 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
+      <c r="N106" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O106" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
@@ -6606,7 +6786,40 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
-      <c r="AD106" s="12"/>
+      <c r="AD106" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30">
+      <c r="B107" s="4"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -1040,10 +1040,10 @@
   <dimension ref="A2:AD107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomRight" activeCell="Y81" sqref="Y81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1155,11 +1155,11 @@
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。"</f>
-        <v>27 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。</v>
+        <v>11 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1172,19 +1172,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1212,15 +1212,15 @@
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是IPT1，" &amp; E4 &amp; " 里面有IPT1个一。"</f>
-        <v>3 个十是IPT1，3 里面有IPT1个一。</v>
+        <v>8 个十是IPT1，6 里面有IPT1个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1232,11 +1232,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1266,15 +1266,15 @@
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是IPT1，它在IPT1的后面。"</f>
-        <v>一个数的个位上是1，十位是8，这个数是IPT1，它在IPT1的后面。</v>
+        <v>一个数的个位上是8，十位是5，这个数是IPT1，它在IPT1的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1286,11 +1286,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1320,15 +1320,15 @@
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有IPT1， IPT1， IPT1。(从小到大的顺序)"</f>
-        <v>比19大比23小的数有IPT1， IPT1， IPT1。(从小到大的顺序)</v>
+        <v>比20大比24小的数有IPT1， IPT1， IPT1。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1340,15 +1340,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1377,15 +1377,15 @@
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成IPT1，和它相邻的数有IPT1和IPT1。"</f>
-        <v>2个一和6个十组成IPT1，和它相邻的数有IPT1和IPT1。</v>
+        <v>4个一和7个十组成IPT1，和它相邻的数有IPT1和IPT1。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1397,15 +1397,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1434,23 +1434,23 @@
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是IPT1，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是IPT1。"</f>
-        <v>比14大1的数是IPT1，比10小1的数是IPT1。</v>
+        <v>比20大4的数是IPT1，比15小4的数是IPT1。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1460,11 +1460,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有IPT1个十；也可以说" &amp; D9 &amp; "里面有IPT1个一。"</f>
-        <v>10里面有IPT1个十；也可以说10里面有IPT1个一。</v>
+        <v>70里面有IPT1个十；也可以说70里面有IPT1个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1519,11 +1519,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1553,11 +1553,11 @@
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有IPT1人。 "</f>
-        <v>小朋友们排队做操，小华前面有4人，后面有4人，这队一共有IPT1人。 </v>
+        <v>小朋友们排队做操，小华前面有6人，后面有4人，这队一共有IPT1人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
@@ -1573,7 +1573,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1604,15 +1604,15 @@
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是IPT1。"</f>
-        <v>3个一和3个十合起来是IPT1。</v>
+        <v>9个一和2个十合起来是IPT1。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1624,7 +1624,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1655,19 +1655,19 @@
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是IPT1，"&amp;F12&amp;"里面有IPT1个十和IPT1个一。"</f>
-        <v>个位是8，十位上是5，这个数是IPT1，93里面有IPT1个十和IPT1个一。</v>
+        <v>个位是3，十位上是9，这个数是IPT1，13里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1678,11 +1678,11 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是IPT1和IPT1。"</f>
-        <v>和20相邻的两个数是IPT1和IPT1。</v>
+        <v>和90相邻的两个数是IPT1和IPT1。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1732,11 +1732,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1766,15 +1766,15 @@
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是IPT1。"</f>
-        <v>个位是7，十位上是9，这个数是IPT1。</v>
+        <v>个位是1，十位上是7，这个数是IPT1。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1786,7 +1786,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个IPT1和"&amp;F15&amp;"个IPT1 。"</f>
-        <v>76里面有7个IPT1和6个IPT1 。</v>
+        <v>27里面有2个IPT1和7个IPT1 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1872,23 +1872,23 @@
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多IPT1， "&amp;F16&amp;"比"&amp;G16&amp;"少IPT1。"</f>
-        <v>1比7多IPT1， 19比1少IPT1。</v>
+        <v>18比2多IPT1， 18比2少IPT1。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1898,11 +1898,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是IPT1，后面的一个数是IPT1。"</f>
-        <v>83前面的一个数是IPT1，后面的一个数是IPT1。</v>
+        <v>85前面的一个数是IPT1，后面的一个数是IPT1。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1957,11 +1957,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1991,26 +1991,26 @@
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有IPT1个数，从左往右数，第"&amp;D18&amp;"个数是IPT1，从右往左数，第"&amp;E18&amp;"个是IPT1，其中最大的数是IPT1，最小的数是IPT1。"</f>
-        <v>在12，1，16，6，30中，共有IPT1个数，从左往右数，第4个数是IPT1，从右往左数，第1个是IPT1，其中最大的数是IPT1，最小的数是IPT1。</v>
+        <v>在10，4，16，6，29中，共有IPT1个数，从左往右数，第5个数是IPT1，从右往左数，第5个是IPT1，其中最大的数是IPT1，最小的数是IPT1。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
@@ -2022,26 +2022,26 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -2110,11 +2110,11 @@
       </c>
       <c r="C20" s="8" t="str">
         <f ca="1">D20&amp;"个一是IPT1"</f>
-        <v>30个一是IPT1</v>
+        <v>28个一是IPT1</v>
       </c>
       <c r="D20" s="7">
         <f ca="1">RANDBETWEEN(X20,Y20)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2127,7 +2127,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="6">
         <f ca="1">D20</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2158,11 +2158,11 @@
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成IPT1，它的前面一个数是IPT1，比它大"&amp;F21&amp;"的数是IPT1"</f>
-        <v>7个一和1个十组成IPT1，它的前面一个数是IPT1，比它大2的数是IPT1</v>
+        <v>9个一和1个十组成IPT1，它的前面一个数是IPT1，比它大5的数是IPT1</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2181,15 +2181,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2266,15 +2266,15 @@
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。"</f>
-        <v>19-1=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。</v>
+        <v>14-2=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2286,15 +2286,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2413,19 +2413,19 @@
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个IPT1。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个IPT1。"</f>
-        <v>90个位上的0表示0个IPT1。十位上的9表示9个IPT1。</v>
+        <v>75个位上的5表示5个IPT1。十位上的7表示7个IPT1。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是IPT1。"</f>
-        <v>两个加数都是2，那么它们的和是IPT1。</v>
+        <v>两个加数都是4，那么它们的和是IPT1。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2485,7 +2485,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2516,15 +2516,15 @@
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是IPT1。"</f>
-        <v>被减数是20，减数是3，它们的差是IPT1。</v>
+        <v>被减数是15，减数是2，它们的差是IPT1。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2536,7 +2536,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="6">
         <f ca="1">D28-E28</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2571,11 +2571,11 @@
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比IPT1大1，比IPT1小1。"</f>
-        <v>19比IPT1大1，比IPT1小1。</v>
+        <v>15比IPT1大1，比IPT1小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2588,11 +2588,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2719,15 +2719,15 @@
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是IPT1，比它小"&amp;E32&amp;"的数是IPT1。"</f>
-        <v>比16大5的数是IPT1，比它小5的数是IPT1。</v>
+        <v>比18大7的数是IPT1，比它小7的数是IPT1。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2739,7 +2739,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
@@ -2777,19 +2777,19 @@
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在IPT1位，表示IPT1个IPT1。右边的"&amp;E33&amp;"表示IPT1个IPT1。"</f>
-        <v>41左边的4在IPT1位，表示IPT1个IPT1。右边的1表示IPT1个IPT1。</v>
+        <v>93左边的9在IPT1位，表示IPT1个IPT1。右边的3表示IPT1个IPT1。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2803,14 +2803,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>47</v>
@@ -2840,15 +2840,15 @@
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是IPT1。"</f>
-        <v>个位是8，十位是5的数是IPT1。</v>
+        <v>个位是2，十位是7的数是IPT1。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2860,7 +2860,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比IPT1少"&amp;E35&amp;"，"&amp;F35&amp;"里面有IPT1个十和IPT1个一。"</f>
-        <v>18比IPT1少2，58里面有IPT1个十和IPT1个一。</v>
+        <v>18比IPT1少2，87里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2959,11 +2959,11 @@
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数IPT1，IPT1，IPT1。"</f>
-        <v>按从小到大的顺序填出12前面的三个数IPT1，IPT1，IPT1。</v>
+        <v>按从小到大的顺序填出77前面的三个数IPT1，IPT1，IPT1。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2976,15 +2976,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -3013,11 +3013,11 @@
       </c>
       <c r="C37" s="8" t="str">
         <f ca="1">D37&amp;"添上1是IPT1个十。"&amp;E37&amp;"添上1是IPT1。"</f>
-        <v>49添上1是IPT1个十。19添上1是IPT1。</v>
+        <v>39添上1是IPT1个十。19添上1是IPT1。</v>
       </c>
       <c r="D37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E37" s="7">
         <f ca="1">RANDBETWEEN(X37,Y37)*10+9</f>
@@ -3033,7 +3033,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="6">
         <f ca="1">TRUNC((D37+1)/10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" s="6">
         <f ca="1">E37+1</f>
@@ -3067,11 +3067,11 @@
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。"</f>
-        <v>写出小于三十的3个个位是6的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。</v>
+        <v>写出小于三十的3个个位是7的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -3084,15 +3084,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3121,23 +3121,23 @@
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + IPT1 &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; IPT1 + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 8 + IPT1 &lt; 19； 12 &gt; IPT1 + 1。</v>
+        <v>方框里最大填几： 2 + IPT1 &lt; 13； 11 &gt; IPT1 + 9。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上IPT1就和"&amp;E40&amp;"同样多。"</f>
-        <v>2再添上IPT1就和10同样多。</v>
+        <v>6再添上IPT1就和10同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
@@ -3205,7 +3205,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3240,15 +3240,15 @@
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是IPT1，"&amp;E41&amp;"后面一个数是IPT1。"</f>
-        <v>从10开始十个十个地数，90前面的一个数是IPT1，60后面一个数是IPT1。</v>
+        <v>从10开始十个十个地数，20前面的一个数是IPT1，20后面一个数是IPT1。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -3260,11 +3260,11 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
@@ -3294,31 +3294,31 @@
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝IPT1－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－IPT1。"</f>
-        <v>14－7＝IPT1－3， 20－1＝20－IPT1。</v>
+        <v>13－1＝IPT1－1， 14－6＝17－IPT1。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3326,11 +3326,11 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3364,11 +3364,11 @@
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是IPT1。一百以内个位是"&amp;E43&amp;"的两位数有IPT1个。"</f>
-        <v>比最大的两位数小3的数是IPT1。一百以内个位是8的两位数有IPT1个。</v>
+        <v>比最大的两位数小4的数是IPT1。一百以内个位是8的两位数有IPT1个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
@@ -3384,7 +3384,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3464,11 +3464,11 @@
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有IPT1个。"</f>
-        <v>一百以内十位是9的两位数有IPT1个。</v>
+        <v>一百以内十位是3的两位数有IPT1个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3511,15 +3511,15 @@
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是IPT1。"</f>
-        <v>减数是8，被减数是17，它们的差是IPT1。</v>
+        <v>减数是2，被减数是13，它们的差是IPT1。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3531,7 +3531,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是IPT1，差是IPT1。"</f>
-        <v>两个数都是11，它们的和是IPT1，差是IPT1。</v>
+        <v>两个数都是13，它们的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3583,7 +3583,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3657,15 +3657,15 @@
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是IPT1，差是IPT1。"</f>
-        <v>一个数比19大8，另一个数比19小8，这两个数的和是IPT1，差是IPT1。</v>
+        <v>一个数比11大4，另一个数比11小4，这两个数的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3677,11 +3677,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; IPT1； "&amp;F50&amp;" - IPT1 &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 2 + 14 &lt; IPT1； 10 - IPT1 &lt; 4。</v>
+        <v>方框里最小填几： 2 + 15 &lt; IPT1； 20 - IPT1 &lt; 9。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
@@ -3723,15 +3723,15 @@
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3741,11 +3741,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3779,15 +3779,15 @@
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有IPT1个数字。"</f>
-        <v>14和18之间有IPT1个数字。</v>
+        <v>17和24之间有IPT1个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3799,7 +3799,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3926,15 +3926,15 @@
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是IPT1"</f>
-        <v>一个两位数，个位数是2， 十位数上的数字比个位数上的数字大3， 这个两位是IPT1</v>
+        <v>一个两位数，个位数是0， 十位数上的数字比个位数上的数字大4， 这个两位是IPT1</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3946,7 +3946,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3981,15 +3981,15 @@
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是IPT1"</f>
-        <v>一个计数器，十位上有3个珠子，个位上有3个珠子，这个数是IPT1</v>
+        <v>一个计数器，十位上有2个珠子，个位上有8个珠子，这个数是IPT1</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -4001,7 +4001,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -4036,15 +4036,15 @@
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是IPT1"</f>
-        <v>一个计数器，个位上有2个珠子，十位上的珠子比个位上的多2个，这个数是IPT1</v>
+        <v>一个计数器，个位上有0个珠子，十位上的珠子比个位上的多1个，这个数是IPT1</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -4056,7 +4056,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是IPT1"</f>
-        <v>一个加数是17，另一个加数是9，求和是IPT1</v>
+        <v>一个加数是17，另一个加数是1，求和是IPT1</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -4111,7 +4111,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4146,15 +4146,15 @@
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是IPT1"</f>
-        <v>被减数11， 减数是比被减数少8的数，求差是IPT1</v>
+        <v>被减数15， 减数是比被减数少9的数，求差是IPT1</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4166,7 +4166,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多IPT1; "&amp;F60&amp;"比"&amp;G60&amp;"少IPT1"</f>
-        <v>11比6多IPT1; 2比16少IPT1</v>
+        <v>11比1多IPT1; 7比14少IPT1</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
@@ -4253,15 +4253,15 @@
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4271,11 +4271,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在IPT1位上，表示IPT1个IPT1。"</f>
-        <v>93的9在IPT1位上，表示IPT1个IPT1。</v>
+        <v>92的9在IPT1位上，表示IPT1个IPT1。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、IPT1、IPT1、IPT1"</f>
-        <v>找规律：58、57、49、48、IPT1、IPT1、IPT1</v>
+        <v>找规律：58、55、46、43、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
@@ -4376,11 +4376,11 @@
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4391,15 +4391,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4436,15 +4436,15 @@
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是IPT1。这个两位数里面有IPT1个十。"</f>
-        <v>3个一和9个十合起来是IPT1。这个两位数里面有IPT1个十。</v>
+        <v>1个一和5个十合起来是IPT1。这个两位数里面有IPT1个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4456,11 +4456,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4494,15 +4494,15 @@
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是IPT1"</f>
-        <v>5个十和4个一是IPT1</v>
+        <v>3个十和3个一是IPT1</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4514,7 +4514,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4549,15 +4549,15 @@
       </c>
       <c r="C65" s="8" t="str">
         <f ca="1">"找规律："&amp;D65&amp;"、"&amp;D65+E65&amp;"、"&amp;D65+E65*2&amp;"、"&amp;D65+E65*3&amp;"、IPT1、IPT1"</f>
-        <v>找规律：8、13、18、23、IPT1、IPT1</v>
+        <v>找规律：4、8、12、16、IPT1、IPT1</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E65" s="7">
         <f ca="1">RANDBETWEEN(Z65,AA65)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -4569,11 +4569,11 @@
       <c r="M65" s="7"/>
       <c r="N65" s="6">
         <f ca="1">D65+E65*4</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O65" s="6">
         <f ca="1">D65+E65*5</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：IPT1、"&amp;D66&amp;"、IPT1、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、IPT1"</f>
-        <v>找规律：IPT1、6、IPT1、8、9、IPT1</v>
+        <v>找规律：IPT1、7、IPT1、9、10、IPT1</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4624,15 +4624,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="6">
         <f ca="1">D66-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O66" s="6">
         <f ca="1">D66+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P66" s="6">
         <f ca="1">D66+4</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4661,11 +4661,11 @@
       </c>
       <c r="C67" s="8" t="str">
         <f ca="1">"找规律："&amp;D67&amp;"、IPT1、"&amp;D67+2&amp;"、IPT1、IPT1、"&amp;D67+5&amp;""</f>
-        <v>找规律：17、IPT1、19、IPT1、IPT1、22</v>
+        <v>找规律：10、IPT1、12、IPT1、IPT1、15</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -4678,15 +4678,15 @@
       <c r="M67" s="7"/>
       <c r="N67" s="6">
         <f ca="1">D67+1</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O67" s="6">
         <f ca="1">D67+3</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P67" s="6">
         <f ca="1">D67+4</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4776,11 +4776,11 @@
       </c>
       <c r="C69" s="8" t="str">
         <f ca="1">"找规律："&amp;D69&amp;"、"&amp;D69+2&amp;"、IPT1、IPT1、"&amp;D69+8&amp;"、IPT1、"&amp;D69+12&amp;""</f>
-        <v>找规律：7、9、IPT1、IPT1、15、IPT1、19</v>
+        <v>找规律：5、7、IPT1、IPT1、13、IPT1、17</v>
       </c>
       <c r="D69" s="7">
         <f ca="1">INT(RAND()*5)*2+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4793,15 +4793,15 @@
       <c r="M69" s="7"/>
       <c r="N69" s="6">
         <f ca="1">D69+4</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O69" s="6">
         <f ca="1">D69+6</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P69" s="6">
         <f ca="1">D69+12</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
@@ -4826,11 +4826,11 @@
       </c>
       <c r="C70" s="8" t="str">
         <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、IPT1、IPT1、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、IPT1"</f>
-        <v>找规律：2、4、IPT1、IPT1、10、12、IPT1</v>
+        <v>找规律：8、10、IPT1、IPT1、16、18、IPT1</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4843,15 +4843,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -5029,11 +5029,11 @@
       </c>
       <c r="C74" s="8" t="str">
         <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、IPT1、IPT1"</f>
-        <v>找规律：3、4、6、9、IPT1、IPT1</v>
+        <v>找规律：5、6、8、11、IPT1、IPT1</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -5046,11 +5046,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -5080,15 +5080,15 @@
       </c>
       <c r="C75" s="8" t="str">
         <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、IPT1、IPT1、IPT1、IPT1"</f>
-        <v>找规律：16、1、13、1、10、IPT1、IPT1、IPT1、IPT1</v>
+        <v>找规律：20、1、18、1、16、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -5103,14 +5103,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5351,15 +5351,15 @@
       </c>
       <c r="C80" s="8" t="str">
         <f ca="1">"小明家在"&amp;D80&amp;"楼，每一层有"&amp;E80&amp;"格楼梯，请问小明走到家需要走IPT1格楼梯？"</f>
-        <v>小明家在3楼，每一层有7格楼梯，请问小明走到家需要走IPT1格楼梯？</v>
+        <v>小明家在2楼，每一层有8格楼梯，请问小明走到家需要走IPT1格楼梯？</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" ref="D80" ca="1" si="6">RANDBETWEEN(X80,Y80)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="7">
         <f ca="1">RANDBETWEEN(Z80,AA80)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -5371,7 +5371,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="6">
         <f ca="1">E80*D80</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C81" s="8" t="str">
         <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩IPT1只？一共飞走IPT1只？"</f>
-        <v>树上有10只小鸟，先飞走1只，又飞走3只，还剩IPT1只？一共飞走IPT1只？</v>
+        <v>树上有20只小鸟，先飞走8只，又飞走6只，还剩IPT1只？一共飞走IPT1只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5427,8 +5427,14 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+      <c r="N81" s="6">
+        <f ca="1">D81-E81-F81</f>
+        <v>6</v>
+      </c>
+      <c r="O81" s="6">
+        <f ca="1">E81+F81</f>
+        <v>14</v>
+      </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
@@ -5438,16 +5444,16 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y81" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z81" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA81" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
@@ -5461,11 +5467,11 @@
       </c>
       <c r="C82" s="8" t="str">
         <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔IPT1块糖，他们就同样多了。"</f>
-        <v>小猪有20块糖，小兔有12块糖，小猪给小兔IPT1块糖，他们就同样多了。</v>
+        <v>小猪有18块糖，小兔有12块糖，小猪给小兔IPT1块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
@@ -5481,7 +5487,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="6">
         <f ca="1">(IF(MOD(D82, 2) = 1, D82+1, D82)-IF(MOD(E82, 2) = 1, E82+1, E82))/2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -5516,11 +5522,11 @@
       </c>
       <c r="C83" s="8" t="str">
         <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有IPT1个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第9个，从后面数是排在第2个，这一列有IPT1个小朋友？</v>
+        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第2个，这一列有IPT1个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
@@ -5536,7 +5542,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="6">
         <f ca="1">D83+E83-1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5623,11 +5629,11 @@
       </c>
       <c r="C85" s="8" t="str">
         <f ca="1">D85&amp;"角 = IPT1元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = IPT1角"</f>
-        <v>40角 = IPT1元；  3元4角 = IPT1角</v>
+        <v>30角 = IPT1元；  3元2角 = IPT1角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">RANDBETWEEN(Z85,AA85)</f>
@@ -5635,7 +5641,7 @@
       </c>
       <c r="F85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -5646,11 +5652,11 @@
       <c r="M85" s="7"/>
       <c r="N85" s="6">
         <f ca="1">D85/10</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
@@ -5687,19 +5693,19 @@
       </c>
       <c r="C86" s="8" t="str">
         <f ca="1">D86&amp;"角 = IPT1元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = IPT1角"</f>
-        <v>50角 = IPT1元；  3元3角 = IPT1角</v>
+        <v>30角 = IPT1元；  2元4角 = IPT1角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5710,11 +5716,11 @@
       <c r="M86" s="7"/>
       <c r="N86" s="6">
         <f ca="1">D86/10</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5748,19 +5754,19 @@
       </c>
       <c r="C87" s="8" t="str">
         <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=IPT1   △=IPT1"</f>
-        <v>△-□=7    □+9=20   请回答一下问题：□=IPT1   △=IPT1</v>
+        <v>△-□=1    □+3=10   请回答一下问题：□=IPT1   △=IPT1</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" ref="D87:D89" ca="1" si="9">RANDBETWEEN(X87,Y87)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E87" s="7">
         <f ca="1">RANDBETWEEN(X87,Y87)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F87" s="7">
         <f ca="1">RANDBETWEEN(Z87,AA87)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -5771,11 +5777,11 @@
       <c r="M87" s="7"/>
       <c r="N87" s="6">
         <f ca="1">F87-E87</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O87" s="6">
         <f ca="1">F87+D87</f>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -5853,11 +5859,11 @@
       </c>
       <c r="C89" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有IPT1个，最小的是IPT1"</f>
-        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有IPT1个，最小的是IPT1</v>
+        <v>一个两位数，十位数字比8大，个位数字比2小，这个两位数有IPT1个，最小的是IPT1</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" ref="E89:E96" ca="1" si="10">RANDBETWEEN(Z89,AA89)</f>
@@ -5873,11 +5879,11 @@
       <c r="M89" s="7"/>
       <c r="N89" s="6">
         <f ca="1">(9-D89)*E89</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O89" s="6">
         <f ca="1">(D89+1)*10</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -5911,11 +5917,11 @@
       </c>
       <c r="C90" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有IPT1个，最大的是IPT1"</f>
-        <v>一个两位数，十位数字比7大，个位数字比2小，这个两位数有IPT1个，最大的是IPT1</v>
+        <v>一个两位数，十位数字比8大，个位数字比2小，这个两位数有IPT1个，最大的是IPT1</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" ref="D90:D91" ca="1" si="11">RANDBETWEEN(X90,Y90)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -5931,7 +5937,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="6">
         <f ca="1">(9-D90)*E90</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O90" s="6">
         <f ca="1">90+(E90-1)</f>
@@ -5969,15 +5975,15 @@
       </c>
       <c r="C91" s="8" t="str">
         <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)"</f>
-        <v>9＋□＜16，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)</v>
+        <v>5＋□＜15，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5989,23 +5995,23 @@
       <c r="M91" s="7"/>
       <c r="N91" s="6">
         <f ca="1">E91-D91-1</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O91" s="6">
         <f ca="1">N91-1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P91" s="6">
         <f ca="1">O91-1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q91" s="6">
         <f ca="1">P91-1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R91" s="6">
         <f ca="1">Q91-1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -6036,15 +6042,15 @@
       </c>
       <c r="C92" s="8" t="str">
         <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)"</f>
-        <v>15-□＜7，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)</v>
+        <v>20-□＜5，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" ref="D92:D94" ca="1" si="12">RANDBETWEEN(X92,Y92)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E92" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -6056,23 +6062,23 @@
       <c r="M92" s="7"/>
       <c r="N92" s="6">
         <f ca="1">E92-D92+1</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O92" s="6">
         <f ca="1">N92+1</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P92" s="6">
         <f ca="1">O92+1</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q92" s="6">
         <f ca="1">P92+1</f>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="R92" s="6">
         <f ca="1">Q92+1</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -6103,15 +6109,15 @@
       </c>
       <c r="C93" s="8" t="str">
         <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多IPT1张？"</f>
-        <v>大华和小刚每人有6张画片，大华给小刚5张后，小刚比大华多IPT1张？</v>
+        <v>大华和小刚每人有7张画片，大华给小刚4张后，小刚比大华多IPT1张？</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -6123,7 +6129,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="6">
         <f ca="1">E93*2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -6158,7 +6164,7 @@
       </c>
       <c r="C94" s="8" t="str">
         <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有IPT1个玩具。"</f>
-        <v>小红有9个玩具，小英的玩具比小红多3个，小明的玩具比小英少4个，小明有IPT1个玩具。</v>
+        <v>小红有9个玩具，小英的玩具比小红多2个，小明的玩具比小英少3个，小明有IPT1个玩具。</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" ca="1" si="12"/>
@@ -6166,11 +6172,11 @@
       </c>
       <c r="E94" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" s="7">
         <f ca="1">RANDBETWEEN(Z94,AA94)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -6271,15 +6277,15 @@
       </c>
       <c r="C96" s="8" t="str">
         <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有IPT1人。"</f>
-        <v>一队人，从左向右数，小张站在第4个，从右往左数，他站在第5个，这队共有IPT1人。</v>
+        <v>一队人，从左向右数，小张站在第6个，从右往左数，他站在第7个，这队共有IPT1人。</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" ref="D96:D100" ca="1" si="14">RANDBETWEEN(X96,Y96)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
@@ -6291,7 +6297,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="6">
         <f ca="1">D96+E96-1</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6372,11 +6378,11 @@
       </c>
       <c r="C98" s="8" t="str">
         <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。"</f>
-        <v>一个小朋友唱一首歌要6分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。</v>
+        <v>一个小朋友唱一首歌要3分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -6389,7 +6395,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="6">
         <f ca="1">D98</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -6420,15 +6426,15 @@
       </c>
       <c r="C99" s="8" t="str">
         <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年IPT1岁。"</f>
-        <v>小云今年7岁，奶奶说：“当你长到16岁的时候，我就是70岁了。“奶奶今年IPT1岁。</v>
+        <v>小云今年10岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年IPT1岁。</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99" s="7">
         <f ca="1">RANDBETWEEN(Z99,AA99)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F99" s="7">
         <v>70</v>
@@ -6442,7 +6448,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="6">
         <f ca="1">F99-(E99-D99)</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -6477,15 +6483,15 @@
       </c>
       <c r="C100" s="8" t="str">
         <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了IPT1米。"</f>
-        <v>一根60米长的绳子，做跳绳用去5米，修排球网用去17米，这根绳子少了IPT1米。</v>
+        <v>一根60米长的绳子，做跳绳用去6米，修排球网用去19米，这根绳子少了IPT1米。</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E100" s="7">
         <f ca="1">RANDBETWEEN(Z100,AA100)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -6497,7 +6503,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="6">
         <f ca="1">D100+E100</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>

--- a/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
+++ b/Tools/MathWordProblemsConsoleApp/App_Data/GapFillingProblems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -525,7 +525,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>0105</t>
+  </si>
+  <si>
     <t>010401</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>010501</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0106</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1037,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AD107"/>
+  <dimension ref="A2:AD109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="O72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y81" sqref="Y81"/>
+      <selection pane="bottomRight" activeCell="AD109" sqref="AD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1155,11 +1166,11 @@
       </c>
       <c r="C3" s="8" t="str">
         <f ca="1">D3 &amp; " 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。"</f>
-        <v>11 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。</v>
+        <v>96 里面有IPT1个十和IPT1个一，这个数在IPT1和IPT1的中间。</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(X3,Y3)</f>
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1172,19 +1183,19 @@
       <c r="M3" s="7"/>
       <c r="N3" s="6">
         <f ca="1">TRUNC(D3/10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O3" s="6">
         <f ca="1">MOD(D3, 10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P3" s="6">
         <f ca="1">D3-1</f>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="6">
         <f ca="1">D3+1</f>
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -1212,15 +1223,15 @@
       </c>
       <c r="C4" s="8" t="str">
         <f ca="1">D4 &amp; " 个十是IPT1，" &amp; E4 &amp; " 里面有IPT1个一。"</f>
-        <v>8 个十是IPT1，6 里面有IPT1个一。</v>
+        <v>3 个十是IPT1，8 里面有IPT1个一。</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="7">
         <f ca="1">RANDBETWEEN(X4,Y4)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1232,11 +1243,11 @@
       <c r="M4" s="7"/>
       <c r="N4" s="6">
         <f ca="1">D4*10</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O4" s="6">
         <f ca="1">E4</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1266,11 +1277,11 @@
       </c>
       <c r="C5" s="8" t="str">
         <f ca="1">"一个数的个位上是" &amp; D5 &amp; "，十位是" &amp; E5 &amp; "，这个数是IPT1，它在IPT1的后面。"</f>
-        <v>一个数的个位上是8，十位是5，这个数是IPT1，它在IPT1的后面。</v>
+        <v>一个数的个位上是5，十位是5，这个数是IPT1，它在IPT1的后面。</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">RANDBETWEEN(X5,Y5)</f>
@@ -1286,11 +1297,11 @@
       <c r="M5" s="7"/>
       <c r="N5" s="6">
         <f ca="1">E5*10 + D5</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O5" s="6">
         <f ca="1">N5+1</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1320,15 +1331,15 @@
       </c>
       <c r="C6" s="8" t="str">
         <f ca="1">"比"&amp;D6&amp;"大比"&amp; E6 &amp;"小的数有IPT1， IPT1， IPT1。(从小到大的顺序)"</f>
-        <v>比20大比24小的数有IPT1， IPT1， IPT1。(从小到大的顺序)</v>
+        <v>比12大比16小的数有IPT1， IPT1， IPT1。(从小到大的顺序)</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">D6+4</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1340,15 +1351,15 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6">
         <f ca="1">D6+1</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O6" s="6">
         <f ca="1">D6+2</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P6" s="6">
         <f ca="1">D6+3</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1377,15 +1388,15 @@
       </c>
       <c r="C7" s="8" t="str">
         <f ca="1">D7 &amp; "个一和" &amp; E7 &amp; "个十组成IPT1，和它相邻的数有IPT1和IPT1。"</f>
-        <v>4个一和7个十组成IPT1，和它相邻的数有IPT1和IPT1。</v>
+        <v>5个一和9个十组成IPT1，和它相邻的数有IPT1和IPT1。</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">RANDBETWEEN(X7,Y7)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1397,15 +1408,15 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6">
         <f ca="1">E7*10 + D7</f>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O7" s="6">
         <f ca="1">N7-1</f>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="P7" s="6">
         <f ca="1">N7+1</f>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1434,11 +1445,11 @@
       </c>
       <c r="C8" s="8" t="str">
         <f ca="1">"比"&amp; D8 &amp; "大" &amp; E8 &amp; "的数是IPT1，比" &amp; F8 &amp; "小" &amp; G8 &amp; "的数是IPT1。"</f>
-        <v>比20大4的数是IPT1，比15小4的数是IPT1。</v>
+        <v>比3大4的数是IPT1，比14小4的数是IPT1。</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
@@ -1446,7 +1457,7 @@
       </c>
       <c r="F8" s="7">
         <f ca="1">RANDBETWEEN(AB8,AC8)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7">
         <f ca="1">RANDBETWEEN(Z8,AA8)</f>
@@ -1460,11 +1471,11 @@
       <c r="M8" s="7"/>
       <c r="N8" s="6">
         <f ca="1">D8+E8</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="O8" s="6">
         <f ca="1">F8-G8</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1502,11 +1513,11 @@
       </c>
       <c r="C9" s="8" t="str">
         <f ca="1">D9&amp;"里面有IPT1个十；也可以说" &amp; D9 &amp; "里面有IPT1个一。"</f>
-        <v>70里面有IPT1个十；也可以说70里面有IPT1个一。</v>
+        <v>30里面有IPT1个十；也可以说30里面有IPT1个一。</v>
       </c>
       <c r="D9" s="7">
         <f ca="1">RANDBETWEEN(X9,Y9)*10</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1519,11 +1530,11 @@
       <c r="M9" s="7"/>
       <c r="N9" s="6">
         <f ca="1">TRUNC(D9/10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O9" s="6">
         <f ca="1">D9</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1553,15 +1564,15 @@
       </c>
       <c r="C10" s="8" t="str">
         <f ca="1">"小朋友们排队做操，小华前面有"&amp;D10&amp;"人，后面有"&amp;E10&amp;"人，这队一共有IPT1人。 "</f>
-        <v>小朋友们排队做操，小华前面有6人，后面有4人，这队一共有IPT1人。 </v>
+        <v>小朋友们排队做操，小华前面有9人，后面有7人，这队一共有IPT1人。 </v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:D18" ca="1" si="1">RANDBETWEEN(X10,Y10)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7">
         <f ca="1">RANDBETWEEN(X10,Y10)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1573,7 +1584,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="6">
         <f ca="1">D10+E10+1</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1604,15 +1615,15 @@
       </c>
       <c r="C11" s="8" t="str">
         <f ca="1">D11&amp;"个一和"&amp;E11&amp;"个十合起来是IPT1。"</f>
-        <v>9个一和2个十合起来是IPT1。</v>
+        <v>8个一和1个十合起来是IPT1。</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="7">
         <f ca="1">RANDBETWEEN(X11,Y11)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1624,7 +1635,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="6">
         <f ca="1">E11*10+D11</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1655,19 +1666,19 @@
       </c>
       <c r="C12" s="8" t="str">
         <f ca="1">"个位是"&amp;D12&amp;"，十位上是"&amp;E12&amp;"，这个数是IPT1，"&amp;F12&amp;"里面有IPT1个十和IPT1个一。"</f>
-        <v>个位是3，十位上是9，这个数是IPT1，13里面有IPT1个十和IPT1个一。</v>
+        <v>个位是7，十位上是8，这个数是IPT1，46里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" s="7">
         <f ca="1">RANDBETWEEN(X12,Y12)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="7">
         <f ca="1">RANDBETWEEN(10,99)</f>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1678,15 +1689,15 @@
       <c r="M12" s="7"/>
       <c r="N12" s="6">
         <f ca="1">E12*10+D12</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O12" s="6">
         <f ca="1">TRUNC(F12/10)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" s="6">
         <f ca="1">MOD(F12, 10)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1715,11 +1726,11 @@
       </c>
       <c r="C13" s="8" t="str">
         <f ca="1">"和"&amp;D13&amp;"相邻的两个数是IPT1和IPT1。"</f>
-        <v>和90相邻的两个数是IPT1和IPT1。</v>
+        <v>和93相邻的两个数是IPT1和IPT1。</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1732,11 +1743,11 @@
       <c r="M13" s="7"/>
       <c r="N13" s="6">
         <f ca="1">D13-1</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O13" s="6">
         <f ca="1">D13+1</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1766,15 +1777,15 @@
       </c>
       <c r="C14" s="8" t="str">
         <f ca="1">"个位是"&amp;D14&amp;"，十位上是"&amp;E14&amp;"，这个数是IPT1。"</f>
-        <v>个位是1，十位上是7，这个数是IPT1。</v>
+        <v>个位是4，十位上是6，这个数是IPT1。</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="7">
         <f ca="1">RANDBETWEEN(X14,Y14)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1786,7 +1797,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="6">
         <f ca="1">E14*10+D14</f>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -1817,19 +1828,19 @@
       </c>
       <c r="C15" s="8" t="str">
         <f ca="1">D15&amp;"里面有"&amp;E15&amp;"个IPT1和"&amp;F15&amp;"个IPT1 。"</f>
-        <v>27里面有2个IPT1和7个IPT1 。</v>
+        <v>78里面有7个IPT1和8个IPT1 。</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7">
         <f ca="1">TRUNC(D15/10)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F15" s="7">
         <f ca="1">MOD(D15, 10)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1872,23 +1883,23 @@
       </c>
       <c r="C16" s="8" t="str">
         <f ca="1">D16&amp;"比"&amp;E16&amp;"多IPT1， "&amp;F16&amp;"比"&amp;G16&amp;"少IPT1。"</f>
-        <v>18比2多IPT1， 18比2少IPT1。</v>
+        <v>7比7多IPT1， 13比4少IPT1。</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F16" s="7">
         <f ca="1">RANDBETWEEN(AB16,AC16)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7">
         <f ca="1">RANDBETWEEN(Z16,AA16)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1898,11 +1909,11 @@
       <c r="M16" s="7"/>
       <c r="N16" s="6">
         <f ca="1">D16-E16</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6">
         <f ca="1">F16-G16</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -1940,11 +1951,11 @@
       </c>
       <c r="C17" s="8" t="str">
         <f ca="1">D17&amp;"前面的一个数是IPT1，后面的一个数是IPT1。"</f>
-        <v>85前面的一个数是IPT1，后面的一个数是IPT1。</v>
+        <v>51前面的一个数是IPT1，后面的一个数是IPT1。</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1957,11 +1968,11 @@
       <c r="M17" s="7"/>
       <c r="N17" s="6">
         <f ca="1">D17-1</f>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="O17" s="6">
         <f ca="1">D17+1</f>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1991,11 +2002,11 @@
       </c>
       <c r="C18" s="8" t="str">
         <f ca="1">"在"&amp;I18&amp;"，"&amp;J18&amp;"，"&amp;K18&amp;"，"&amp;L18&amp;"，"&amp;M18&amp;"中，共有IPT1个数，从左往右数，第"&amp;D18&amp;"个数是IPT1，从右往左数，第"&amp;E18&amp;"个是IPT1，其中最大的数是IPT1，最小的数是IPT1。"</f>
-        <v>在10，4，16，6，29中，共有IPT1个数，从左往右数，第5个数是IPT1，从右往左数，第5个是IPT1，其中最大的数是IPT1，最小的数是IPT1。</v>
+        <v>在14，5，19，6，24中，共有IPT1个数，从左往右数，第4个数是IPT1，从右往左数，第5个是IPT1，其中最大的数是IPT1，最小的数是IPT1。</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7">
         <f ca="1">RANDBETWEEN(X18,Y18)</f>
@@ -2006,15 +2017,15 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7">
         <f ca="1">RANDBETWEEN(10,14)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J18" s="7">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" s="7">
         <f ca="1">RANDBETWEEN(15,20)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7">
         <f ca="1">RANDBETWEEN(6,9)</f>
@@ -2022,26 +2033,26 @@
       </c>
       <c r="M18" s="7">
         <f ca="1">RANDBETWEEN(21,30)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N18" s="6">
         <v>5</v>
       </c>
       <c r="O18" s="6">
         <f ca="1">INDEX(I18:M18,D18)</f>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="P18" s="6">
         <f ca="1">INDEX(I18:M18,5-E18+1)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="6">
         <f ca="1">MAX(I18:M18)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R18" s="6">
         <f ca="1">MIN(J18:N18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -2158,19 +2169,19 @@
       </c>
       <c r="C21" s="8" t="str">
         <f ca="1">D21&amp;"个一和"&amp;E21&amp;"个十组成IPT1，它的前面一个数是IPT1，比它大"&amp;F21&amp;"的数是IPT1"</f>
-        <v>9个一和1个十组成IPT1，它的前面一个数是IPT1，比它大5的数是IPT1</v>
+        <v>7个一和2个十组成IPT1，它的前面一个数是IPT1，比它大2的数是IPT1</v>
       </c>
       <c r="D21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <f ca="1">RANDBETWEEN(Z21,AA21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <f ca="1">RANDBETWEEN(X21,Y21)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2181,15 +2192,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="6">
         <f ca="1">E21*10+D21</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O21" s="6">
         <f ca="1">N21-1</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P21" s="6">
         <f ca="1">N21+F21</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2266,7 +2277,7 @@
       </c>
       <c r="C23" s="8" t="str">
         <f ca="1">D23&amp;"-"&amp;E23&amp;"=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。"</f>
-        <v>14-2=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。</v>
+        <v>14-5=IPT1，在这个算式中，减数是IPT1，被减数是IPT1。</v>
       </c>
       <c r="D23" s="7">
         <f ca="1">RANDBETWEEN(X23,Y23)</f>
@@ -2274,7 +2285,7 @@
       </c>
       <c r="E23" s="7">
         <f ca="1">RANDBETWEEN(Z23,AA23)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2286,11 +2297,11 @@
       <c r="M23" s="7"/>
       <c r="N23" s="6">
         <f ca="1">D23-E23</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O23" s="6">
         <f ca="1">E23</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P23" s="6">
         <f ca="1">D23</f>
@@ -2413,19 +2424,19 @@
       </c>
       <c r="C26" s="8" t="str">
         <f ca="1">D26&amp;"个位上的"&amp;E26&amp;"表示"&amp;E26&amp;"个IPT1。十位上的"&amp;F26&amp;"表示"&amp;F26&amp;"个IPT1。"</f>
-        <v>75个位上的5表示5个IPT1。十位上的7表示7个IPT1。</v>
+        <v>66个位上的6表示6个IPT1。十位上的6表示6个IPT1。</v>
       </c>
       <c r="D26" s="7">
         <f ca="1">RANDBETWEEN(X26,Y26)</f>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E26" s="7">
         <f ca="1">MOD(D26, 10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="7">
         <f ca="1">TRUNC(D26/10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2468,11 +2479,11 @@
       </c>
       <c r="C27" s="8" t="str">
         <f ca="1">"两个加数都是"&amp;D27&amp;"，那么它们的和是IPT1。"</f>
-        <v>两个加数都是4，那么它们的和是IPT1。</v>
+        <v>两个加数都是3，那么它们的和是IPT1。</v>
       </c>
       <c r="D27" s="7">
         <f ca="1">RANDBETWEEN(X27,Y27)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2485,7 +2496,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="6">
         <f ca="1">D27*2</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2516,15 +2527,15 @@
       </c>
       <c r="C28" s="8" t="str">
         <f ca="1">"被减数是"&amp;D28&amp;"，减数是"&amp;E28&amp;"，它们的差是IPT1。"</f>
-        <v>被减数是15，减数是2，它们的差是IPT1。</v>
+        <v>被减数是16，减数是3，它们的差是IPT1。</v>
       </c>
       <c r="D28" s="7">
         <f ca="1">RANDBETWEEN(X28,Y28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="7">
         <f ca="1">RANDBETWEEN(Z28,AA28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -2571,11 +2582,11 @@
       </c>
       <c r="C29" s="8" t="str">
         <f ca="1">D29&amp;"比IPT1大1，比IPT1小1。"</f>
-        <v>15比IPT1大1，比IPT1小1。</v>
+        <v>13比IPT1大1，比IPT1小1。</v>
       </c>
       <c r="D29" s="7">
         <f ca="1">RANDBETWEEN(X29,Y29)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2588,11 +2599,11 @@
       <c r="M29" s="7"/>
       <c r="N29" s="6">
         <f ca="1">D29-1</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O29" s="6">
         <f ca="1">D29+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -2719,15 +2730,15 @@
       </c>
       <c r="C32" s="8" t="str">
         <f ca="1">"比"&amp;D32&amp;"大"&amp;E32&amp;"的数是IPT1，比它小"&amp;E32&amp;"的数是IPT1。"</f>
-        <v>比18大7的数是IPT1，比它小7的数是IPT1。</v>
+        <v>比10大9的数是IPT1，比它小9的数是IPT1。</v>
       </c>
       <c r="D32" s="7">
         <f ca="1">RANDBETWEEN(X32,Y32)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7">
         <f ca="1">RANDBETWEEN(Z32,AA32)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2739,11 +2750,11 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6">
         <f ca="1">D32+E32</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="O32" s="6">
         <f ca="1">D32-E32</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -2777,19 +2788,19 @@
       </c>
       <c r="C33" s="8" t="str">
         <f ca="1">D33&amp;"左边的"&amp;F33&amp;"在IPT1位，表示IPT1个IPT1。右边的"&amp;E33&amp;"表示IPT1个IPT1。"</f>
-        <v>93左边的9在IPT1位，表示IPT1个IPT1。右边的3表示IPT1个IPT1。</v>
+        <v>27左边的2在IPT1位，表示IPT1个IPT1。右边的7表示IPT1个IPT1。</v>
       </c>
       <c r="D33" s="7">
         <f ca="1">RANDBETWEEN(X33,Y33)</f>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E33" s="7">
         <f ca="1">MOD(D33, 10)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F33" s="7">
         <f ca="1">TRUNC(D33/10)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2803,14 +2814,14 @@
       </c>
       <c r="O33" s="6">
         <f ca="1">F33</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q33" s="6">
         <f ca="1">E33</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>47</v>
@@ -2840,15 +2851,15 @@
       </c>
       <c r="C34" s="8" t="str">
         <f ca="1">"个位是"&amp;D34&amp;"，十位是"&amp;E34&amp;"的数是IPT1。"</f>
-        <v>个位是2，十位是7的数是IPT1。</v>
+        <v>个位是9，十位是6的数是IPT1。</v>
       </c>
       <c r="D34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7">
         <f ca="1">RANDBETWEEN(X34,Y34)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -2860,7 +2871,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="6">
         <f ca="1">E34*10+D34</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -2891,7 +2902,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f ca="1">D35&amp;"比IPT1少"&amp;E35&amp;"，"&amp;F35&amp;"里面有IPT1个十和IPT1个一。"</f>
-        <v>18比IPT1少2，87里面有IPT1个十和IPT1个一。</v>
+        <v>18比IPT1少6，99里面有IPT1个十和IPT1个一。</v>
       </c>
       <c r="D35" s="7">
         <f ca="1">RANDBETWEEN(X35,Y35)</f>
@@ -2899,11 +2910,11 @@
       </c>
       <c r="E35" s="7">
         <f ca="1">RANDBETWEEN(Z35,AA35)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35" s="7">
         <f ca="1">RANDBETWEEN(AB35,AC35)</f>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2914,15 +2925,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="6">
         <f ca="1">D35+E35</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O35" s="6">
         <f ca="1">TRUNC(F35/10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P35" s="6">
         <f ca="1">MOD(F35, 10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2959,11 +2970,11 @@
       </c>
       <c r="C36" s="8" t="str">
         <f ca="1">"按从小到大的顺序填出"&amp;D36&amp;"前面的三个数IPT1，IPT1，IPT1。"</f>
-        <v>按从小到大的顺序填出77前面的三个数IPT1，IPT1，IPT1。</v>
+        <v>按从小到大的顺序填出15前面的三个数IPT1，IPT1，IPT1。</v>
       </c>
       <c r="D36" s="7">
         <f ca="1">RANDBETWEEN(X36,Y36)</f>
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2976,15 +2987,15 @@
       <c r="M36" s="7"/>
       <c r="N36" s="6">
         <f ca="1">D36-3</f>
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="O36" s="6">
         <f ca="1">D36-2</f>
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="P36" s="6">
         <f ca="1">D36-1</f>
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -3067,11 +3078,11 @@
       </c>
       <c r="C38" s="8" t="str">
         <f ca="1">"写出小于三十的3个个位是"&amp;D38&amp;"的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。"</f>
-        <v>写出小于三十的3个个位是7的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。</v>
+        <v>写出小于三十的3个个位是1的数，并按从大到小顺序排列：IPT1、IPT1、IPT1。</v>
       </c>
       <c r="D38" s="7">
         <f ca="1">RANDBETWEEN(X38,Y38)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -3084,15 +3095,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="6">
         <f ca="1">20+D38</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O38" s="6">
         <f ca="1">10+D38</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P38" s="6">
         <f ca="1">D38</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -3121,23 +3132,23 @@
       </c>
       <c r="C39" s="8" t="str">
         <f ca="1">"方框里最大填几： "&amp;D39&amp;" + IPT1 &lt; "&amp;E39&amp;"； "&amp;F39&amp;" &gt; IPT1 + "&amp;G39&amp;"。"</f>
-        <v>方框里最大填几： 2 + IPT1 &lt; 13； 11 &gt; IPT1 + 9。</v>
+        <v>方框里最大填几： 1 + IPT1 &lt; 16； 17 &gt; IPT1 + 3。</v>
       </c>
       <c r="D39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F39" s="7">
         <f ca="1">RANDBETWEEN(Z39,AA39)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G39" s="7">
         <f ca="1">RANDBETWEEN(X39,Y39)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -3147,11 +3158,11 @@
       <c r="M39" s="7"/>
       <c r="N39" s="6">
         <f ca="1">E39-D39-1</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O39" s="6">
         <f ca="1">F39-G39-1</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -3185,15 +3196,15 @@
       </c>
       <c r="C40" s="8" t="str">
         <f ca="1">D40&amp;"再添上IPT1就和"&amp;E40&amp;"同样多。"</f>
-        <v>6再添上IPT1就和10同样多。</v>
+        <v>8再添上IPT1就和14同样多。</v>
       </c>
       <c r="D40" s="7">
         <f ca="1">RANDBETWEEN(X40,Y40)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7">
         <f ca="1">RANDBETWEEN(Z40,AA40)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -3205,7 +3216,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="6">
         <f ca="1">E40-D40</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3240,11 +3251,11 @@
       </c>
       <c r="C41" s="8" t="str">
         <f ca="1">"从10开始十个十个地数，"&amp;D41&amp;"前面的一个数是IPT1，"&amp;E41&amp;"后面一个数是IPT1。"</f>
-        <v>从10开始十个十个地数，20前面的一个数是IPT1，20后面一个数是IPT1。</v>
+        <v>从10开始十个十个地数，90前面的一个数是IPT1，20后面一个数是IPT1。</v>
       </c>
       <c r="D41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E41" s="7">
         <f ca="1">RANDBETWEEN(X41,Y41)*10</f>
@@ -3260,7 +3271,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="6">
         <f ca="1">D41-10</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="O41" s="6">
         <f ca="1">E41+10</f>
@@ -3294,15 +3305,15 @@
       </c>
       <c r="C42" s="8" t="str">
         <f ca="1">D42&amp;"－"&amp;E42&amp;"＝IPT1－"&amp;F42&amp;"， "&amp;G42&amp;"－"&amp;H42&amp;"＝"&amp;I42&amp;"－IPT1。"</f>
-        <v>13－1＝IPT1－1， 14－6＝17－IPT1。</v>
+        <v>11－8＝IPT1－1， 10－1＝14－IPT1。</v>
       </c>
       <c r="D42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
@@ -3310,15 +3321,15 @@
       </c>
       <c r="G42" s="7">
         <f ca="1">RANDBETWEEN(X42,Y42)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H42" s="7">
         <f ca="1">RANDBETWEEN(Z42,AA42)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
         <f ca="1">RANDBETWEEN(G42-H42,Y42)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -3326,11 +3337,11 @@
       <c r="M42" s="7"/>
       <c r="N42" s="6">
         <f ca="1">D42-E42+F42</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O42" s="6">
         <f ca="1">I42-(G42-H42)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
@@ -3364,15 +3375,15 @@
       </c>
       <c r="C43" s="8" t="str">
         <f ca="1">"比最大的两位数小"&amp;D43&amp;"的数是IPT1。一百以内个位是"&amp;E43&amp;"的两位数有IPT1个。"</f>
-        <v>比最大的两位数小4的数是IPT1。一百以内个位是8的两位数有IPT1个。</v>
+        <v>比最大的两位数小1的数是IPT1。一百以内个位是4的两位数有IPT1个。</v>
       </c>
       <c r="D43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="7">
         <f ca="1">RANDBETWEEN(X43,Y43)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -3384,7 +3395,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="6">
         <f ca="1">99-D43</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O43" s="6">
         <v>10</v>
@@ -3464,11 +3475,11 @@
       </c>
       <c r="C45" s="8" t="str">
         <f ca="1">"一百以内十位是"&amp;D45&amp;"的两位数有IPT1个。"</f>
-        <v>一百以内十位是3的两位数有IPT1个。</v>
+        <v>一百以内十位是2的两位数有IPT1个。</v>
       </c>
       <c r="D45" s="7">
         <f ca="1">RANDBETWEEN(X45,Y45)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -3480,7 +3491,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -3511,15 +3522,15 @@
       </c>
       <c r="C46" s="8" t="str">
         <f ca="1">"减数是"&amp;D46&amp;"，被减数是"&amp;E46&amp;"，它们的差是IPT1。"</f>
-        <v>减数是2，被减数是13，它们的差是IPT1。</v>
+        <v>减数是1，被减数是19，它们的差是IPT1。</v>
       </c>
       <c r="D46" s="7">
         <f ca="1">RANDBETWEEN(X46,Y46)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="7">
         <f ca="1">RANDBETWEEN(Z46,AA46)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -3531,7 +3542,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="6">
         <f ca="1">E46-D46</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -3566,11 +3577,11 @@
       </c>
       <c r="C47" s="8" t="str">
         <f ca="1">"两个数都是"&amp;D47&amp;"，它们的和是IPT1，差是IPT1。"</f>
-        <v>两个数都是13，它们的和是IPT1，差是IPT1。</v>
+        <v>两个数都是17，它们的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D47" s="7">
         <f ca="1">RANDBETWEEN(X47,Y47)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -3583,7 +3594,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="6">
         <f ca="1">D47*2</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O47" s="6">
         <v>0</v>
@@ -3657,15 +3668,15 @@
       </c>
       <c r="C49" s="8" t="str">
         <f ca="1">"一个数比"&amp;D49&amp;"大"&amp;E49&amp;"，另一个数比"&amp;D49&amp;"小"&amp;E49&amp;"，这两个数的和是IPT1，差是IPT1。"</f>
-        <v>一个数比11大4，另一个数比11小4，这两个数的和是IPT1，差是IPT1。</v>
+        <v>一个数比12大5，另一个数比12小5，这两个数的和是IPT1，差是IPT1。</v>
       </c>
       <c r="D49" s="7">
         <f ca="1">RANDBETWEEN(X49,Y49)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <f ca="1">RANDBETWEEN(Z49,AA49)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -3677,11 +3688,11 @@
       <c r="M49" s="7"/>
       <c r="N49" s="6">
         <f ca="1">D49+E49+D49-E49</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O49" s="6">
         <f ca="1">D49+E49-(D49-E49)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
@@ -3715,11 +3726,11 @@
       </c>
       <c r="C50" s="8" t="str">
         <f ca="1">"方框里最小填几： "&amp;D50&amp;" + "&amp;E50&amp;" &lt; IPT1； "&amp;F50&amp;" - IPT1 &lt; "&amp;G50&amp;"。"</f>
-        <v>方框里最小填几： 2 + 15 &lt; IPT1； 20 - IPT1 &lt; 9。</v>
+        <v>方框里最小填几： 3 + 15 &lt; IPT1； 19 - IPT1 &lt; 4。</v>
       </c>
       <c r="D50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
@@ -3727,11 +3738,11 @@
       </c>
       <c r="F50" s="7">
         <f ca="1">RANDBETWEEN(Z50,AA50)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="7">
         <f ca="1">RANDBETWEEN(X50,Y50)+1</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -3741,11 +3752,11 @@
       <c r="M50" s="7"/>
       <c r="N50" s="6">
         <f ca="1">E50+D50+1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O50" s="6">
         <f ca="1">F50-G50+1</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
@@ -3779,15 +3790,15 @@
       </c>
       <c r="C51" s="8" t="str">
         <f ca="1">D51&amp;"和"&amp;D51+E51&amp;"之间有IPT1个数字。"</f>
-        <v>17和24之间有IPT1个数字。</v>
+        <v>11和16之间有IPT1个数字。</v>
       </c>
       <c r="D51" s="7">
         <f ca="1">RANDBETWEEN(X51,Y51)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E51" s="7">
         <f ca="1">RANDBETWEEN(Z51,AA51)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3799,7 +3810,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="6">
         <f ca="1">E51-1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3876,11 +3887,11 @@
       </c>
       <c r="C53" s="8" t="str">
         <f ca="1">"个位数上是"&amp;D53&amp;"的两位数有IPT1个。其中最大的是IPT1"</f>
-        <v>个位数上是6的两位数有IPT1个。其中最大的是IPT1</v>
+        <v>个位数上是8的两位数有IPT1个。其中最大的是IPT1</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D58" ca="1" si="2">RANDBETWEEN(X53,Y53)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3896,7 +3907,7 @@
       </c>
       <c r="O53" s="6">
         <f ca="1">90+D53</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -3926,15 +3937,15 @@
       </c>
       <c r="C54" s="8" t="str">
         <f ca="1">"一个两位数，个位数是"&amp;D54&amp;"， 十位数上的数字比个位数上的数字大"&amp;E54&amp;"， 这个两位是IPT1"</f>
-        <v>一个两位数，个位数是0， 十位数上的数字比个位数上的数字大4， 这个两位是IPT1</v>
+        <v>一个两位数，个位数是4， 十位数上的数字比个位数上的数字大1， 这个两位是IPT1</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E54" s="7">
         <f ca="1">RANDBETWEEN(Z54,AA54)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -3946,7 +3957,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="6">
         <f ca="1">(D54+E54)*10+D54</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -3981,15 +3992,15 @@
       </c>
       <c r="C55" s="8" t="str">
         <f ca="1">"一个计数器，十位上有"&amp;D55&amp;"个珠子，个位上有"&amp;E55&amp;"个珠子，这个数是IPT1"</f>
-        <v>一个计数器，十位上有2个珠子，个位上有8个珠子，这个数是IPT1</v>
+        <v>一个计数器，十位上有3个珠子，个位上有2个珠子，这个数是IPT1</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
         <f ca="1">RANDBETWEEN(Z55,AA55)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -4001,7 +4012,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="6">
         <f ca="1">D55*10+E55</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -4036,11 +4047,11 @@
       </c>
       <c r="C56" s="8" t="str">
         <f ca="1">"一个计数器，个位上有"&amp;D56&amp;"个珠子，十位上的珠子比个位上的多"&amp;E56&amp;"个，这个数是IPT1"</f>
-        <v>一个计数器，个位上有0个珠子，十位上的珠子比个位上的多1个，这个数是IPT1</v>
+        <v>一个计数器，个位上有3个珠子，十位上的珠子比个位上的多1个，这个数是IPT1</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="7">
         <f ca="1">RANDBETWEEN(Z56,AA56)</f>
@@ -4056,7 +4067,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="6">
         <f ca="1">(D56+E56)*10+D56</f>
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -4091,15 +4102,15 @@
       </c>
       <c r="C57" s="8" t="str">
         <f ca="1">"一个加数是"&amp;D57&amp;"，另一个加数是"&amp;E57&amp;"，求和是IPT1"</f>
-        <v>一个加数是17，另一个加数是1，求和是IPT1</v>
+        <v>一个加数是15，另一个加数是4，求和是IPT1</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7">
         <f ca="1">RANDBETWEEN(Z57,AA57)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -4111,7 +4122,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="6">
         <f ca="1">D57+E57</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -4146,15 +4157,15 @@
       </c>
       <c r="C58" s="8" t="str">
         <f ca="1">"被减数"&amp;D58&amp;"， 减数是比被减数少"&amp;E58&amp;"的数，求差是IPT1"</f>
-        <v>被减数15， 减数是比被减数少9的数，求差是IPT1</v>
+        <v>被减数10， 减数是比被减数少1的数，求差是IPT1</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" s="7">
         <f ca="1">RANDBETWEEN(Z58,AA58)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -4166,7 +4177,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="6">
         <f ca="1">D58-(D58-E58)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -4245,15 +4256,15 @@
       </c>
       <c r="C60" s="8" t="str">
         <f ca="1">D60&amp;"比"&amp;E60&amp;"多IPT1; "&amp;F60&amp;"比"&amp;G60&amp;"少IPT1"</f>
-        <v>11比1多IPT1; 7比14少IPT1</v>
+        <v>20比9多IPT1; 7比13少IPT1</v>
       </c>
       <c r="D60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F60" s="7">
         <f ca="1">RANDBETWEEN(Z60,AA60)</f>
@@ -4261,7 +4272,7 @@
       </c>
       <c r="G60" s="7">
         <f ca="1">RANDBETWEEN(X60,Y60)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -4271,11 +4282,11 @@
       <c r="M60" s="7"/>
       <c r="N60" s="6">
         <f ca="1">D60-E60</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O60" s="6">
         <f ca="1">G60-F60</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
@@ -4309,15 +4320,15 @@
       </c>
       <c r="C61" s="8" t="str">
         <f ca="1">D61&amp;"的"&amp;E61&amp;"在IPT1位上，表示IPT1个IPT1。"</f>
-        <v>92的9在IPT1位上，表示IPT1个IPT1。</v>
+        <v>42的4在IPT1位上，表示IPT1个IPT1。</v>
       </c>
       <c r="D61" s="7">
         <f ca="1">RANDBETWEEN(X61,Y61)*10+RANDBETWEEN(Z61,AA61)</f>
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="E61" s="7">
         <f ca="1">TRUNC(D61/10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -4332,7 +4343,7 @@
       </c>
       <c r="O61" s="6">
         <f ca="1">E61</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>91</v>
@@ -4368,11 +4379,11 @@
       </c>
       <c r="C62" s="8" t="str">
         <f ca="1">"找规律："&amp;D62&amp;"、"&amp;D62-E62&amp;"、"&amp;D62-E62-F62&amp;"、"&amp;D62-E62-F62-E62&amp;"、IPT1、IPT1、IPT1"</f>
-        <v>找规律：58、55、46、43、IPT1、IPT1、IPT1</v>
+        <v>找规律：69、66、58、55、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D68" ca="1" si="3">RANDBETWEEN(X62,Y62)</f>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E62" s="7">
         <f ca="1">RANDBETWEEN(Z62,AA62)</f>
@@ -4380,7 +4391,7 @@
       </c>
       <c r="F62" s="7">
         <f ca="1">RANDBETWEEN(AB62,AC62)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -4391,15 +4402,15 @@
       <c r="M62" s="7"/>
       <c r="N62" s="6">
         <f ca="1">D62-E62-F62-E62-F62</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O62" s="6">
         <f ca="1">N62-E62</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P62" s="6">
         <f ca="1">O62-F62</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -4436,15 +4447,15 @@
       </c>
       <c r="C63" s="8" t="str">
         <f ca="1">D63&amp;"个一和"&amp;E63&amp;"个十合起来是IPT1。这个两位数里面有IPT1个十。"</f>
-        <v>1个一和5个十合起来是IPT1。这个两位数里面有IPT1个十。</v>
+        <v>5个一和8个十合起来是IPT1。这个两位数里面有IPT1个十。</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63" s="7">
         <f ca="1">RANDBETWEEN(Z63,AA63)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -4456,11 +4467,11 @@
       <c r="M63" s="7"/>
       <c r="N63" s="6">
         <f ca="1">E63*10+D63</f>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="O63" s="6">
         <f ca="1">TRUNC(N63/10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
@@ -4494,15 +4505,15 @@
       </c>
       <c r="C64" s="8" t="str">
         <f ca="1">D64&amp;"个十和"&amp;E64&amp;"个一是IPT1"</f>
-        <v>3个十和3个一是IPT1</v>
+        <v>8个十和6个一是IPT1</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E64" s="7">
         <f ca="1">RANDBETWEEN(Z64,AA64)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -4514,7 +4525,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="6">
         <f ca="1">D64*10+E64</f>
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
@@ -4607,11 +4618,11 @@
       </c>
       <c r="C66" s="8" t="str">
         <f ca="1">"找规律：IPT1、"&amp;D66&amp;"、IPT1、"&amp;D66+2&amp;"、"&amp;D66+3&amp;"、IPT1"</f>
-        <v>找规律：IPT1、7、IPT1、9、10、IPT1</v>
+        <v>找规律：IPT1、6、IPT1、8、9、IPT1</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -4624,15 +4635,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="6">
         <f ca="1">D66-1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O66" s="6">
         <f ca="1">D66+1</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P66" s="6">
         <f ca="1">D66+4</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
@@ -4661,11 +4672,11 @@
       </c>
       <c r="C67" s="8" t="str">
         <f ca="1">"找规律："&amp;D67&amp;"、IPT1、"&amp;D67+2&amp;"、IPT1、IPT1、"&amp;D67+5&amp;""</f>
-        <v>找规律：10、IPT1、12、IPT1、IPT1、15</v>
+        <v>找规律：12、IPT1、14、IPT1、IPT1、17</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -4678,15 +4689,15 @@
       <c r="M67" s="7"/>
       <c r="N67" s="6">
         <f ca="1">D67+1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O67" s="6">
         <f ca="1">D67+3</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P67" s="6">
         <f ca="1">D67+4</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
@@ -4715,11 +4726,11 @@
       </c>
       <c r="C68" s="8" t="str">
         <f ca="1">"找规律：IPT1、"&amp;D68-E68&amp;"、"&amp;D68-E68*2&amp;"、IPT1、"&amp;D68-E68*3&amp;"、IPT1"</f>
-        <v>找规律：IPT1、17、14、IPT1、11、IPT1</v>
+        <v>找规律：IPT1、13、10、IPT1、7、IPT1</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E68" s="7">
         <f ca="1">RANDBETWEEN(Z68,AA68)</f>
@@ -4735,15 +4746,15 @@
       <c r="M68" s="7"/>
       <c r="N68" s="6">
         <f ca="1">D68+E68</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O68" s="6">
         <f ca="1">D68-E68*3</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P68" s="6">
         <f ca="1">D68-E68*4</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
@@ -4826,11 +4837,11 @@
       </c>
       <c r="C70" s="8" t="str">
         <f ca="1">"找规律："&amp;D70&amp;"、"&amp;D70+2&amp;"、IPT1、IPT1、"&amp;D70+8&amp;"、"&amp;D70+10&amp;"、IPT1"</f>
-        <v>找规律：8、10、IPT1、IPT1、16、18、IPT1</v>
+        <v>找规律：0、2、IPT1、IPT1、8、10、IPT1</v>
       </c>
       <c r="D70" s="7">
         <f ca="1">INT(RAND()*5)*2</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4843,15 +4854,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="6">
         <f ca="1">D70+4</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O70" s="6">
         <f ca="1">D70+6</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P70" s="6">
         <f ca="1">D70+12</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
@@ -4927,11 +4938,11 @@
       </c>
       <c r="C72" s="8" t="str">
         <f ca="1">"找规律："&amp;D72&amp;"、"&amp;(TRUNC(D72/10)+1)*10+MOD(D72, 10)+1&amp;"、"&amp;(TRUNC(D72/10)+2)*10+MOD(D72, 10)+2&amp;"、"&amp;(TRUNC(D72/10)+3)*10+MOD(D72, 10)+3&amp;"、IPT1、IPT1"</f>
-        <v>找规律：10、21、32、43、IPT1、IPT1</v>
+        <v>找规律：13、24、35、46、IPT1、IPT1</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" ref="D72:D75" ca="1" si="4">RANDBETWEEN(X72,Y72)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4944,11 +4955,11 @@
       <c r="M72" s="7"/>
       <c r="N72" s="6">
         <f ca="1">(TRUNC(D72/10)+4)*10+MOD(D72, 10)+4</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O72" s="6">
         <f ca="1">(TRUNC(D72/10)+5)*10+MOD(D72, 10)+5</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
@@ -4978,11 +4989,11 @@
       </c>
       <c r="C73" s="8" t="str">
         <f ca="1">"找规律："&amp;D73&amp;"、"&amp;MOD(D73, 10)*10 + TRUNC(D73/10)&amp;"、"&amp;(TRUNC(D73/10)+1)*10+MOD(D73, 10)+1&amp;"、"&amp;(MOD(D73, 10)+1)*10+TRUNC(D73/10)+1&amp;"、"&amp;(TRUNC(D73/10)+2)*10+MOD(D73, 10)+2&amp;"、IPT1、IPT1"</f>
-        <v>找规律：12、21、23、32、34、IPT1、IPT1</v>
+        <v>找规律：14、41、25、52、36、IPT1、IPT1</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
@@ -4995,11 +5006,11 @@
       <c r="M73" s="7"/>
       <c r="N73" s="6">
         <f ca="1">(MOD(D73, 10)+2)*10+TRUNC(D73/10)+2</f>
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="O73" s="6">
         <f ca="1">(TRUNC(D73/10)+3)*10+MOD(D73, 10)+3</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
@@ -5029,11 +5040,11 @@
       </c>
       <c r="C74" s="8" t="str">
         <f ca="1">"找规律："&amp;D74&amp;"、"&amp;D74+1&amp;"、"&amp;D74+3&amp;"、"&amp;D74+6&amp;"、IPT1、IPT1"</f>
-        <v>找规律：5、6、8、11、IPT1、IPT1</v>
+        <v>找规律：4、5、7、10、IPT1、IPT1</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
@@ -5046,11 +5057,11 @@
       <c r="M74" s="7"/>
       <c r="N74" s="6">
         <f ca="1">D74+10</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O74" s="6">
         <f ca="1">D74+15</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
@@ -5080,15 +5091,15 @@
       </c>
       <c r="C75" s="8" t="str">
         <f ca="1">"找规律："&amp;D75&amp;"、1、"&amp;D75-E75&amp;"、1、"&amp;D75-E75*2&amp;"、IPT1、IPT1、IPT1、IPT1"</f>
-        <v>找规律：20、1、18、1、16、IPT1、IPT1、IPT1、IPT1</v>
+        <v>找规律：17、1、14、1、11、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E75" s="7">
         <f ca="1">RANDBETWEEN(Z75,AA75)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
@@ -5103,14 +5114,14 @@
       </c>
       <c r="O75" s="6">
         <f ca="1">D75-E75*3</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
       </c>
       <c r="Q75" s="6">
         <f ca="1">D75-E75*4</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5142,11 +5153,11 @@
       </c>
       <c r="C76" s="8" t="str">
         <f ca="1">"找规律："&amp;D76&amp;"、1、"&amp;D76+E76&amp;"、1、"&amp;D76+E76*2&amp;"、IPT1、IPT1、IPT1、IPT1"</f>
-        <v>找规律：5、1、8、1、11、IPT1、IPT1、IPT1、IPT1</v>
+        <v>找规律：8、1、11、1、14、IPT1、IPT1、IPT1、IPT1</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76" ca="1" si="5">RANDBETWEEN(X76,Y76)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E76" s="7">
         <f ca="1">RANDBETWEEN(Z76,AA76)</f>
@@ -5165,14 +5176,14 @@
       </c>
       <c r="O76" s="6">
         <f ca="1">D76+E76*3</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P76" s="6">
         <v>1</v>
       </c>
       <c r="Q76" s="6">
         <f ca="1">D76+E76*4</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5406,11 +5417,11 @@
       </c>
       <c r="C81" s="8" t="str">
         <f ca="1">"树上有"&amp;D81&amp;"只小鸟，先飞走"&amp;E81&amp;"只，又飞走"&amp;F81&amp;"只，还剩IPT1只？一共飞走IPT1只？"</f>
-        <v>树上有20只小鸟，先飞走8只，又飞走6只，还剩IPT1只？一共飞走IPT1只？</v>
+        <v>树上有18只小鸟，先飞走8只，又飞走7只，还剩IPT1只？一共飞走IPT1只？</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" ref="D81:D82" ca="1" si="7">RANDBETWEEN(X81,Y81)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
@@ -5418,7 +5429,7 @@
       </c>
       <c r="F81" s="7">
         <f ca="1">RANDBETWEEN(Z81,AA81)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -5429,11 +5440,11 @@
       <c r="M81" s="7"/>
       <c r="N81" s="6">
         <f ca="1">D81-E81-F81</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O81" s="6">
         <f ca="1">E81+F81</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
@@ -5467,15 +5478,15 @@
       </c>
       <c r="C82" s="8" t="str">
         <f ca="1">"小猪有"&amp;IF(MOD(D82, 2) = 1, D82+1, D82)&amp;"块糖，小兔有"&amp;IF(MOD(E82, 2) = 1, E82+1, E82)&amp;"块糖，小猪给小兔IPT1块糖，他们就同样多了。"</f>
-        <v>小猪有18块糖，小兔有12块糖，小猪给小兔IPT1块糖，他们就同样多了。</v>
+        <v>小猪有20块糖，小兔有8块糖，小猪给小兔IPT1块糖，他们就同样多了。</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E82" s="7">
         <f ca="1">RANDBETWEEN(Z82,AA82)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -5487,7 +5498,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="6">
         <f ca="1">(IF(MOD(D82, 2) = 1, D82+1, D82)-IF(MOD(E82, 2) = 1, E82+1, E82))/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -5522,15 +5533,15 @@
       </c>
       <c r="C83" s="8" t="str">
         <f ca="1">"小朋友们排成一列，芳芳从前面数是排在第"&amp;D83&amp;"个，从后面数是排在第"&amp;E83&amp;"个，这一列有IPT1个小朋友？"</f>
-        <v>小朋友们排成一列，芳芳从前面数是排在第8个，从后面数是排在第2个，这一列有IPT1个小朋友？</v>
+        <v>小朋友们排成一列，芳芳从前面数是排在第6个，从后面数是排在第3个，这一列有IPT1个小朋友？</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" ref="D83" ca="1" si="8">RANDBETWEEN(X83,Y83)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E83" s="7">
         <f ca="1">RANDBETWEEN(Z83,AA83)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -5542,7 +5553,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="6">
         <f ca="1">D83+E83-1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
@@ -5629,11 +5640,11 @@
       </c>
       <c r="C85" s="8" t="str">
         <f ca="1">D85&amp;"角 = IPT1元；  "&amp;E85&amp;"元"&amp;F85&amp;"角 = IPT1角"</f>
-        <v>30角 = IPT1元；  3元2角 = IPT1角</v>
+        <v>20角 = IPT1元；  3元2角 = IPT1角</v>
       </c>
       <c r="D85" s="7">
         <f ca="1">RANDBETWEEN(X85,Y85)*10</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E85" s="7">
         <f ca="1">RANDBETWEEN(Z85,AA85)</f>
@@ -5652,7 +5663,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="6">
         <f ca="1">D85/10</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O85" s="6">
         <f ca="1">E85*10+F85</f>
@@ -5693,11 +5704,11 @@
       </c>
       <c r="C86" s="8" t="str">
         <f ca="1">D86&amp;"角 = IPT1元；  "&amp;E86&amp;"元"&amp;F86&amp;"角 = IPT1角"</f>
-        <v>30角 = IPT1元；  2元4角 = IPT1角</v>
+        <v>10角 = IPT1元；  2元1角 = IPT1角</v>
       </c>
       <c r="D86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)*10</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E86" s="7">
         <f ca="1">RANDBETWEEN(Z86,AA86)</f>
@@ -5705,7 +5716,7 @@
       </c>
       <c r="F86" s="7">
         <f ca="1">RANDBETWEEN(X86,Y86)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5716,11 +5727,11 @@
       <c r="M86" s="7"/>
       <c r="N86" s="6">
         <f ca="1">D86/10</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86" s="6">
         <f ca="1">E86*10+F86</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
@@ -5754,11 +5765,11 @@
       </c>
       <c r="C87" s="8" t="str">
         <f ca="1">"△-□="&amp;D87&amp;"    □+"&amp;E87&amp;"="&amp;F87&amp;"   请回答一下问题：□=IPT1   △=IPT1"</f>
-        <v>△-□=1    □+3=10   请回答一下问题：□=IPT1   △=IPT1</v>
+        <v>△-□=2    □+3=10   请回答一下问题：□=IPT1   △=IPT1</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" ref="D87:D89" ca="1" si="9">RANDBETWEEN(X87,Y87)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="7">
         <f ca="1">RANDBETWEEN(X87,Y87)</f>
@@ -5781,7 +5792,7 @@
       </c>
       <c r="O87" s="6">
         <f ca="1">F87+D87</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
@@ -5859,11 +5870,11 @@
       </c>
       <c r="C89" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D89&amp;"大，个位数字比"&amp;E89&amp;"小，这个两位数有IPT1个，最小的是IPT1"</f>
-        <v>一个两位数，十位数字比8大，个位数字比2小，这个两位数有IPT1个，最小的是IPT1</v>
+        <v>一个两位数，十位数字比6大，个位数字比2小，这个两位数有IPT1个，最小的是IPT1</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E89" s="7">
         <f t="shared" ref="E89:E96" ca="1" si="10">RANDBETWEEN(Z89,AA89)</f>
@@ -5879,11 +5890,11 @@
       <c r="M89" s="7"/>
       <c r="N89" s="6">
         <f ca="1">(9-D89)*E89</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O89" s="6">
         <f ca="1">(D89+1)*10</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
@@ -5917,15 +5928,15 @@
       </c>
       <c r="C90" s="8" t="str">
         <f ca="1">"一个两位数，十位数字比"&amp;D90&amp;"大，个位数字比"&amp;E90&amp;"小，这个两位数有IPT1个，最大的是IPT1"</f>
-        <v>一个两位数，十位数字比8大，个位数字比2小，这个两位数有IPT1个，最大的是IPT1</v>
+        <v>一个两位数，十位数字比5大，个位数字比3小，这个两位数有IPT1个，最大的是IPT1</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" ref="D90:D91" ca="1" si="11">RANDBETWEEN(X90,Y90)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E90" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
@@ -5937,11 +5948,11 @@
       <c r="M90" s="7"/>
       <c r="N90" s="6">
         <f ca="1">(9-D90)*E90</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O90" s="6">
         <f ca="1">90+(E90-1)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
@@ -5975,15 +5986,15 @@
       </c>
       <c r="C91" s="8" t="str">
         <f ca="1">D91&amp;"＋□＜"&amp;E91&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)"</f>
-        <v>5＋□＜15，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)</v>
+        <v>6＋□＜19，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从大到小)</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E91" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
@@ -5995,23 +6006,23 @@
       <c r="M91" s="7"/>
       <c r="N91" s="6">
         <f ca="1">E91-D91-1</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O91" s="6">
         <f ca="1">N91-1</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P91" s="6">
         <f ca="1">O91-1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q91" s="6">
         <f ca="1">P91-1</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R91" s="6">
         <f ca="1">Q91-1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -6042,7 +6053,7 @@
       </c>
       <c r="C92" s="8" t="str">
         <f ca="1">E92&amp;"-□＜"&amp;D92&amp;"，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)"</f>
-        <v>20-□＜5，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)</v>
+        <v>17-□＜5，□里可以填：IPT1、IPT1、IPT1、IPT1、IPT1。(从小到大)</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" ref="D92:D94" ca="1" si="12">RANDBETWEEN(X92,Y92)</f>
@@ -6050,7 +6061,7 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -6062,23 +6073,23 @@
       <c r="M92" s="7"/>
       <c r="N92" s="6">
         <f ca="1">E92-D92+1</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O92" s="6">
         <f ca="1">N92+1</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P92" s="6">
         <f ca="1">O92+1</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q92" s="6">
         <f ca="1">P92+1</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R92" s="6">
         <f ca="1">Q92+1</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -6109,15 +6120,15 @@
       </c>
       <c r="C93" s="8" t="str">
         <f ca="1">"大华和小刚每人有"&amp;D93&amp;"张画片，大华给小刚"&amp;E93&amp;"张后，小刚比大华多IPT1张？"</f>
-        <v>大华和小刚每人有7张画片，大华给小刚4张后，小刚比大华多IPT1张？</v>
+        <v>大华和小刚每人有9张画片，大华给小刚5张后，小刚比大华多IPT1张？</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93" s="7">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
@@ -6129,7 +6140,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="6">
         <f ca="1">E93*2</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -6164,11 +6175,11 @@
       </c>
       <c r="C94" s="8" t="str">
         <f ca="1">"小红有"&amp;D94&amp;"个玩具，小英的玩具比小红多"&amp;E94&amp;"个，小明的玩具比小英少"&amp;F94&amp;"个，小明有IPT1个玩具。"</f>
-        <v>小红有9个玩具，小英的玩具比小红多2个，小明的玩具比小英少3个，小明有IPT1个玩具。</v>
+        <v>小红有5个玩具，小英的玩具比小红多2个，小明的玩具比小英少4个，小明有IPT1个玩具。</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E94" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -6176,7 +6187,7 @@
       </c>
       <c r="F94" s="7">
         <f ca="1">RANDBETWEEN(Z94,AA94)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -6187,7 +6198,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="6">
         <f ca="1">D94+E94-F94</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
@@ -6222,11 +6233,11 @@
       </c>
       <c r="C95" s="8" t="str">
         <f ca="1">D95&amp;"个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了"&amp;E95&amp;"只&lt;小鸡&gt;，请问还有IPT1只小鸡没抓住。"</f>
-        <v>10个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了4只&lt;小鸡&gt;，请问还有IPT1只小鸡没抓住。</v>
+        <v>11个小朋友玩&lt;老鹰抓小鸡&gt;的游戏，已经抓住了4只&lt;小鸡&gt;，请问还有IPT1只小鸡没抓住。</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" ref="D95" ca="1" si="13">RANDBETWEEN(X95,Y95)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -6242,7 +6253,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="6">
         <f ca="1">D95-E95-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -6277,11 +6288,11 @@
       </c>
       <c r="C96" s="8" t="str">
         <f ca="1">"一队人，从左向右数，小张站在第"&amp;D96&amp;"个，从右往左数，他站在第"&amp;E96&amp;"个，这队共有IPT1人。"</f>
-        <v>一队人，从左向右数，小张站在第6个，从右往左数，他站在第7个，这队共有IPT1人。</v>
+        <v>一队人，从左向右数，小张站在第4个，从右往左数，他站在第7个，这队共有IPT1人。</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" ref="D96:D100" ca="1" si="14">RANDBETWEEN(X96,Y96)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E96" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -6297,7 +6308,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="6">
         <f ca="1">D96+E96-1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -6332,11 +6343,11 @@
       </c>
       <c r="C97" s="8" t="str">
         <f ca="1">"有"&amp;D97&amp;"个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报IPT1的多。如果报2的人全部退出，这时队里还有IPT1人"</f>
-        <v>有11个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报IPT1的多。如果报2的人全部退出，这时队里还有IPT1人</v>
+        <v>有19个人排成一队进行1、2报数，报1的人多还是报2的人多？答：报IPT1的多。如果报2的人全部退出，这时队里还有IPT1人</v>
       </c>
       <c r="D97" s="7">
         <f ca="1">10+INT(RAND()*5)*2+1</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
@@ -6352,7 +6363,7 @@
       </c>
       <c r="O97" s="6">
         <f ca="1">TRUNC(D97/2)+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
@@ -6378,11 +6389,11 @@
       </c>
       <c r="C98" s="8" t="str">
         <f ca="1">"一个小朋友唱一首歌要"&amp;D98&amp;"分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。"</f>
-        <v>一个小朋友唱一首歌要3分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。</v>
+        <v>一个小朋友唱一首歌要6分钟，现在4个小朋友同时唱同样的这首歌，需要IPT1分钟。</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -6395,7 +6406,7 @@
       <c r="M98" s="7"/>
       <c r="N98" s="6">
         <f ca="1">D98</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -6426,15 +6437,15 @@
       </c>
       <c r="C99" s="8" t="str">
         <f ca="1">"小云今年"&amp;D99&amp;"岁，奶奶说：“当你长到"&amp;E99&amp;"岁的时候，我就是"&amp;F99&amp;"岁了。“奶奶今年IPT1岁。"</f>
-        <v>小云今年10岁，奶奶说：“当你长到15岁的时候，我就是70岁了。“奶奶今年IPT1岁。</v>
+        <v>小云今年6岁，奶奶说：“当你长到17岁的时候，我就是70岁了。“奶奶今年IPT1岁。</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E99" s="7">
         <f ca="1">RANDBETWEEN(Z99,AA99)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F99" s="7">
         <v>70</v>
@@ -6448,7 +6459,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="6">
         <f ca="1">F99-(E99-D99)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -6483,11 +6494,11 @@
       </c>
       <c r="C100" s="8" t="str">
         <f ca="1">"一根60米长的绳子，做跳绳用去"&amp;D100&amp;"米，修排球网用去"&amp;E100&amp;"米，这根绳子少了IPT1米。"</f>
-        <v>一根60米长的绳子，做跳绳用去6米，修排球网用去19米，这根绳子少了IPT1米。</v>
+        <v>一根60米长的绳子，做跳绳用去7米，修排球网用去19米，这根绳子少了IPT1米。</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" s="7">
         <f ca="1">RANDBETWEEN(Z100,AA100)</f>
@@ -6503,7 +6514,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="6">
         <f ca="1">D100+E100</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
@@ -6761,7 +6772,7 @@
         <v>IMG1 盒子里有几根小棒？ IPT5（IPT1）</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -6797,9 +6808,16 @@
       </c>
     </row>
     <row r="107" spans="2:30">
-      <c r="B107" s="4"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="7"/>
+      <c r="B107" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="8" t="str">
+        <f>"IMG1 LFBR小花是左边数起的第（IPT1）个， 右边数起的第（IPT1）个。"</f>
+        <v>IMG1 LFBR小花是左边数起的第（IPT1）个， 右边数起的第（IPT1）个。</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
@@ -6809,8 +6827,12 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
+      <c r="N107" s="6">
+        <v>3</v>
+      </c>
+      <c r="O107" s="14">
+        <v>7</v>
+      </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
@@ -6825,7 +6847,93 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
-      <c r="AD107" s="12"/>
+      <c r="AD107" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30">
+      <c r="B108" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="8" t="str">
+        <f ca="1">"IMG1 LFBR左边数起的第"&amp;E108&amp;"个， 就是右边数起的第（IPT1）个，这个小朋友是（IPT1）。"</f>
+        <v>IMG1 LFBR左边数起的第7个， 就是右边数起的第（IPT1）个，这个小朋友是（IPT1）。</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="7">
+        <f ca="1">RANDBETWEEN(X108,Y108)</f>
+        <v>7</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="6">
+        <f ca="1">10-E108</f>
+        <v>3</v>
+      </c>
+      <c r="O108" s="14" t="str">
+        <f ca="1">IF(E108=4,"丁一",IF(E108=5,"小月",IF(E108=6,"小洁",IF(E108=7,"王强",""))))</f>
+        <v>王强</v>
+      </c>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>7</v>
+      </c>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:30">
+      <c r="B109" s="4"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
